--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC42F8-EDBB-46D4-A123-82952B58500B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB659DC-57EA-4E9F-BAAB-B8D1FEE59027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4950" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J31" totalsRowShown="0">
-  <autoFilter ref="A1:J31" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J32" totalsRowShown="0">
+  <autoFilter ref="A1:J32" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -554,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -599,42 +599,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -657,13 +636,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -686,13 +665,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -715,13 +694,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -744,13 +723,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -773,13 +752,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -802,13 +781,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -831,13 +810,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -860,13 +839,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -889,13 +868,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -918,16 +897,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -947,16 +926,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -976,16 +955,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1005,13 +984,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1034,13 +1013,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1063,16 +1042,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1092,13 +1071,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2000</v>
+        <v>1017</v>
+      </c>
+      <c r="B19">
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1107,24 +1089,21 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -1142,18 +1121,18 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1171,47 +1150,47 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1232,15 +1211,15 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1261,15 +1240,15 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1290,15 +1269,15 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1316,30 +1295,27 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>5000</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1348,30 +1324,33 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1382,22 +1361,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1411,19 +1390,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>2000</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1440,24 +1419,53 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
+        <v>5003</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>2000</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>9999</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>38</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>9999</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB659DC-57EA-4E9F-BAAB-B8D1FEE59027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D25EA-DF7D-4F62-92BE-6C3E11DB7C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>BonusID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Torch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/WaterBlock</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -239,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J32" totalsRowShown="0">
-  <autoFilter ref="A1:J32" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J34" totalsRowShown="0">
+  <autoFilter ref="A1:J34" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -554,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1100,13 +1108,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>2000</v>
+        <v>1018</v>
+      </c>
+      <c r="B20">
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1115,24 +1126,21 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>100</v>
@@ -1150,18 +1158,18 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1179,47 +1187,47 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1240,15 +1248,15 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1269,15 +1277,15 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1298,15 +1306,15 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1324,30 +1332,27 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>5000</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1356,30 +1361,33 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1390,22 +1398,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1419,19 +1427,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>2000</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1448,24 +1456,82 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>5003</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>5100</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>2100</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>9999</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>9999</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D25EA-DF7D-4F62-92BE-6C3E11DB7C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831901A-565D-4DF7-A424-DB1C26DF636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -247,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J34" totalsRowShown="0">
-  <autoFilter ref="A1:J34" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J35" totalsRowShown="0">
+  <autoFilter ref="A1:J35" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -562,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1535,6 +1535,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>10000</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831901A-565D-4DF7-A424-DB1C26DF636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B426A-B05D-4355-B152-B9A561AB8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="2100" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -139,46 +139,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_001</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_002</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_003</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_005</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_006</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_007</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_008</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/TransferGate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BonusID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Torch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/WaterBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>CanDestroy</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_001</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_002</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_003</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_005</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_006</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_007</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_008</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/TransferGate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BonusID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Torch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/WaterBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/Block99</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -247,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J35" totalsRowShown="0">
-  <autoFilter ref="A1:J35" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J36" totalsRowShown="0">
+  <autoFilter ref="A1:J36" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -562,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -596,13 +601,13 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -1114,7 +1119,7 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1137,13 +1142,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1152,24 +1157,18 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1187,18 +1186,18 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>100</v>
@@ -1216,47 +1215,47 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>100</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1277,15 +1276,15 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -1306,15 +1305,15 @@
         <v>2</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1335,15 +1334,15 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1361,30 +1360,27 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>5000</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1393,30 +1389,33 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1427,22 +1426,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1456,19 +1455,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>2000</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1485,25 +1484,25 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1514,13 +1513,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>9999</v>
+        <v>5100</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>9999</v>
+        <v>2100</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1532,26 +1534,52 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
+        <v>9999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>9999</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>10000</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>10000</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B426A-B05D-4355-B152-B9A561AB8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE972164-4B04-47A0-959B-62BCF2AC00B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -171,10 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Torch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Block/WaterBlock</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -184,6 +171,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/Block99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,16 +560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +592,7 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -610,7 +601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -618,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -647,7 +638,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -676,7 +667,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -705,7 +696,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -734,7 +725,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -763,7 +754,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -792,7 +783,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -821,7 +812,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -850,7 +841,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -879,7 +870,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -908,7 +899,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -937,7 +928,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -966,7 +957,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -995,7 +986,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1053,7 +1044,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1082,7 +1073,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1111,7 +1102,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1140,12 +1131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1999</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>99</v>
@@ -1163,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1192,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -1221,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -1308,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -1337,7 +1328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -1366,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -1395,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5000</v>
       </c>
@@ -1424,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5001</v>
       </c>
@@ -1453,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5002</v>
       </c>
@@ -1482,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>5003</v>
       </c>
@@ -1511,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>5100</v>
       </c>
@@ -1519,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <v>2100</v>
@@ -1540,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>9999</v>
       </c>
@@ -1563,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10000</v>
       </c>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE972164-4B04-47A0-959B-62BCF2AC00B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD66C0-C25A-49C1-9E79-DC1F37AFFB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="6135" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Craft</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -243,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J36" totalsRowShown="0">
-  <autoFilter ref="A1:J36" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J39" totalsRowShown="0">
+  <autoFilter ref="A1:J39" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -558,18 +562,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="39.09765625" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -609,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -638,7 +645,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -667,7 +674,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -696,7 +703,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -725,7 +732,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -754,7 +761,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -783,7 +790,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -812,7 +819,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -841,7 +848,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -870,7 +877,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -899,7 +906,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -928,7 +935,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -957,7 +964,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -986,7 +993,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2001</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2002</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2003</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2004</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2006</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2007</v>
       </c>
@@ -1386,191 +1393,278 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
+        <v>2100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>5000</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>1000</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>5001</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>1001</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>5002</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>2000</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>5003</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>2000</v>
       </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>5100</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>2100</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>9999</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D35">
+      <c r="D38">
         <v>9999</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>10000</v>
       </c>
-      <c r="D36">
+      <c r="D39">
         <v>10000</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD66C0-C25A-49C1-9E79-DC1F37AFFB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6DDEF-017C-4533-9726-016F82E97DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -178,7 +178,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Craft</t>
+    <t>Prefabs/Game/Scene/TreasureBox01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/TreasureBox02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/TreasureBox03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,7 +576,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1427,7 +1435,7 @@
         <v>2101</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>110</v>
@@ -1456,7 +1464,7 @@
         <v>2102</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>110</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6DDEF-017C-4533-9726-016F82E97DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6209B62-19EA-4BB1-8357-4413000EBF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +189,182 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/TreasureBox03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルはゲーム内の全部オブジェクトを定義します。（キャラクタ以外）</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScaleX、Ｙ、Ｚ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のＩＤ</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item表のＩＤ</t>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabのパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティのタイプ（詳しいはTypeシートを参考してください）</t>
+    <rPh sb="11" eb="12">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティの大きさ</t>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊すできるかの設定（１True　０False）</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊す時間</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊す場合手に入るボーナス（Type 100⇒Bonus表、Type 110⇒RandomBonus表）</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のブロック</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明ブロック（ガラス、葉）</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れないブロック</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材が手に入るオブジェクト（木、石）</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝ボックス</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業台</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送門</t>
+    <rPh sb="0" eb="3">
+      <t>テンソウモン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -194,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,21 +388,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -233,8 +463,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +815,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1684,4 +1923,210 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6209B62-19EA-4BB1-8357-4413000EBF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C15627-8957-4363-8FCF-8B774EB3DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -365,6 +365,21 @@
     <rPh sb="0" eb="3">
       <t>テンソウモン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J39" totalsRowShown="0">
-  <autoFilter ref="A1:J39" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J41" totalsRowShown="0">
+  <autoFilter ref="A1:J41" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -809,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1387,13 +1402,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1999</v>
+        <v>1500</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1405,18 +1423,24 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2000</v>
+        <v>1501</v>
+      </c>
+      <c r="B22">
+        <v>501</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1425,27 +1449,24 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1454,24 +1475,18 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1.5</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1489,76 +1504,76 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>100</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -1579,15 +1594,15 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -1608,15 +1623,15 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -1634,27 +1649,27 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>2100</v>
+        <v>2006</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1663,27 +1678,27 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>2101</v>
+        <v>2007</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1692,18 +1707,18 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>110</v>
@@ -1724,194 +1739,252 @@
         <v>1</v>
       </c>
       <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>2101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>110</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>110</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>5000</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>1000</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>5001</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>26</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>1001</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>5002</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>2000</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>5003</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>2000</v>
       </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>5100</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>2100</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>9999</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>9999</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>10000</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>10000</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
@@ -2032,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2063,65 +2136,73 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>2100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>9999</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C15627-8957-4363-8FCF-8B774EB3DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6287544-8DC2-4D2F-9D24-4684408B7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -380,6 +380,80 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/Flower02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HaveDirection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Grass01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower03</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower04</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower05</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower06</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower07</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower08</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower09</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Flower10</t>
+  </si>
+  <si>
+    <t>草</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大花</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanPut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向きありなしのフラグ（0なし　１あり）</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このエンティティの上にブロック置くことができるかのフラグ（0できない　１できる）</t>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,9 +583,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:J41" totalsRowShown="0">
-  <autoFilter ref="A1:J41" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:L51" totalsRowShown="0">
+  <autoFilter ref="A1:L51" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{326657AA-0002-4891-B10C-BB7C2775074D}" name="Resources"/>
@@ -519,9 +593,11 @@
     <tableColumn id="6" xr3:uid="{C7A5A076-34D5-4775-84F1-7B28EC16B17D}" name="ScaleX"/>
     <tableColumn id="7" xr3:uid="{D4A9C04E-3F00-4255-AB2E-917E1869962D}" name="ScaleZ"/>
     <tableColumn id="8" xr3:uid="{B4AC5A21-1288-4AB8-9B04-6C191074D64F}" name="ScaleY"/>
-    <tableColumn id="9" xr3:uid="{5CFA874B-6D76-4867-979E-F6703FA23597}" name="CanDestroy"/>
     <tableColumn id="5" xr3:uid="{E1B3C72F-8DBD-40FD-8F05-9D78B44CDD94}" name="DestroyTime"/>
     <tableColumn id="2" xr3:uid="{177F54C3-1701-4DE4-9166-E6018812719F}" name="BonusID"/>
+    <tableColumn id="9" xr3:uid="{5CFA874B-6D76-4867-979E-F6703FA23597}" name="CanDestroy"/>
+    <tableColumn id="10" xr3:uid="{A7C1F28C-80E8-407A-8765-8093DA435115}" name="HaveDirection"/>
+    <tableColumn id="12" xr3:uid="{78F96F27-F03F-4C8E-8F88-BF75A03D727E}" name="CanPut"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,21 +900,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,24 +940,36 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -901,13 +992,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -930,13 +1027,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -959,13 +1062,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -988,13 +1097,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1017,13 +1132,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1046,13 +1167,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1075,13 +1202,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1104,13 +1237,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1133,13 +1272,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1162,13 +1307,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1191,13 +1342,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1220,13 +1377,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1249,13 +1412,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1278,13 +1447,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1307,13 +1482,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1336,13 +1517,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1365,13 +1552,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1396,11 +1589,17 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -1425,11 +1624,17 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1501</v>
       </c>
@@ -1454,537 +1659,1004 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>1502</v>
+      </c>
+      <c r="B23">
+        <v>502</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1503</v>
+      </c>
+      <c r="B24">
+        <v>503</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1504</v>
+      </c>
+      <c r="B25">
+        <v>504</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1505</v>
+      </c>
+      <c r="B26">
+        <v>505</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1506</v>
+      </c>
+      <c r="B27">
+        <v>506</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1507</v>
+      </c>
+      <c r="B28">
+        <v>507</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1508</v>
+      </c>
+      <c r="B29">
+        <v>508</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1509</v>
+      </c>
+      <c r="B30">
+        <v>509</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1550</v>
+      </c>
+      <c r="B31">
+        <v>550</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1600</v>
+      </c>
+      <c r="B32">
+        <v>600</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>1999</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
-      <c r="D23">
+      <c r="D33">
         <v>99</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>2000</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D24">
+      <c r="D34">
         <v>100</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>2001</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="D25">
+      <c r="D35">
         <v>100</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="H35">
         <v>1.5</v>
       </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>2002</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
+      <c r="D36">
         <v>100</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="H36">
         <v>0.8</v>
       </c>
-      <c r="J26">
+      <c r="I36">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>2003</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" t="s">
         <v>32</v>
       </c>
-      <c r="D27">
+      <c r="D37">
         <v>100</v>
       </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>2004</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
+      <c r="D38">
         <v>100</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>2005</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C39" t="s">
         <v>34</v>
       </c>
-      <c r="D29">
+      <c r="D39">
         <v>100</v>
       </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>2006</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C40" t="s">
         <v>35</v>
       </c>
-      <c r="D30">
+      <c r="D40">
         <v>100</v>
       </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>2007</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C41" t="s">
         <v>36</v>
       </c>
-      <c r="D31">
+      <c r="D41">
         <v>100</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>4</v>
       </c>
-      <c r="J31">
+      <c r="I41">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>2100</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>110</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43">
         <v>2101</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="D33">
+      <c r="D43">
         <v>110</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>2102</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="D34">
+      <c r="D44">
         <v>110</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>5000</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D35">
+      <c r="D45">
         <v>1000</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>5001</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D36">
+      <c r="D46">
         <v>1001</v>
       </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>5002</v>
       </c>
-      <c r="B37">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C47" t="s">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="D47">
         <v>2000</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>5003</v>
       </c>
-      <c r="B38">
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D38">
+      <c r="D48">
         <v>2000</v>
       </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49">
         <v>5100</v>
       </c>
-      <c r="B39">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C49" t="s">
         <v>42</v>
       </c>
-      <c r="D39">
+      <c r="D49">
         <v>2100</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>9999</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="D40">
+      <c r="D50">
         <v>9999</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>10000</v>
       </c>
-      <c r="D41">
+      <c r="D51">
         <v>10000</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>0</v>
       </c>
     </row>
@@ -2000,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2096,6 +2768,26 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2105,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2144,65 +2836,81 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2100</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>9999</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6287544-8DC2-4D2F-9D24-4684408B7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630F156-1CF6-4F62-B945-850CD49D440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="2565" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -455,6 +455,33 @@
   <si>
     <t>Prefabs/Game/Scene/BigFlower01</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower02</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower03</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower04</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower05</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower06</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower07</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower08</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower09</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/BigFlower10</t>
   </si>
 </sst>
 </file>
@@ -583,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:L51" totalsRowShown="0">
-  <autoFilter ref="A1:L51" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:L60" totalsRowShown="0">
+  <autoFilter ref="A1:L60" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -900,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1986,25 +2013,25 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1600</v>
+        <v>1551</v>
       </c>
       <c r="B32">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2013,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2021,63 +2048,69 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1999</v>
+        <v>1552</v>
+      </c>
+      <c r="B33">
+        <v>552</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>2000</v>
+        <v>1553</v>
+      </c>
+      <c r="B34">
+        <v>553</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2085,34 +2118,34 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>2001</v>
+        <v>1554</v>
+      </c>
+      <c r="B35">
+        <v>554</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>1.5</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2120,34 +2153,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>2002</v>
+        <v>1555</v>
+      </c>
+      <c r="B36">
+        <v>555</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>0.8</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2155,34 +2188,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>2003</v>
+        <v>1556</v>
+      </c>
+      <c r="B37">
+        <v>556</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2190,34 +2223,34 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>2004</v>
+        <v>1557</v>
+      </c>
+      <c r="B38">
+        <v>557</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2225,34 +2258,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>2005</v>
+        <v>1558</v>
+      </c>
+      <c r="B39">
+        <v>558</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2260,34 +2293,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>2006</v>
+        <v>1559</v>
+      </c>
+      <c r="B40">
+        <v>559</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2295,28 +2328,28 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>2007</v>
+        <v>1600</v>
+      </c>
+      <c r="B41">
+        <v>600</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2330,13 +2363,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>2100</v>
+        <v>1999</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2347,31 +2380,25 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>2101</v>
+        <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2380,19 +2407,19 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2400,13 +2427,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>2102</v>
+        <v>2001</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2415,19 +2442,19 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2435,16 +2462,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>5000</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2453,16 +2477,19 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2470,16 +2497,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>5001</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
+        <v>2003</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2488,16 +2512,19 @@
         <v>2</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="H46">
-        <v>1</v>
+      <c r="I46">
+        <v>5</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2505,34 +2532,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>5002</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
+        <v>2004</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
         <v>2</v>
       </c>
-      <c r="H47">
-        <v>1</v>
+      <c r="I47">
+        <v>6</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2540,34 +2567,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>5003</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
+        <v>2005</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>2</v>
       </c>
-      <c r="H48">
-        <v>1</v>
+      <c r="I48">
+        <v>7</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2575,34 +2602,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>5100</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
+        <v>2006</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -2610,25 +2637,31 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>9999</v>
+        <v>2007</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2639,24 +2672,333 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51">
+        <v>2100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>2101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
+        <v>110</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>110</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>5000</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>1000</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>5001</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>1001</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>5002</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>2000</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>5003</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>2000</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>5100</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>2100</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>9999</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>9999</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60">
         <v>10000</v>
       </c>
-      <c r="D51">
+      <c r="D60">
         <v>10000</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>0</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630F156-1CF6-4F62-B945-850CD49D440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC59F34-1479-45F8-9192-85183B4D299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="2205" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -930,10 +930,10 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J41">
         <v>1</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC59F34-1479-45F8-9192-85183B4D299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA739E8-6C80-4261-AE12-DAC51436FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/BigFlower10</t>
+  </si>
+  <si>
+    <t>CanSuspension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サスペンションできるかのフラグ（０＝false　１＝true）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -610,9 +618,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:L60" totalsRowShown="0">
-  <autoFilter ref="A1:L60" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M60" totalsRowShown="0">
+  <autoFilter ref="A1:M60" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{326657AA-0002-4891-B10C-BB7C2775074D}" name="Resources"/>
@@ -625,6 +633,7 @@
     <tableColumn id="9" xr3:uid="{5CFA874B-6D76-4867-979E-F6703FA23597}" name="CanDestroy"/>
     <tableColumn id="10" xr3:uid="{A7C1F28C-80E8-407A-8765-8093DA435115}" name="HaveDirection"/>
     <tableColumn id="12" xr3:uid="{78F96F27-F03F-4C8E-8F88-BF75A03D727E}" name="CanPut"/>
+    <tableColumn id="13" xr3:uid="{74EA8803-BD75-49A0-8618-A76056736664}" name="CanSuspension"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,13 +936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -944,7 +953,7 @@
     <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="L1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -995,8 +1007,11 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1030,8 +1045,11 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1065,8 +1083,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1100,8 +1121,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1135,8 +1159,11 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1170,8 +1197,11 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1205,8 +1235,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1240,8 +1273,11 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1275,8 +1311,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1310,8 +1349,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1345,8 +1387,11 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1380,8 +1425,11 @@
       <c r="L13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1415,8 +1463,11 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1450,8 +1501,11 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1485,8 +1539,11 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1520,8 +1577,11 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1588,10 +1651,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1625,8 +1691,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -1660,8 +1729,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1501</v>
       </c>
@@ -1695,8 +1767,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1502</v>
       </c>
@@ -1730,8 +1805,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1503</v>
       </c>
@@ -1765,8 +1843,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1504</v>
       </c>
@@ -1800,8 +1881,11 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1505</v>
       </c>
@@ -1835,8 +1919,11 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1506</v>
       </c>
@@ -1870,8 +1957,11 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1507</v>
       </c>
@@ -1905,8 +1995,11 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1508</v>
       </c>
@@ -1940,8 +2033,11 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1509</v>
       </c>
@@ -1975,8 +2071,11 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1550</v>
       </c>
@@ -2010,8 +2109,11 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1551</v>
       </c>
@@ -2045,8 +2147,11 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1552</v>
       </c>
@@ -2080,8 +2185,11 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1553</v>
       </c>
@@ -2115,8 +2223,11 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1554</v>
       </c>
@@ -2150,8 +2261,11 @@
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1555</v>
       </c>
@@ -2185,8 +2299,11 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1556</v>
       </c>
@@ -2220,8 +2337,11 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1557</v>
       </c>
@@ -2255,8 +2375,11 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1558</v>
       </c>
@@ -2290,8 +2413,11 @@
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1559</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1600</v>
       </c>
@@ -2360,8 +2489,11 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -2389,8 +2521,11 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -2424,8 +2559,11 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2001</v>
       </c>
@@ -2459,8 +2597,11 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2002</v>
       </c>
@@ -2494,8 +2635,11 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2003</v>
       </c>
@@ -2529,8 +2673,11 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2004</v>
       </c>
@@ -2564,8 +2711,11 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2005</v>
       </c>
@@ -2599,8 +2749,11 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -2634,8 +2787,11 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2007</v>
       </c>
@@ -2669,8 +2825,11 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2100</v>
       </c>
@@ -2704,8 +2863,11 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2101</v>
       </c>
@@ -2739,8 +2901,11 @@
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>2102</v>
       </c>
@@ -2774,8 +2939,11 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>5000</v>
       </c>
@@ -2809,8 +2977,11 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>5001</v>
       </c>
@@ -2844,8 +3015,11 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>5002</v>
       </c>
@@ -2879,8 +3053,11 @@
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>5003</v>
       </c>
@@ -2914,8 +3091,11 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>5100</v>
       </c>
@@ -2949,8 +3129,11 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>9999</v>
       </c>
@@ -2978,8 +3161,11 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>10000</v>
       </c>
@@ -3000,6 +3186,9 @@
       </c>
       <c r="K60">
         <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3014,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3128,6 +3317,16 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA739E8-6C80-4261-AE12-DAC51436FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0EAA2-42B2-4800-8DF6-5C6E28740063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -618,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M60" totalsRowShown="0">
-  <autoFilter ref="A1:M60" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M65" totalsRowShown="0">
+  <autoFilter ref="A1:M65" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -936,13 +936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1500</v>
+        <v>1019</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1718,33 +1718,33 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1501</v>
+        <v>1020</v>
       </c>
       <c r="B22">
-        <v>501</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1756,33 +1756,33 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1502</v>
+        <v>1021</v>
       </c>
       <c r="B23">
-        <v>502</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1794,33 +1794,33 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1503</v>
+        <v>1022</v>
       </c>
       <c r="B24">
-        <v>503</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1832,33 +1832,33 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1504</v>
+        <v>1023</v>
       </c>
       <c r="B25">
-        <v>504</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1870,30 +1870,30 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B26">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B27">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B28">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B29">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B30">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2077,28 +2077,28 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="B31">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2115,28 +2115,28 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1551</v>
+        <v>1506</v>
       </c>
       <c r="B32">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2153,28 +2153,28 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1552</v>
+        <v>1507</v>
       </c>
       <c r="B33">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2191,28 +2191,28 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1553</v>
+        <v>1508</v>
       </c>
       <c r="B34">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2229,28 +2229,28 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1554</v>
+        <v>1509</v>
       </c>
       <c r="B35">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="B36">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="B37">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="B38">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="B39">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B40">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2457,34 +2457,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="B41">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2495,66 +2495,72 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1999</v>
+        <v>1556</v>
+      </c>
+      <c r="B42">
+        <v>556</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>0.8</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>2000</v>
+        <v>1557</v>
+      </c>
+      <c r="B43">
+        <v>557</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2565,34 +2571,34 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>2001</v>
+        <v>1558</v>
+      </c>
+      <c r="B44">
+        <v>558</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>1.5</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2603,34 +2609,34 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>2002</v>
+        <v>1559</v>
+      </c>
+      <c r="B45">
+        <v>559</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <v>0.8</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -2641,28 +2647,28 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>2003</v>
+        <v>1600</v>
+      </c>
+      <c r="B46">
+        <v>600</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2679,66 +2685,60 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>6</v>
-      </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2755,28 +2755,28 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>1.5</v>
+      </c>
+      <c r="I49">
         <v>2</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2793,28 +2793,28 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2831,34 +2831,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>2100</v>
+        <v>2003</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2869,34 +2869,34 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>2101</v>
+        <v>2004</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2907,34 +2907,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>2102</v>
+        <v>2005</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D53">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2945,34 +2945,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>5000</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -2983,16 +2983,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>5001</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
+        <v>2007</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3001,16 +2998,19 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -3021,16 +3021,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>5002</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
+        <v>2100</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3039,9 +3036,12 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
@@ -3059,28 +3059,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>5003</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
+        <v>2101</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>2</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3097,16 +3097,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>5100</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
+        <v>2102</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D58">
-        <v>2100</v>
+        <v>110</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3120,6 +3117,9 @@
       <c r="H58">
         <v>1</v>
       </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
       <c r="J58">
         <v>1</v>
       </c>
@@ -3130,18 +3130,21 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>9999</v>
+        <v>5000</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>9999</v>
+        <v>1000</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3152,11 +3155,14 @@
       <c r="G59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3167,27 +3173,211 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
+        <v>5001</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>1001</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>5002</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>2000</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>5003</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>2000</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>5100</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63">
+        <v>2100</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>9999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>9999</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>10000</v>
       </c>
-      <c r="D60">
+      <c r="D65">
         <v>10000</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0EAA2-42B2-4800-8DF6-5C6E28740063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566708D-C231-4037-8543-26F18218E944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4725" yWindow="1035" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -490,6 +490,29 @@
   <si>
     <t>サスペンションできるかのフラグ（０＝false　１＝true）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_025</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_026</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_027</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_028</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_029</t>
   </si>
 </sst>
 </file>
@@ -618,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M65" totalsRowShown="0">
-  <autoFilter ref="A1:M65" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M67" totalsRowShown="0">
+  <autoFilter ref="A1:M67" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -936,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1697,13 +1720,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B21">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1735,13 +1758,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1773,13 +1796,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1811,13 +1834,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1849,13 +1872,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1887,16 +1910,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1500</v>
+        <v>1028</v>
       </c>
       <c r="B26">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1908,33 +1931,33 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1501</v>
+        <v>1029</v>
       </c>
       <c r="B27">
-        <v>501</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1946,30 +1969,30 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B28">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2001,13 +2024,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B29">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2039,13 +2062,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B30">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2077,13 +2100,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B31">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2115,13 +2138,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B32">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -2153,13 +2176,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B33">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2191,13 +2214,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B34">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2229,13 +2252,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B35">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2267,28 +2290,28 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1550</v>
+        <v>1508</v>
       </c>
       <c r="B36">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2305,28 +2328,28 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1551</v>
+        <v>1509</v>
       </c>
       <c r="B37">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2343,13 +2366,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B38">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -2381,13 +2404,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B39">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2419,13 +2442,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B40">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2457,13 +2480,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B41">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2495,13 +2518,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B42">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -2533,13 +2556,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B43">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2571,13 +2594,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B44">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2609,13 +2632,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B45">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2647,34 +2670,34 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1600</v>
+        <v>1558</v>
       </c>
       <c r="B46">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -2685,45 +2708,54 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1999</v>
+        <v>1559</v>
+      </c>
+      <c r="B47">
+        <v>559</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>2000</v>
+        <v>1600</v>
+      </c>
+      <c r="B48">
+        <v>600</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2732,13 +2764,10 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2755,13 +2784,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2770,33 +2799,27 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>1.5</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>100</v>
@@ -2811,10 +2834,10 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2831,28 +2854,28 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>100</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2869,28 +2892,28 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>100</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2907,10 +2930,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>100</v>
@@ -2928,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2945,10 +2968,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D54">
         <v>100</v>
@@ -2966,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2983,10 +3006,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>100</v>
@@ -3001,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3021,34 +3044,34 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>2100</v>
+        <v>2006</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3059,34 +3082,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>2101</v>
+        <v>2007</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3097,10 +3120,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58">
         <v>110</v>
@@ -3118,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3135,16 +3158,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>5000</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D59">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3157,6 +3177,9 @@
       </c>
       <c r="H59">
         <v>1</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3173,28 +3196,28 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>5001</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
+        <v>2102</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D60">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3211,16 +3234,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3229,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -3249,22 +3272,22 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D62">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -3287,16 +3310,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>5100</v>
+        <v>5002</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D63">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3305,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3320,33 +3343,39 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>9999</v>
+        <v>5003</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>9999</v>
+        <v>2000</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
         <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3357,27 +3386,97 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
+        <v>5100</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65">
+        <v>2100</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>9999</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66">
+        <v>9999</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>10000</v>
       </c>
-      <c r="D65">
+      <c r="D67">
         <v>10000</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="M65">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566708D-C231-4037-8543-26F18218E944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120B6D1-E776-4DD5-8BD5-FE9E131E22F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1035" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="2535" yWindow="1560" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -513,6 +513,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_029</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Mission</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -641,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M67" totalsRowShown="0">
-  <autoFilter ref="A1:M67" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M68" totalsRowShown="0">
+  <autoFilter ref="A1:M68" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -959,13 +963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -973,7 +977,7 @@
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -3424,28 +3428,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>9999</v>
+        <v>6000</v>
+      </c>
+      <c r="B66">
+        <v>3003</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D66">
-        <v>9999</v>
+        <v>1002</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
         <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3456,27 +3466,59 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
+        <v>9999</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>9999</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68">
         <v>10000</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>10000</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="M67">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120B6D1-E776-4DD5-8BD5-FE9E131E22F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC93CE0-AAC4-412B-A615-BBB6027864EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1560" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -517,6 +526,28 @@
   <si>
     <t>Prefabs/Game/Scene/Mission</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Mission</t>
+  </si>
+  <si>
+    <t>ミッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>フォーチュンクッキーショップ（仮）</t>
+  </si>
+  <si>
+    <t>資材店</t>
+  </si>
+  <si>
+    <t>設計図市場</t>
+  </si>
+  <si>
+    <t>ギフト店</t>
   </si>
 </sst>
 </file>
@@ -645,8 +676,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M68" totalsRowShown="0">
-  <autoFilter ref="A1:M68" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M73" totalsRowShown="0">
+  <autoFilter ref="A1:M73" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -963,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3466,28 +3497,28 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>9999</v>
+        <v>6001</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D67">
-        <v>9999</v>
+        <v>1003</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3498,27 +3529,187 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
+        <v>6002</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68">
+        <v>1004</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>6003</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69">
+        <v>1005</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>6004</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70">
+        <v>1006</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>6005</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71">
+        <v>1007</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>9999</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>9999</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>10000</v>
       </c>
-      <c r="D68">
+      <c r="D73">
         <v>10000</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>1</v>
       </c>
     </row>
@@ -3537,7 +3728,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3669,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3764,25 +3955,73 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2100</v>
+        <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>1004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1006</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>9999</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6120B6D1-E776-4DD5-8BD5-FE9E131E22F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23B572-1E0A-48B8-8069-926B23BC04B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1560" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -512,10 +521,113 @@
     <t>Prefabs/Game/Block/block_3d_028</t>
   </si>
   <si>
+    <t>Prefabs/Game/Scene/Mission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Prefabs/Game/Block/block_3d_029</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Mission</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_034</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_035</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_036</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_037</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_038</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_039</t>
+  </si>
+  <si>
+    <t>ランタン</t>
+  </si>
+  <si>
+    <t>向きあるObject</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_020</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_021</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_022</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_023</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_024</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_025</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_026</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_027</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_028</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_029</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_030</t>
+  </si>
+  <si>
+    <t>向きないObject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsSurface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップをインスタンスする場合、表面と判断するかのフラグ</t>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_032</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/object_3d_033</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -645,8 +757,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M68" totalsRowShown="0">
-  <autoFilter ref="A1:M68" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M90" totalsRowShown="0">
+  <autoFilter ref="A1:M90" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -963,13 +1075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1958,7 +2070,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1990,16 +2102,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1500</v>
+        <v>1034</v>
       </c>
       <c r="B28">
-        <v>500</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2011,33 +2123,33 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1501</v>
+        <v>1035</v>
       </c>
       <c r="B29">
-        <v>501</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2049,33 +2161,33 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1502</v>
+        <v>1036</v>
       </c>
       <c r="B30">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2087,33 +2199,33 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1503</v>
+        <v>1037</v>
       </c>
       <c r="B31">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2125,33 +2237,33 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1504</v>
+        <v>1038</v>
       </c>
       <c r="B32">
-        <v>504</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2163,33 +2275,33 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1505</v>
+        <v>1039</v>
       </c>
       <c r="B33">
-        <v>505</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2201,30 +2313,30 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="B34">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2256,13 +2368,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="B35">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2294,13 +2406,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="B36">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2332,13 +2444,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B37">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2370,28 +2482,28 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1550</v>
+        <v>1504</v>
       </c>
       <c r="B38">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2408,28 +2520,28 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1551</v>
+        <v>1505</v>
       </c>
       <c r="B39">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2446,28 +2558,28 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1552</v>
+        <v>1506</v>
       </c>
       <c r="B40">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2484,28 +2596,28 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1553</v>
+        <v>1507</v>
       </c>
       <c r="B41">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2522,28 +2634,28 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1554</v>
+        <v>1508</v>
       </c>
       <c r="B42">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2560,28 +2672,28 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1555</v>
+        <v>1509</v>
       </c>
       <c r="B43">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2598,13 +2710,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="B44">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2636,13 +2748,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="B45">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2674,13 +2786,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="B46">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2712,13 +2824,13 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="B47">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2750,34 +2862,34 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1600</v>
+        <v>1554</v>
       </c>
       <c r="B48">
-        <v>600</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -2788,66 +2900,72 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1999</v>
+        <v>1555</v>
+      </c>
+      <c r="B49">
+        <v>555</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D49">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>0.8</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>2000</v>
+        <v>1556</v>
+      </c>
+      <c r="B50">
+        <v>556</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2858,34 +2976,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>2001</v>
+        <v>1557</v>
+      </c>
+      <c r="B51">
+        <v>557</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>1.5</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -2896,34 +3014,34 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>2002</v>
+        <v>1558</v>
+      </c>
+      <c r="B52">
+        <v>558</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0.8</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2934,34 +3052,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>2003</v>
+        <v>1559</v>
+      </c>
+      <c r="B53">
+        <v>559</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2972,28 +3090,28 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>2004</v>
+        <v>1600</v>
+      </c>
+      <c r="B54">
+        <v>600</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3010,66 +3128,60 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>7</v>
-      </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3086,28 +3198,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>1.5</v>
+      </c>
+      <c r="I57">
         <v>2</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <v>9</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3124,13 +3236,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>2100</v>
+        <v>2002</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3139,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3162,34 +3274,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>2101</v>
+        <v>2003</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3200,34 +3312,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>2102</v>
+        <v>2004</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3238,34 +3350,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>5000</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
+        <v>2005</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D61">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3276,16 +3388,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>5001</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
+        <v>2006</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D62">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -3294,16 +3403,19 @@
         <v>2</v>
       </c>
       <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
         <v>2</v>
       </c>
-      <c r="H62">
-        <v>1</v>
+      <c r="I62">
+        <v>8</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3314,34 +3426,34 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>5002</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
+        <v>2007</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D63">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3352,27 +3464,27 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>5003</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
+        <v>2100</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D64">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
       <c r="J64">
@@ -3390,16 +3502,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>5100</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
+        <v>2101</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D65">
-        <v>2100</v>
+        <v>110</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3413,6 +3522,9 @@
       <c r="H65">
         <v>1</v>
       </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
       <c r="J65">
         <v>1</v>
       </c>
@@ -3423,33 +3535,33 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>6000</v>
-      </c>
-      <c r="B66">
-        <v>3003</v>
+        <v>2102</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>1002</v>
+        <v>110</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3466,13 +3578,16 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>9999</v>
+        <v>5000</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>9999</v>
+        <v>1000</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3483,11 +3598,14 @@
       <c r="G67">
         <v>1</v>
       </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3498,27 +3616,857 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
+        <v>5001</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>1001</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>5002</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>2000</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>5003</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>2000</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>5100</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71">
+        <v>2100</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>5101</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72">
+        <v>3001</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>5102</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73">
+        <v>3001</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>5103</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74">
+        <v>3001</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>6000</v>
+      </c>
+      <c r="B75">
+        <v>3003</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75">
+        <v>1002</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>7018</v>
+      </c>
+      <c r="B76">
+        <v>7018</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76">
+        <v>3003</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>7019</v>
+      </c>
+      <c r="B77">
+        <v>7019</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77">
+        <v>3003</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>7020</v>
+      </c>
+      <c r="B78">
+        <v>7020</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78">
+        <v>3003</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>7021</v>
+      </c>
+      <c r="B79">
+        <v>7021</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79">
+        <v>3003</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>7022</v>
+      </c>
+      <c r="B80">
+        <v>7022</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80">
+        <v>3003</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>7023</v>
+      </c>
+      <c r="B81">
+        <v>7023</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81">
+        <v>3003</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>7024</v>
+      </c>
+      <c r="B82">
+        <v>7024</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82">
+        <v>3003</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>7025</v>
+      </c>
+      <c r="B83">
+        <v>7025</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83">
+        <v>3003</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>7026</v>
+      </c>
+      <c r="B84">
+        <v>7026</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <v>3003</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>7027</v>
+      </c>
+      <c r="B85">
+        <v>7027</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85">
+        <v>3003</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>7028</v>
+      </c>
+      <c r="B86">
+        <v>7028</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86">
+        <v>3003</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>7029</v>
+      </c>
+      <c r="B87">
+        <v>7029</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87">
+        <v>3003</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>7030</v>
+      </c>
+      <c r="B88">
+        <v>7030</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88">
+        <v>3003</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>9999</v>
+      </c>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89">
+        <v>9999</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90">
         <v>10000</v>
       </c>
-      <c r="D68">
+      <c r="D90">
         <v>10000</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="M90">
         <v>1</v>
       </c>
     </row>
@@ -3534,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3660,6 +4608,16 @@
         <v>95</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3669,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3780,9 +4738,33 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
+        <v>2101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>3000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>9999</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23B572-1E0A-48B8-8069-926B23BC04B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2836858E-EACF-40DC-B1D9-B03662C31A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -629,6 +629,12 @@
   <si>
     <t>Prefabs/Game/Block/object_3d_033</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_016</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_017</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M90" totalsRowShown="0">
-  <autoFilter ref="A1:M90" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M92" totalsRowShown="0">
+  <autoFilter ref="A1:M92" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1075,13 +1081,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3920,25 +3926,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B76">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D76">
         <v>3003</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -3958,25 +3964,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B77">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D77">
         <v>3003</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3996,13 +4002,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B78">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D78">
         <v>3003</v>
@@ -4011,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B79">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D79">
         <v>3003</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -4072,13 +4078,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B80">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D80">
         <v>3003</v>
@@ -4110,13 +4116,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B81">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D81">
         <v>3003</v>
@@ -4148,13 +4154,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B82">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D82">
         <v>3003</v>
@@ -4186,13 +4192,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B83">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D83">
         <v>3003</v>
@@ -4224,19 +4230,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B84">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D84">
         <v>3003</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4262,19 +4268,19 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B85">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D85">
         <v>3003</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -4300,13 +4306,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B86">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D86">
         <v>3003</v>
@@ -4338,13 +4344,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B87">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D87">
         <v>3003</v>
@@ -4376,13 +4382,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B88">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D88">
         <v>3003</v>
@@ -4414,16 +4420,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>9999</v>
+        <v>7029</v>
+      </c>
+      <c r="B89">
+        <v>7029</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D89">
-        <v>9999</v>
+        <v>3003</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4431,11 +4440,14 @@
       <c r="G89">
         <v>1</v>
       </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4446,27 +4458,97 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
+        <v>7030</v>
+      </c>
+      <c r="B90">
+        <v>7030</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90">
+        <v>3003</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>9999</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91">
+        <v>9999</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>10000</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <v>10000</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="M90">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="M92">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2836858E-EACF-40DC-B1D9-B03662C31A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F9B0D-2C7D-49E2-ABE5-D6396257E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -635,6 +635,28 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_017</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>フォーチュンクッキーショップ（仮）</t>
+  </si>
+  <si>
+    <t>資材店</t>
+  </si>
+  <si>
+    <t>設計図市場</t>
+  </si>
+  <si>
+    <t>ギフト店</t>
+  </si>
+  <si>
+    <t>ミッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Mission</t>
   </si>
 </sst>
 </file>
@@ -763,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M92" totalsRowShown="0">
-  <autoFilter ref="A1:M92" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M97" totalsRowShown="0">
+  <autoFilter ref="A1:M97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1081,13 +1103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3926,31 +3948,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>7016</v>
-      </c>
-      <c r="B76">
-        <v>7016</v>
+        <v>6001</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D76">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3964,31 +3980,25 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>7017</v>
-      </c>
-      <c r="B77">
-        <v>7017</v>
+        <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D77">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -4002,31 +4012,25 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>7018</v>
-      </c>
-      <c r="B78">
-        <v>7018</v>
+        <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D78">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -4040,16 +4044,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>7019</v>
-      </c>
-      <c r="B79">
-        <v>7019</v>
+        <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D79">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -4058,13 +4059,10 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -4078,31 +4076,25 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>7020</v>
-      </c>
-      <c r="B80">
-        <v>7020</v>
+        <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D80">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4116,25 +4108,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="B81">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D81">
         <v>3003</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -4154,25 +4146,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="B82">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D82">
         <v>3003</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -4192,13 +4184,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="B83">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D83">
         <v>3003</v>
@@ -4207,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -4230,19 +4222,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="B84">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D84">
         <v>3003</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4268,13 +4260,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="B85">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D85">
         <v>3003</v>
@@ -4306,19 +4298,19 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="B86">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D86">
         <v>3003</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -4344,19 +4336,19 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="B87">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D87">
         <v>3003</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4382,19 +4374,19 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="B88">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D88">
         <v>3003</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -4420,19 +4412,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="B89">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D89">
         <v>3003</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4458,19 +4450,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="B90">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D90">
         <v>3003</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -4496,16 +4488,19 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>9999</v>
+        <v>7026</v>
+      </c>
+      <c r="B91">
+        <v>7026</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="D91">
-        <v>9999</v>
+        <v>3003</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4513,11 +4508,14 @@
       <c r="G91">
         <v>1</v>
       </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -4528,27 +4526,211 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
+        <v>7027</v>
+      </c>
+      <c r="B92">
+        <v>7027</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92">
+        <v>3003</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>7028</v>
+      </c>
+      <c r="B93">
+        <v>7028</v>
+      </c>
+      <c r="C93" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93">
+        <v>3003</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>7029</v>
+      </c>
+      <c r="B94">
+        <v>7029</v>
+      </c>
+      <c r="C94" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94">
+        <v>3003</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>7030</v>
+      </c>
+      <c r="B95">
+        <v>7030</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95">
+        <v>3003</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>9999</v>
+      </c>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>9999</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97">
         <v>10000</v>
       </c>
-      <c r="D92">
+      <c r="D97">
         <v>10000</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="M92">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>1</v>
       </c>
     </row>
@@ -4709,10 +4891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4804,49 +4986,97 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>2000</v>
+        <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>2100</v>
+        <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2101</v>
+        <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3000</v>
+        <v>1005</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3001</v>
+        <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
+        <v>1007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>9999</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F9B0D-2C7D-49E2-ABE5-D6396257E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E0A26-1ABD-4B47-823D-E9DE3B453F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="1470" yWindow="1590" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -656,7 +656,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Mission</t>
+    <t>Prefabs/Game/Scene/Shop01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Shop02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Shop03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Shop04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Shop05</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1106,10 +1123,10 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3983,7 +4000,7 @@
         <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D77">
         <v>1004</v>
@@ -4015,7 +4032,7 @@
         <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D78">
         <v>1005</v>
@@ -4047,7 +4064,7 @@
         <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D79">
         <v>1006</v>
@@ -4079,7 +4096,7 @@
         <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D80">
         <v>1007</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E0A26-1ABD-4B47-823D-E9DE3B453F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D30B4A-60CC-4595-9759-E341752AA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1590" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="525" yWindow="1800" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -802,9 +802,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M97" totalsRowShown="0">
-  <autoFilter ref="A1:M97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:N97" totalsRowShown="0">
+  <autoFilter ref="A1:N97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{326657AA-0002-4891-B10C-BB7C2775074D}" name="Resources"/>
@@ -818,6 +818,7 @@
     <tableColumn id="10" xr3:uid="{A7C1F28C-80E8-407A-8765-8093DA435115}" name="HaveDirection"/>
     <tableColumn id="12" xr3:uid="{78F96F27-F03F-4C8E-8F88-BF75A03D727E}" name="CanPut"/>
     <tableColumn id="13" xr3:uid="{74EA8803-BD75-49A0-8618-A76056736664}" name="CanSuspension"/>
+    <tableColumn id="14" xr3:uid="{A06C9EB1-E44B-4197-939A-AB8E8F51D923}" name="IsSurface"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1120,13 +1121,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1137,7 +1138,7 @@
     <col min="11" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1178,11 @@
       <c r="M1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1194,8 +1198,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1385,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1650,8 +1657,11 @@
       <c r="M14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1726,8 +1736,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1764,8 +1777,11 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1802,8 +1818,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1878,8 +1897,11 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1023</v>
       </c>
@@ -1916,8 +1938,11 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1024</v>
       </c>
@@ -1954,8 +1979,11 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1025</v>
       </c>
@@ -1992,8 +2020,11 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1026</v>
       </c>
@@ -2030,8 +2061,11 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1027</v>
       </c>
@@ -2068,8 +2102,11 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1028</v>
       </c>
@@ -2106,8 +2143,11 @@
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1029</v>
       </c>
@@ -2144,8 +2184,11 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1034</v>
       </c>
@@ -2183,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1035</v>
       </c>
@@ -2221,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1036</v>
       </c>
@@ -2259,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1037</v>
       </c>
@@ -2297,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1038</v>
       </c>
@@ -3545,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2101</v>
       </c>
@@ -3583,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2102</v>
       </c>
@@ -3621,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>5000</v>
       </c>
@@ -3658,8 +3701,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5001</v>
       </c>
@@ -3696,8 +3742,11 @@
       <c r="M68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5002</v>
       </c>
@@ -3735,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>5003</v>
       </c>
@@ -3773,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>5100</v>
       </c>
@@ -3811,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>5101</v>
       </c>
@@ -3848,8 +3897,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>5102</v>
       </c>
@@ -3886,8 +3938,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5103</v>
       </c>
@@ -3924,8 +3979,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6000</v>
       </c>
@@ -3963,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>6001</v>
       </c>
@@ -3995,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>6002</v>
       </c>
@@ -4027,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>6003</v>
       </c>
@@ -4059,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>6004</v>
       </c>
@@ -4091,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>6005</v>
       </c>
@@ -4123,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7016</v>
       </c>
@@ -4160,8 +4218,11 @@
       <c r="M81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7017</v>
       </c>
@@ -4198,8 +4259,11 @@
       <c r="M82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7018</v>
       </c>
@@ -4236,8 +4300,11 @@
       <c r="M83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7019</v>
       </c>
@@ -4274,8 +4341,11 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7020</v>
       </c>
@@ -4312,8 +4382,11 @@
       <c r="M85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7021</v>
       </c>
@@ -4350,8 +4423,11 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7022</v>
       </c>
@@ -4388,8 +4464,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7023</v>
       </c>
@@ -4426,8 +4505,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7024</v>
       </c>
@@ -4464,8 +4546,11 @@
       <c r="M89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7025</v>
       </c>
@@ -4502,8 +4587,11 @@
       <c r="M90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7026</v>
       </c>
@@ -4540,8 +4628,11 @@
       <c r="M91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7027</v>
       </c>
@@ -4578,8 +4669,11 @@
       <c r="M92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7028</v>
       </c>
@@ -4616,8 +4710,11 @@
       <c r="M93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7029</v>
       </c>
@@ -4654,8 +4751,11 @@
       <c r="M94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>7030</v>
       </c>
@@ -4692,8 +4792,11 @@
       <c r="M95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9999</v>
       </c>
@@ -4724,8 +4827,11 @@
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>10000</v>
       </c>
@@ -4748,6 +4854,9 @@
         <v>0</v>
       </c>
       <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
         <v>1</v>
       </c>
     </row>
@@ -4765,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D30B4A-60CC-4595-9759-E341752AA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96975D-E9EF-461A-B06D-6EC42E0CB3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1800" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="6990" yWindow="375" windowWidth="17055" windowHeight="14760" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -656,23 +656,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Shop01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Shop02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Shop03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Shop04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Shop05</t>
+    <t>Prefabs/Game/Scene/object_3d_040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_044</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_047</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_049</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_054</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_058</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_059</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_061</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_062</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_063</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_064</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_042</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -802,9 +862,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:N97" totalsRowShown="0">
-  <autoFilter ref="A1:N97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M112" totalsRowShown="0">
+  <autoFilter ref="A1:M112" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{326657AA-0002-4891-B10C-BB7C2775074D}" name="Resources"/>
@@ -818,7 +878,6 @@
     <tableColumn id="10" xr3:uid="{A7C1F28C-80E8-407A-8765-8093DA435115}" name="HaveDirection"/>
     <tableColumn id="12" xr3:uid="{78F96F27-F03F-4C8E-8F88-BF75A03D727E}" name="CanPut"/>
     <tableColumn id="13" xr3:uid="{74EA8803-BD75-49A0-8618-A76056736664}" name="CanSuspension"/>
-    <tableColumn id="14" xr3:uid="{A06C9EB1-E44B-4197-939A-AB8E8F51D923}" name="IsSurface"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,13 +1180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1138,7 +1197,7 @@
     <col min="11" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,11 +1237,8 @@
       <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1198,11 +1254,8 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1240,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1278,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1316,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1354,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1392,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1430,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1468,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1506,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1544,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1582,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1620,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1657,11 +1710,8 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1699,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1736,11 +1786,8 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1777,11 +1824,8 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1818,11 +1862,8 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1860,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1897,11 +1938,8 @@
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1023</v>
       </c>
@@ -1938,11 +1976,8 @@
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1024</v>
       </c>
@@ -1979,11 +2014,8 @@
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1025</v>
       </c>
@@ -2020,11 +2052,8 @@
       <c r="M23">
         <v>1</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1026</v>
       </c>
@@ -2061,11 +2090,8 @@
       <c r="M24">
         <v>1</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1027</v>
       </c>
@@ -2102,11 +2128,8 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1028</v>
       </c>
@@ -2143,11 +2166,8 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1029</v>
       </c>
@@ -2184,11 +2204,8 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1034</v>
       </c>
@@ -2226,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1035</v>
       </c>
@@ -2264,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1036</v>
       </c>
@@ -2302,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1037</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1038</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2101</v>
       </c>
@@ -3626,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2102</v>
       </c>
@@ -3664,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>5000</v>
       </c>
@@ -3701,11 +3718,8 @@
       <c r="M67">
         <v>0</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5001</v>
       </c>
@@ -3742,11 +3756,8 @@
       <c r="M68">
         <v>0</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5002</v>
       </c>
@@ -3784,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>5003</v>
       </c>
@@ -3822,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>5100</v>
       </c>
@@ -3860,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>5101</v>
       </c>
@@ -3897,11 +3908,8 @@
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>5102</v>
       </c>
@@ -3938,11 +3946,8 @@
       <c r="M73">
         <v>0</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5103</v>
       </c>
@@ -3979,11 +3984,8 @@
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6000</v>
       </c>
@@ -4021,24 +4023,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>6001</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D76">
         <v>1003</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4053,24 +4055,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D77">
         <v>1004</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4085,24 +4087,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D78">
         <v>1005</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4117,24 +4119,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D79">
         <v>1006</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4149,24 +4151,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D80">
         <v>1007</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4181,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7016</v>
       </c>
@@ -4218,11 +4220,8 @@
       <c r="M81">
         <v>0</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7017</v>
       </c>
@@ -4259,11 +4258,8 @@
       <c r="M82">
         <v>0</v>
       </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7018</v>
       </c>
@@ -4300,11 +4296,8 @@
       <c r="M83">
         <v>0</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7019</v>
       </c>
@@ -4341,11 +4334,8 @@
       <c r="M84">
         <v>0</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7020</v>
       </c>
@@ -4382,11 +4372,8 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7021</v>
       </c>
@@ -4423,11 +4410,8 @@
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7022</v>
       </c>
@@ -4464,11 +4448,8 @@
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7023</v>
       </c>
@@ -4505,11 +4486,8 @@
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7024</v>
       </c>
@@ -4546,11 +4524,8 @@
       <c r="M89">
         <v>0</v>
       </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7025</v>
       </c>
@@ -4587,11 +4562,8 @@
       <c r="M90">
         <v>0</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7026</v>
       </c>
@@ -4628,11 +4600,8 @@
       <c r="M91">
         <v>0</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7027</v>
       </c>
@@ -4669,11 +4638,8 @@
       <c r="M92">
         <v>0</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7028</v>
       </c>
@@ -4710,11 +4676,8 @@
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7029</v>
       </c>
@@ -4751,11 +4714,8 @@
       <c r="M94">
         <v>0</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>7030</v>
       </c>
@@ -4792,71 +4752,386 @@
       <c r="M95">
         <v>0</v>
       </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
+        <v>8001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96">
+        <v>3000</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>8002</v>
+      </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97">
+        <v>3000</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>8003</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98">
+        <v>3000</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>8004</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99">
+        <v>3000</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>8005</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100">
+        <v>3000</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>8010</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101">
+        <v>3000</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>8013</v>
+      </c>
+      <c r="C102" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102">
+        <v>3000</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>8020</v>
+      </c>
+      <c r="C103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103">
+        <v>3001</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>8030</v>
+      </c>
+      <c r="C104" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104">
+        <v>3001</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>8031</v>
+      </c>
+      <c r="C105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105">
+        <v>3001</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>8041</v>
+      </c>
+      <c r="C106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106">
+        <v>3001</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>8042</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+      <c r="D107">
+        <v>3001</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>8043</v>
+      </c>
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108">
+        <v>3001</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1.5</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>8044</v>
+      </c>
+      <c r="C109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109">
+        <v>3001</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>8045</v>
+      </c>
+      <c r="C110" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110">
+        <v>3001</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>9999</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C111" t="s">
         <v>37</v>
       </c>
-      <c r="D96">
+      <c r="D111">
         <v>9999</v>
       </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A97">
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112">
         <v>10000</v>
       </c>
-      <c r="D97">
+      <c r="D112">
         <v>10000</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="M112">
         <v>1</v>
       </c>
     </row>
@@ -4874,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5020,7 +5295,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D30B4A-60CC-4595-9759-E341752AA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92E0A26-1ABD-4B47-823D-E9DE3B453F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="1800" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="1470" yWindow="1590" windowWidth="24525" windowHeight="12975" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -802,9 +802,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:N97" totalsRowShown="0">
-  <autoFilter ref="A1:N97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M97" totalsRowShown="0">
+  <autoFilter ref="A1:M97" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
     <tableColumn id="3" xr3:uid="{326657AA-0002-4891-B10C-BB7C2775074D}" name="Resources"/>
@@ -818,7 +818,6 @@
     <tableColumn id="10" xr3:uid="{A7C1F28C-80E8-407A-8765-8093DA435115}" name="HaveDirection"/>
     <tableColumn id="12" xr3:uid="{78F96F27-F03F-4C8E-8F88-BF75A03D727E}" name="CanPut"/>
     <tableColumn id="13" xr3:uid="{74EA8803-BD75-49A0-8618-A76056736664}" name="CanSuspension"/>
-    <tableColumn id="14" xr3:uid="{A06C9EB1-E44B-4197-939A-AB8E8F51D923}" name="IsSurface"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,13 +1120,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1138,7 +1137,7 @@
     <col min="11" max="12" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,11 +1177,8 @@
       <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1198,11 +1194,8 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1240,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1278,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1316,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1354,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1392,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -1430,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -1468,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -1544,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -1582,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -1620,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -1657,11 +1650,8 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1699,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1736,11 +1726,8 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1777,11 +1764,8 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1818,11 +1802,8 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1860,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1897,11 +1878,8 @@
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1023</v>
       </c>
@@ -1938,11 +1916,8 @@
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1024</v>
       </c>
@@ -1979,11 +1954,8 @@
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1025</v>
       </c>
@@ -2020,11 +1992,8 @@
       <c r="M23">
         <v>1</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1026</v>
       </c>
@@ -2061,11 +2030,8 @@
       <c r="M24">
         <v>1</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1027</v>
       </c>
@@ -2102,11 +2068,8 @@
       <c r="M25">
         <v>1</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1028</v>
       </c>
@@ -2143,11 +2106,8 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1029</v>
       </c>
@@ -2184,11 +2144,8 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1034</v>
       </c>
@@ -2226,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1035</v>
       </c>
@@ -2264,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1036</v>
       </c>
@@ -2302,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1037</v>
       </c>
@@ -2340,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1038</v>
       </c>
@@ -3588,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2101</v>
       </c>
@@ -3626,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2102</v>
       </c>
@@ -3664,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>5000</v>
       </c>
@@ -3701,11 +3658,8 @@
       <c r="M67">
         <v>0</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5001</v>
       </c>
@@ -3742,11 +3696,8 @@
       <c r="M68">
         <v>0</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>5002</v>
       </c>
@@ -3784,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>5003</v>
       </c>
@@ -3822,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>5100</v>
       </c>
@@ -3860,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>5101</v>
       </c>
@@ -3897,11 +3848,8 @@
       <c r="M72">
         <v>0</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>5102</v>
       </c>
@@ -3938,11 +3886,8 @@
       <c r="M73">
         <v>0</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>5103</v>
       </c>
@@ -3979,11 +3924,8 @@
       <c r="M74">
         <v>0</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>6000</v>
       </c>
@@ -4021,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>6001</v>
       </c>
@@ -4053,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>6002</v>
       </c>
@@ -4085,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>6003</v>
       </c>
@@ -4117,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>6004</v>
       </c>
@@ -4149,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>6005</v>
       </c>
@@ -4181,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>7016</v>
       </c>
@@ -4218,11 +4160,8 @@
       <c r="M81">
         <v>0</v>
       </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>7017</v>
       </c>
@@ -4259,11 +4198,8 @@
       <c r="M82">
         <v>0</v>
       </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>7018</v>
       </c>
@@ -4300,11 +4236,8 @@
       <c r="M83">
         <v>0</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>7019</v>
       </c>
@@ -4341,11 +4274,8 @@
       <c r="M84">
         <v>0</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>7020</v>
       </c>
@@ -4382,11 +4312,8 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>7021</v>
       </c>
@@ -4423,11 +4350,8 @@
       <c r="M86">
         <v>0</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>7022</v>
       </c>
@@ -4464,11 +4388,8 @@
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>7023</v>
       </c>
@@ -4505,11 +4426,8 @@
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>7024</v>
       </c>
@@ -4546,11 +4464,8 @@
       <c r="M89">
         <v>0</v>
       </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>7025</v>
       </c>
@@ -4587,11 +4502,8 @@
       <c r="M90">
         <v>0</v>
       </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>7026</v>
       </c>
@@ -4628,11 +4540,8 @@
       <c r="M91">
         <v>0</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>7027</v>
       </c>
@@ -4669,11 +4578,8 @@
       <c r="M92">
         <v>0</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>7028</v>
       </c>
@@ -4710,11 +4616,8 @@
       <c r="M93">
         <v>0</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>7029</v>
       </c>
@@ -4751,11 +4654,8 @@
       <c r="M94">
         <v>0</v>
       </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>7030</v>
       </c>
@@ -4792,11 +4692,8 @@
       <c r="M95">
         <v>0</v>
       </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>9999</v>
       </c>
@@ -4827,11 +4724,8 @@
       <c r="M96">
         <v>0</v>
       </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>10000</v>
       </c>
@@ -4854,9 +4748,6 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
         <v>1</v>
       </c>
     </row>
@@ -4874,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96975D-E9EF-461A-B06D-6EC42E0CB3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A8D50-F60B-4624-830A-5ABC82CA1EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="375" windowWidth="17055" windowHeight="14760" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4875" yWindow="1980" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="160">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -733,6 +733,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/shop_3d_042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/Block0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1183,10 +1187,10 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1241,6 +1245,9 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96975D-E9EF-461A-B06D-6EC42E0CB3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC4270-7AD3-454C-B65D-1F92FF48123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="375" windowWidth="17055" windowHeight="14760" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,10 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サスペンションできるかのフラグ（０＝false　１＝true）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Block/block_3d_023</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -733,6 +729,22 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/shop_3d_042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サスペンション（下に何もない所に置く）できるかのフラグ（０＝false　１＝true）</t>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ドコロ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1183,10 +1195,10 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F111" sqref="F111"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1947,7 +1959,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1985,7 +1997,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2023,7 +2035,7 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2061,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2099,7 +2111,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2137,7 +2149,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2175,7 +2187,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2213,7 +2225,7 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2251,7 +2263,7 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2289,7 +2301,7 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2327,7 +2339,7 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2365,7 +2377,7 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2403,7 +2415,7 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3789,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -3827,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -3879,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D72">
         <v>3001</v>
@@ -3917,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73">
         <v>3001</v>
@@ -3955,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74">
         <v>3001</v>
@@ -3993,7 +4005,7 @@
         <v>3003</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75">
         <v>1002</v>
@@ -4028,7 +4040,7 @@
         <v>6001</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76">
         <v>1003</v>
@@ -4060,7 +4072,7 @@
         <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>1004</v>
@@ -4092,7 +4104,7 @@
         <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78">
         <v>1005</v>
@@ -4124,7 +4136,7 @@
         <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D79">
         <v>1006</v>
@@ -4156,7 +4168,7 @@
         <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80">
         <v>1007</v>
@@ -4191,7 +4203,7 @@
         <v>7016</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81">
         <v>3003</v>
@@ -4229,7 +4241,7 @@
         <v>7017</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82">
         <v>3003</v>
@@ -4267,7 +4279,7 @@
         <v>7018</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D83">
         <v>3003</v>
@@ -4305,7 +4317,7 @@
         <v>7019</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D84">
         <v>3003</v>
@@ -4343,7 +4355,7 @@
         <v>7020</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85">
         <v>3003</v>
@@ -4381,7 +4393,7 @@
         <v>7021</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D86">
         <v>3003</v>
@@ -4419,7 +4431,7 @@
         <v>7022</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D87">
         <v>3003</v>
@@ -4457,7 +4469,7 @@
         <v>7023</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D88">
         <v>3003</v>
@@ -4495,7 +4507,7 @@
         <v>7024</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D89">
         <v>3003</v>
@@ -4533,7 +4545,7 @@
         <v>7025</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90">
         <v>3003</v>
@@ -4571,7 +4583,7 @@
         <v>7026</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D91">
         <v>3003</v>
@@ -4609,7 +4621,7 @@
         <v>7027</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D92">
         <v>3003</v>
@@ -4647,7 +4659,7 @@
         <v>7028</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93">
         <v>3003</v>
@@ -4685,7 +4697,7 @@
         <v>7029</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D94">
         <v>3003</v>
@@ -4723,7 +4735,7 @@
         <v>7030</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D95">
         <v>3003</v>
@@ -4758,7 +4770,7 @@
         <v>8001</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96">
         <v>3000</v>
@@ -4778,7 +4790,7 @@
         <v>8002</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97">
         <v>3000</v>
@@ -4798,7 +4810,7 @@
         <v>8003</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98">
         <v>3000</v>
@@ -4818,7 +4830,7 @@
         <v>8004</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99">
         <v>3000</v>
@@ -4838,7 +4850,7 @@
         <v>8005</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100">
         <v>3000</v>
@@ -4858,7 +4870,7 @@
         <v>8010</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101">
         <v>3000</v>
@@ -4878,7 +4890,7 @@
         <v>8013</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102">
         <v>3000</v>
@@ -4898,7 +4910,7 @@
         <v>8020</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103">
         <v>3001</v>
@@ -4921,7 +4933,7 @@
         <v>8030</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104">
         <v>3001</v>
@@ -4944,7 +4956,7 @@
         <v>8031</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D105">
         <v>3001</v>
@@ -4967,7 +4979,7 @@
         <v>8041</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D106">
         <v>3001</v>
@@ -4990,7 +5002,7 @@
         <v>8042</v>
       </c>
       <c r="C107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D107">
         <v>3001</v>
@@ -5013,7 +5025,7 @@
         <v>8043</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D108">
         <v>3001</v>
@@ -5036,7 +5048,7 @@
         <v>8044</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D109">
         <v>3001</v>
@@ -5059,7 +5071,7 @@
         <v>8045</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110">
         <v>3001</v>
@@ -5149,8 +5161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A2E81-6CF9-4387-991E-C37257AF9806}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5270,17 +5282,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5390,7 +5402,7 @@
         <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -5398,7 +5410,7 @@
         <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -5406,7 +5418,7 @@
         <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -5414,7 +5426,7 @@
         <v>1005</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -5422,7 +5434,7 @@
         <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -5430,7 +5442,7 @@
         <v>1007</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -5454,7 +5466,7 @@
         <v>2101</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -5462,7 +5474,7 @@
         <v>3000</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -5470,7 +5482,7 @@
         <v>3001</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC4270-7AD3-454C-B65D-1F92FF48123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7D166-47B4-4CDC-AF15-0E786133B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2430" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/TreasureBox01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Scene/TreasureBox02</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,6 +741,10 @@
     <rPh sb="16" eb="17">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_065</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1195,10 +1195,10 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1241,13 +1241,13 @@
         <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1959,7 +1959,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2111,7 +2111,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2149,7 +2149,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2225,7 +2225,7 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>500</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>501</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2529,7 +2529,7 @@
         <v>502</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2567,7 +2567,7 @@
         <v>503</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2605,7 +2605,7 @@
         <v>504</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2643,7 +2643,7 @@
         <v>505</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>506</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2719,7 +2719,7 @@
         <v>507</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2757,7 +2757,7 @@
         <v>508</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>509</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>550</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2871,7 +2871,7 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2909,7 +2909,7 @@
         <v>552</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2947,7 +2947,7 @@
         <v>553</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2985,7 +2985,7 @@
         <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3023,7 +3023,7 @@
         <v>555</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -3061,7 +3061,7 @@
         <v>556</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -3099,7 +3099,7 @@
         <v>557</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3137,7 +3137,7 @@
         <v>558</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -3175,7 +3175,7 @@
         <v>559</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3213,7 +3213,7 @@
         <v>600</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -3584,19 +3584,19 @@
         <v>2100</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D64">
         <v>110</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>2101</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>110</v>
@@ -3660,7 +3660,7 @@
         <v>2102</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66">
         <v>110</v>
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D72">
         <v>3001</v>
@@ -3929,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73">
         <v>3001</v>
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74">
         <v>3001</v>
@@ -4005,7 +4005,7 @@
         <v>3003</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>1002</v>
@@ -4040,7 +4040,7 @@
         <v>6001</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76">
         <v>1003</v>
@@ -4072,7 +4072,7 @@
         <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77">
         <v>1004</v>
@@ -4104,7 +4104,7 @@
         <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78">
         <v>1005</v>
@@ -4136,7 +4136,7 @@
         <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>1006</v>
@@ -4168,7 +4168,7 @@
         <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80">
         <v>1007</v>
@@ -4203,7 +4203,7 @@
         <v>7016</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81">
         <v>3003</v>
@@ -4241,7 +4241,7 @@
         <v>7017</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D82">
         <v>3003</v>
@@ -4279,7 +4279,7 @@
         <v>7018</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D83">
         <v>3003</v>
@@ -4317,7 +4317,7 @@
         <v>7019</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84">
         <v>3003</v>
@@ -4355,7 +4355,7 @@
         <v>7020</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>3003</v>
@@ -4393,7 +4393,7 @@
         <v>7021</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86">
         <v>3003</v>
@@ -4431,7 +4431,7 @@
         <v>7022</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D87">
         <v>3003</v>
@@ -4469,7 +4469,7 @@
         <v>7023</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88">
         <v>3003</v>
@@ -4507,7 +4507,7 @@
         <v>7024</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D89">
         <v>3003</v>
@@ -4545,7 +4545,7 @@
         <v>7025</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D90">
         <v>3003</v>
@@ -4583,7 +4583,7 @@
         <v>7026</v>
       </c>
       <c r="C91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D91">
         <v>3003</v>
@@ -4621,7 +4621,7 @@
         <v>7027</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D92">
         <v>3003</v>
@@ -4659,7 +4659,7 @@
         <v>7028</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D93">
         <v>3003</v>
@@ -4697,7 +4697,7 @@
         <v>7029</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94">
         <v>3003</v>
@@ -4735,7 +4735,7 @@
         <v>7030</v>
       </c>
       <c r="C95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95">
         <v>3003</v>
@@ -4770,7 +4770,7 @@
         <v>8001</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D96">
         <v>3000</v>
@@ -4790,7 +4790,7 @@
         <v>8002</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97">
         <v>3000</v>
@@ -4810,7 +4810,7 @@
         <v>8003</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98">
         <v>3000</v>
@@ -4830,7 +4830,7 @@
         <v>8004</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D99">
         <v>3000</v>
@@ -4850,7 +4850,7 @@
         <v>8005</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100">
         <v>3000</v>
@@ -4870,7 +4870,7 @@
         <v>8010</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101">
         <v>3000</v>
@@ -4890,7 +4890,7 @@
         <v>8013</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D102">
         <v>3000</v>
@@ -4910,7 +4910,7 @@
         <v>8020</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D103">
         <v>3001</v>
@@ -4933,7 +4933,7 @@
         <v>8030</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D104">
         <v>3001</v>
@@ -4956,7 +4956,7 @@
         <v>8031</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D105">
         <v>3001</v>
@@ -4979,7 +4979,7 @@
         <v>8041</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106">
         <v>3001</v>
@@ -5002,7 +5002,7 @@
         <v>8042</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D107">
         <v>3001</v>
@@ -5025,7 +5025,7 @@
         <v>8043</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D108">
         <v>3001</v>
@@ -5048,7 +5048,7 @@
         <v>8044</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D109">
         <v>3001</v>
@@ -5071,7 +5071,7 @@
         <v>8045</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D110">
         <v>3001</v>
@@ -5172,7 +5172,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -5182,7 +5182,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -5192,7 +5192,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -5212,17 +5212,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -5252,47 +5252,47 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -5330,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -5338,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -5346,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -5362,7 +5362,7 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -5370,7 +5370,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
         <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -5394,7 +5394,7 @@
         <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -5402,7 +5402,7 @@
         <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -5410,7 +5410,7 @@
         <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -5418,7 +5418,7 @@
         <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -5426,7 +5426,7 @@
         <v>1005</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -5434,7 +5434,7 @@
         <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -5442,7 +5442,7 @@
         <v>1007</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -5450,7 +5450,7 @@
         <v>2000</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -5458,7 +5458,7 @@
         <v>2100</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -5466,7 +5466,7 @@
         <v>2101</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -5474,7 +5474,7 @@
         <v>3000</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -5482,7 +5482,7 @@
         <v>3001</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -5490,7 +5490,7 @@
         <v>9999</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7D166-47B4-4CDC-AF15-0E786133B47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62486338-DA4F-4A67-A982-45FCCB26C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -189,14 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/TreasureBox02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/TreasureBox03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この設定ファイルはゲーム内の全部オブジェクトを定義します。（キャラクタ以外）</t>
     <rPh sb="2" eb="4">
       <t>セッテイ</t>
@@ -745,6 +737,14 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_065</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_066</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_067</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1198,7 +1198,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1241,13 +1241,13 @@
         <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1959,7 +1959,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2111,7 +2111,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2149,7 +2149,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2225,7 +2225,7 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>500</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -2491,7 +2491,7 @@
         <v>501</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -2529,7 +2529,7 @@
         <v>502</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -2567,7 +2567,7 @@
         <v>503</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2605,7 +2605,7 @@
         <v>504</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2643,7 +2643,7 @@
         <v>505</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -2681,7 +2681,7 @@
         <v>506</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2719,7 +2719,7 @@
         <v>507</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2757,7 +2757,7 @@
         <v>508</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>509</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>550</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -2871,7 +2871,7 @@
         <v>551</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -2909,7 +2909,7 @@
         <v>552</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -2947,7 +2947,7 @@
         <v>553</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -2985,7 +2985,7 @@
         <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3023,7 +3023,7 @@
         <v>555</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -3061,7 +3061,7 @@
         <v>556</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -3099,7 +3099,7 @@
         <v>557</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3137,7 +3137,7 @@
         <v>558</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -3175,7 +3175,7 @@
         <v>559</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -3213,7 +3213,7 @@
         <v>600</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -3584,7 +3584,7 @@
         <v>2100</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D64">
         <v>110</v>
@@ -3622,19 +3622,19 @@
         <v>2101</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D65">
         <v>110</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3660,19 +3660,19 @@
         <v>2102</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D66">
         <v>110</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D72">
         <v>3001</v>
@@ -3929,7 +3929,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D73">
         <v>3001</v>
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D74">
         <v>3001</v>
@@ -4005,7 +4005,7 @@
         <v>3003</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75">
         <v>1002</v>
@@ -4040,7 +4040,7 @@
         <v>6001</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D76">
         <v>1003</v>
@@ -4072,7 +4072,7 @@
         <v>6002</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D77">
         <v>1004</v>
@@ -4104,7 +4104,7 @@
         <v>6003</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D78">
         <v>1005</v>
@@ -4136,7 +4136,7 @@
         <v>6004</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79">
         <v>1006</v>
@@ -4168,7 +4168,7 @@
         <v>6005</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D80">
         <v>1007</v>
@@ -4203,7 +4203,7 @@
         <v>7016</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D81">
         <v>3003</v>
@@ -4241,7 +4241,7 @@
         <v>7017</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D82">
         <v>3003</v>
@@ -4279,7 +4279,7 @@
         <v>7018</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D83">
         <v>3003</v>
@@ -4317,7 +4317,7 @@
         <v>7019</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>3003</v>
@@ -4355,7 +4355,7 @@
         <v>7020</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D85">
         <v>3003</v>
@@ -4393,7 +4393,7 @@
         <v>7021</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D86">
         <v>3003</v>
@@ -4431,7 +4431,7 @@
         <v>7022</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>3003</v>
@@ -4469,7 +4469,7 @@
         <v>7023</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>3003</v>
@@ -4507,7 +4507,7 @@
         <v>7024</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D89">
         <v>3003</v>
@@ -4545,7 +4545,7 @@
         <v>7025</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D90">
         <v>3003</v>
@@ -4583,7 +4583,7 @@
         <v>7026</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D91">
         <v>3003</v>
@@ -4621,7 +4621,7 @@
         <v>7027</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D92">
         <v>3003</v>
@@ -4659,7 +4659,7 @@
         <v>7028</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D93">
         <v>3003</v>
@@ -4697,7 +4697,7 @@
         <v>7029</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D94">
         <v>3003</v>
@@ -4735,7 +4735,7 @@
         <v>7030</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>3003</v>
@@ -4770,7 +4770,7 @@
         <v>8001</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D96">
         <v>3000</v>
@@ -4790,7 +4790,7 @@
         <v>8002</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D97">
         <v>3000</v>
@@ -4810,7 +4810,7 @@
         <v>8003</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D98">
         <v>3000</v>
@@ -4830,7 +4830,7 @@
         <v>8004</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D99">
         <v>3000</v>
@@ -4850,7 +4850,7 @@
         <v>8005</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D100">
         <v>3000</v>
@@ -4870,7 +4870,7 @@
         <v>8010</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D101">
         <v>3000</v>
@@ -4890,7 +4890,7 @@
         <v>8013</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D102">
         <v>3000</v>
@@ -4910,7 +4910,7 @@
         <v>8020</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D103">
         <v>3001</v>
@@ -4933,7 +4933,7 @@
         <v>8030</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D104">
         <v>3001</v>
@@ -4956,7 +4956,7 @@
         <v>8031</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D105">
         <v>3001</v>
@@ -4979,7 +4979,7 @@
         <v>8041</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D106">
         <v>3001</v>
@@ -5002,7 +5002,7 @@
         <v>8042</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D107">
         <v>3001</v>
@@ -5025,7 +5025,7 @@
         <v>8043</v>
       </c>
       <c r="C108" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D108">
         <v>3001</v>
@@ -5048,7 +5048,7 @@
         <v>8044</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D109">
         <v>3001</v>
@@ -5071,7 +5071,7 @@
         <v>8045</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D110">
         <v>3001</v>
@@ -5172,7 +5172,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -5182,7 +5182,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -5192,7 +5192,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -5212,17 +5212,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -5252,47 +5252,47 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -5330,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -5338,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -5346,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -5362,7 +5362,7 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -5370,7 +5370,7 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -5378,7 +5378,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -5386,7 +5386,7 @@
         <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -5394,7 +5394,7 @@
         <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -5402,7 +5402,7 @@
         <v>1002</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -5410,7 +5410,7 @@
         <v>1003</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -5418,7 +5418,7 @@
         <v>1004</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -5426,7 +5426,7 @@
         <v>1005</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -5434,7 +5434,7 @@
         <v>1006</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -5442,7 +5442,7 @@
         <v>1007</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -5450,7 +5450,7 @@
         <v>2000</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -5458,7 +5458,7 @@
         <v>2100</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -5466,7 +5466,7 @@
         <v>2101</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -5474,7 +5474,7 @@
         <v>3000</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -5482,7 +5482,7 @@
         <v>3001</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -5490,7 +5490,7 @@
         <v>9999</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62486338-DA4F-4A67-A982-45FCCB26C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0436753A-F2EE-4821-BD68-3BBD708682FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -746,6 +746,38 @@
   <si>
     <t>Prefabs/Game/Scene/object_3d_067</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_032</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_033</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_034</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_035</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_036</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_037</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_038</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_039</t>
   </si>
 </sst>
 </file>
@@ -874,8 +906,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M112" totalsRowShown="0">
-  <autoFilter ref="A1:M112" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M122" totalsRowShown="0">
+  <autoFilter ref="A1:M122" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1192,13 +1224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2447,16 +2479,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1500</v>
+        <v>1130</v>
       </c>
       <c r="B34">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2468,33 +2500,33 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1501</v>
+        <v>1131</v>
       </c>
       <c r="B35">
-        <v>501</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2506,33 +2538,33 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1502</v>
+        <v>1132</v>
       </c>
       <c r="B36">
-        <v>502</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2544,33 +2576,33 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1503</v>
+        <v>1133</v>
       </c>
       <c r="B37">
-        <v>503</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2582,33 +2614,33 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1504</v>
+        <v>1134</v>
       </c>
       <c r="B38">
-        <v>504</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2620,33 +2652,33 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1505</v>
+        <v>1135</v>
       </c>
       <c r="B39">
-        <v>505</v>
+        <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2658,33 +2690,33 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1506</v>
+        <v>1136</v>
       </c>
       <c r="B40">
-        <v>506</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2696,33 +2728,33 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1507</v>
+        <v>1137</v>
       </c>
       <c r="B41">
-        <v>507</v>
+        <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2734,33 +2766,33 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1508</v>
+        <v>1138</v>
       </c>
       <c r="B42">
-        <v>508</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2772,33 +2804,33 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1509</v>
+        <v>1139</v>
       </c>
       <c r="B43">
-        <v>509</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2810,45 +2842,45 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="B44">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2865,28 +2897,28 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1551</v>
+        <v>1501</v>
       </c>
       <c r="B45">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2903,28 +2935,28 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1552</v>
+        <v>1502</v>
       </c>
       <c r="B46">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2941,28 +2973,28 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1553</v>
+        <v>1503</v>
       </c>
       <c r="B47">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2979,28 +3011,28 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1554</v>
+        <v>1504</v>
       </c>
       <c r="B48">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3017,28 +3049,28 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1555</v>
+        <v>1505</v>
       </c>
       <c r="B49">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3055,28 +3087,28 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1556</v>
+        <v>1506</v>
       </c>
       <c r="B50">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3093,28 +3125,28 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1557</v>
+        <v>1507</v>
       </c>
       <c r="B51">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3131,28 +3163,28 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1558</v>
+        <v>1508</v>
       </c>
       <c r="B52">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3169,28 +3201,28 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1559</v>
+        <v>1509</v>
       </c>
       <c r="B53">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3207,34 +3239,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="B54">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -3245,66 +3277,72 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1999</v>
+        <v>1551</v>
+      </c>
+      <c r="B55">
+        <v>551</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>0.8</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>2000</v>
+        <v>1552</v>
+      </c>
+      <c r="B56">
+        <v>552</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -3315,34 +3353,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>2001</v>
+        <v>1553</v>
+      </c>
+      <c r="B57">
+        <v>553</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>1.5</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -3353,34 +3391,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>2002</v>
+        <v>1554</v>
+      </c>
+      <c r="B58">
+        <v>554</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>0.8</v>
       </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3391,34 +3429,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>2003</v>
+        <v>1555</v>
+      </c>
+      <c r="B59">
+        <v>555</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -3429,34 +3467,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>2004</v>
+        <v>1556</v>
+      </c>
+      <c r="B60">
+        <v>556</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -3467,34 +3505,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>2005</v>
+        <v>1557</v>
+      </c>
+      <c r="B61">
+        <v>557</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3505,34 +3543,34 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>2006</v>
+        <v>1558</v>
+      </c>
+      <c r="B62">
+        <v>558</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="J62">
         <v>1</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3543,34 +3581,34 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>2007</v>
+        <v>1559</v>
+      </c>
+      <c r="B63">
+        <v>559</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>4</v>
-      </c>
-      <c r="I63">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -3581,34 +3619,34 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>2100</v>
+        <v>1600</v>
+      </c>
+      <c r="B64">
+        <v>600</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="D64">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3619,72 +3657,66 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>2101</v>
+        <v>1999</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>2102</v>
+        <v>2000</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3695,16 +3727,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>5000</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3713,16 +3742,19 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3733,34 +3765,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>5001</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
+        <v>2002</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
       </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3771,37 +3803,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>5002</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
+        <v>2003</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -3809,37 +3841,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>5003</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -3847,54 +3879,51 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>5100</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
+        <v>2005</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D71">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>5101</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
+        <v>2006</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="D72">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -3903,10 +3932,13 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3923,28 +3955,28 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>5102</v>
-      </c>
-      <c r="B73">
-        <v>7</v>
+        <v>2007</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D73">
-        <v>3001</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>9</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3953,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -3961,37 +3993,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>5103</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
+        <v>2100</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D74">
-        <v>3001</v>
+        <v>110</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -3999,28 +4031,28 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>6000</v>
-      </c>
-      <c r="B75">
-        <v>3003</v>
+        <v>2101</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D75">
-        <v>1002</v>
+        <v>110</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -4037,25 +4069,31 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>6001</v>
+        <v>2102</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D76">
-        <v>1003</v>
+        <v>110</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4069,13 +4107,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>6002</v>
+        <v>5000</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4086,8 +4127,11 @@
       <c r="G77">
         <v>1</v>
       </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -4101,25 +4145,31 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>6003</v>
+        <v>5001</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
         <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -4133,13 +4183,16 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>6004</v>
+        <v>5002</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>1006</v>
+        <v>2000</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4148,16 +4201,19 @@
         <v>1</v>
       </c>
       <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4165,31 +4221,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>6005</v>
+        <v>5003</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>1007</v>
+        <v>2000</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4197,25 +4259,25 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>7016</v>
+        <v>5100</v>
       </c>
       <c r="B81">
-        <v>7016</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D81">
-        <v>3003</v>
+        <v>2100</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -4230,21 +4292,21 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>7017</v>
+        <v>5101</v>
       </c>
       <c r="B82">
-        <v>7017</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D82">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -4262,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4273,22 +4335,22 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>7018</v>
+        <v>5102</v>
       </c>
       <c r="B83">
-        <v>7018</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D83">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -4300,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -4311,19 +4373,19 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7019</v>
+        <v>5103</v>
       </c>
       <c r="B84">
-        <v>7019</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D84">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4338,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -4349,25 +4411,25 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>7020</v>
+        <v>6000</v>
       </c>
       <c r="B85">
-        <v>7020</v>
+        <v>3003</v>
       </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D85">
-        <v>3003</v>
+        <v>1002</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4387,16 +4449,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>7021</v>
-      </c>
-      <c r="B86">
-        <v>7021</v>
+        <v>6001</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D86">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4407,11 +4466,8 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4425,16 +4481,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>7022</v>
-      </c>
-      <c r="B87">
-        <v>7022</v>
+        <v>6002</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D87">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4445,11 +4498,8 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4463,16 +4513,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>7023</v>
-      </c>
-      <c r="B88">
-        <v>7023</v>
+        <v>6003</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D88">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4483,11 +4530,8 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -4501,16 +4545,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>7024</v>
-      </c>
-      <c r="B89">
-        <v>7024</v>
+        <v>6004</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D89">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4521,11 +4562,8 @@
       <c r="G89">
         <v>1</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4539,16 +4577,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7025</v>
-      </c>
-      <c r="B90">
-        <v>7025</v>
+        <v>6005</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D90">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4559,11 +4594,8 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -4577,13 +4609,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="B91">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D91">
         <v>3003</v>
@@ -4592,10 +4624,10 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -4615,13 +4647,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B92">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D92">
         <v>3003</v>
@@ -4630,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -4653,22 +4685,22 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="B93">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D93">
         <v>3003</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -4691,19 +4723,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="B94">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D94">
         <v>3003</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -4729,19 +4761,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B95">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D95">
         <v>3003</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4767,156 +4799,285 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>8001</v>
+        <v>7021</v>
+      </c>
+      <c r="B96">
+        <v>7021</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D96">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>8002</v>
+        <v>7022</v>
+      </c>
+      <c r="B97">
+        <v>7022</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D97">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>8003</v>
+        <v>7023</v>
+      </c>
+      <c r="B98">
+        <v>7023</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D98">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>8004</v>
+        <v>7024</v>
+      </c>
+      <c r="B99">
+        <v>7024</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D99">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>8005</v>
+        <v>7025</v>
+      </c>
+      <c r="B100">
+        <v>7025</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D100">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>8010</v>
+        <v>7026</v>
+      </c>
+      <c r="B101">
+        <v>7026</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D101">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>8013</v>
+        <v>7027</v>
+      </c>
+      <c r="B102">
+        <v>7027</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D102">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E102">
         <v>2</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>8020</v>
+        <v>7028</v>
+      </c>
+      <c r="B103">
+        <v>7028</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D103">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -4924,226 +5085,477 @@
       <c r="G103">
         <v>1</v>
       </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
       <c r="K103">
         <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>8030</v>
+        <v>7029</v>
+      </c>
+      <c r="B104">
+        <v>7029</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D104">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
       </c>
       <c r="K104">
         <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>8031</v>
+        <v>7030</v>
+      </c>
+      <c r="B105">
+        <v>7030</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D105">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
       </c>
       <c r="K105">
         <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>8041</v>
+        <v>8001</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D106">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
         <v>5</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>8042</v>
+        <v>8002</v>
       </c>
       <c r="C107" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D107">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
         <v>5</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107">
-        <v>3</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>8043</v>
+        <v>8003</v>
       </c>
       <c r="C108" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D108">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108">
         <v>2</v>
       </c>
       <c r="G108">
-        <v>1.5</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>8044</v>
+        <v>8004</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D109">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>3</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>8045</v>
+        <v>8005</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D110">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
         <v>5</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110">
-        <v>3</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>9999</v>
+        <v>8010</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D111">
-        <v>9999</v>
+        <v>3000</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
+        <v>8013</v>
+      </c>
+      <c r="C112" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112">
+        <v>3000</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>8020</v>
+      </c>
+      <c r="C113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113">
+        <v>3001</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>8030</v>
+      </c>
+      <c r="C114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114">
+        <v>3001</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>8031</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115">
+        <v>3001</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>8041</v>
+      </c>
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116">
+        <v>3001</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>8042</v>
+      </c>
+      <c r="C117" t="s">
+        <v>151</v>
+      </c>
+      <c r="D117">
+        <v>3001</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>8043</v>
+      </c>
+      <c r="C118" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118">
+        <v>3001</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1.5</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>8044</v>
+      </c>
+      <c r="C119" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119">
+        <v>3001</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>8045</v>
+      </c>
+      <c r="C120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120">
+        <v>3001</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>9999</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121">
+        <v>9999</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122">
         <v>10000</v>
       </c>
-      <c r="D112">
+      <c r="D122">
         <v>10000</v>
       </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="M112">
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="M122">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0436753A-F2EE-4821-BD68-3BBD708682FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E9E64-E588-4C0C-BC5A-759251B1BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="179">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -778,6 +776,37 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_039</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_069</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_070</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_071</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_072</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_073</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_074</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_075</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_076</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_077</t>
   </si>
 </sst>
 </file>
@@ -875,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +915,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,8 +938,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M122" totalsRowShown="0">
-  <autoFilter ref="A1:M122" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M132" totalsRowShown="0">
+  <autoFilter ref="A1:M132" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1224,13 +1256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4410,26 +4442,26 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85">
-        <v>6000</v>
+      <c r="A85" s="4">
+        <v>5200</v>
       </c>
       <c r="B85">
-        <v>3003</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="D85">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4448,26 +4480,32 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86">
-        <v>6001</v>
+      <c r="A86" s="4">
+        <v>5201</v>
+      </c>
+      <c r="B86">
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D86">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4480,26 +4518,32 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87">
-        <v>6002</v>
+      <c r="A87" s="4">
+        <v>5202</v>
+      </c>
+      <c r="B87">
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D87">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4512,26 +4556,32 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88">
-        <v>6003</v>
+      <c r="A88" s="4">
+        <v>5203</v>
+      </c>
+      <c r="B88">
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D88">
-        <v>1005</v>
+        <v>2001</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -4544,26 +4594,32 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89">
-        <v>6004</v>
+      <c r="A89" s="4">
+        <v>5204</v>
+      </c>
+      <c r="B89">
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D89">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4576,26 +4632,32 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90">
-        <v>6005</v>
+      <c r="A90" s="4">
+        <v>5205</v>
+      </c>
+      <c r="B90">
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D90">
-        <v>1007</v>
+        <v>2001</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -4608,26 +4670,26 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91">
-        <v>7016</v>
+      <c r="A91" s="4">
+        <v>5206</v>
       </c>
       <c r="B91">
-        <v>7016</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D91">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>2</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -4646,26 +4708,26 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92">
-        <v>7017</v>
+      <c r="A92" s="4">
+        <v>5207</v>
       </c>
       <c r="B92">
-        <v>7017</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D92">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>2</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -4684,23 +4746,23 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93">
-        <v>7018</v>
+      <c r="A93" s="4">
+        <v>5208</v>
       </c>
       <c r="B93">
-        <v>7018</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="D93">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -4722,23 +4784,23 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94">
-        <v>7019</v>
+      <c r="A94" s="4">
+        <v>5209</v>
       </c>
       <c r="B94">
-        <v>7019</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="D94">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -4761,25 +4823,25 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>7020</v>
+        <v>6000</v>
       </c>
       <c r="B95">
-        <v>7020</v>
+        <v>3003</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D95">
-        <v>3003</v>
+        <v>1002</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -4799,16 +4861,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>7021</v>
-      </c>
-      <c r="B96">
-        <v>7021</v>
+        <v>6001</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D96">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4819,11 +4878,8 @@
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4837,16 +4893,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>7022</v>
-      </c>
-      <c r="B97">
-        <v>7022</v>
+        <v>6002</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D97">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4857,11 +4910,8 @@
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4875,16 +4925,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>7023</v>
-      </c>
-      <c r="B98">
-        <v>7023</v>
+        <v>6003</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D98">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4895,11 +4942,8 @@
       <c r="G98">
         <v>1</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -4913,16 +4957,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>7024</v>
-      </c>
-      <c r="B99">
-        <v>7024</v>
+        <v>6004</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D99">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4933,11 +4974,8 @@
       <c r="G99">
         <v>1</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -4951,16 +4989,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>7025</v>
-      </c>
-      <c r="B100">
-        <v>7025</v>
+        <v>6005</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="D100">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4971,11 +5006,8 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -4989,13 +5021,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="B101">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D101">
         <v>3003</v>
@@ -5004,10 +5036,10 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5027,13 +5059,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B102">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D102">
         <v>3003</v>
@@ -5042,10 +5074,10 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -5065,22 +5097,22 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="B103">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D103">
         <v>3003</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5103,19 +5135,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="B104">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D104">
         <v>3003</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -5141,19 +5173,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B105">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D105">
         <v>3003</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -5179,156 +5211,285 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>8001</v>
+        <v>7021</v>
+      </c>
+      <c r="B106">
+        <v>7021</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D106">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>8002</v>
+        <v>7022</v>
+      </c>
+      <c r="B107">
+        <v>7022</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D107">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>8003</v>
+        <v>7023</v>
+      </c>
+      <c r="B108">
+        <v>7023</v>
       </c>
       <c r="C108" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D108">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>8004</v>
+        <v>7024</v>
+      </c>
+      <c r="B109">
+        <v>7024</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D109">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>8005</v>
+        <v>7025</v>
+      </c>
+      <c r="B110">
+        <v>7025</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D110">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>8010</v>
+        <v>7026</v>
+      </c>
+      <c r="B111">
+        <v>7026</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D111">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>8013</v>
+        <v>7027</v>
+      </c>
+      <c r="B112">
+        <v>7027</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D112">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>8020</v>
+        <v>7028</v>
+      </c>
+      <c r="B113">
+        <v>7028</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D113">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5336,226 +5497,477 @@
       <c r="G113">
         <v>1</v>
       </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
       <c r="K113">
         <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>8030</v>
+        <v>7029</v>
+      </c>
+      <c r="B114">
+        <v>7029</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D114">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
       </c>
       <c r="K114">
         <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>8031</v>
+        <v>7030</v>
+      </c>
+      <c r="B115">
+        <v>7030</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D115">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
       </c>
       <c r="K115">
         <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>8041</v>
+        <v>8001</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D116">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
         <v>5</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>3</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>8042</v>
+        <v>8002</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D117">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
         <v>5</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>3</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>8043</v>
+        <v>8003</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D118">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F118">
         <v>2</v>
       </c>
       <c r="G118">
-        <v>1.5</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>8044</v>
+        <v>8004</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D119">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>3</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>8045</v>
+        <v>8005</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D120">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
         <v>5</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>9999</v>
+        <v>8010</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D121">
-        <v>9999</v>
+        <v>3000</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
+        <v>8013</v>
+      </c>
+      <c r="C122" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122">
+        <v>3000</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>8020</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123">
+        <v>3001</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>8030</v>
+      </c>
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124">
+        <v>3001</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>8031</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125">
+        <v>3001</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>8041</v>
+      </c>
+      <c r="C126" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126">
+        <v>3001</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>8042</v>
+      </c>
+      <c r="C127" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127">
+        <v>3001</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>8043</v>
+      </c>
+      <c r="C128" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128">
+        <v>3001</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1.5</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>8044</v>
+      </c>
+      <c r="C129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129">
+        <v>3001</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>8045</v>
+      </c>
+      <c r="C130" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130">
+        <v>3001</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>9999</v>
+      </c>
+      <c r="C131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <v>9999</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132">
         <v>10000</v>
       </c>
-      <c r="D122">
+      <c r="D132">
         <v>10000</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="M122">
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0436753A-F2EE-4821-BD68-3BBD708682FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE32BD3-6DCD-415E-85C0-750EF794AFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -778,6 +778,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_039</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_000</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1227,10 +1231,10 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1285,6 +1289,9 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E9E64-E588-4C0C-BC5A-759251B1BCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D803A4-B7CA-4578-BC18-1F8066F9F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="180">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -807,6 +807,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_077</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_000</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1262,7 +1266,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1317,6 +1321,9 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D803A4-B7CA-4578-BC18-1F8066F9F7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795B345F-2365-464A-820D-C1AAFA56EA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="3345" yWindow="2625" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -775,42 +775,69 @@
     <t>Prefabs/Game/Block/block_3d_038</t>
   </si>
   <si>
+    <t>Prefabs/Game/Scene/object_3d_068</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_069</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_070</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_071</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_072</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_073</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_074</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_075</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_076</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_077</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Prefabs/Game/Block/block_3d_039</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_068</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_069</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_070</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_071</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_072</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_073</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_074</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_075</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_076</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_077</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_000</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_078</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_079</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_080</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_081</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_082</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_083</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_084</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_085</t>
   </si>
 </sst>
 </file>
@@ -942,8 +969,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M132" totalsRowShown="0">
-  <autoFilter ref="A1:M132" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M140" totalsRowShown="0">
+  <autoFilter ref="A1:M140" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1260,13 +1287,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1323,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2299,7 +2326,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2337,7 +2364,7 @@
         <v>101</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2375,7 +2402,7 @@
         <v>102</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2413,7 +2440,7 @@
         <v>103</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2451,7 +2478,7 @@
         <v>104</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2489,7 +2516,7 @@
         <v>105</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2866,7 +2893,7 @@
         <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2898,16 +2925,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1500</v>
+        <v>1178</v>
       </c>
       <c r="B44">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2919,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2928,24 +2955,24 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1501</v>
+        <v>1179</v>
       </c>
       <c r="B45">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2957,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2966,24 +2993,24 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1502</v>
+        <v>1180</v>
       </c>
       <c r="B46">
-        <v>502</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2995,33 +3022,33 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1503</v>
+        <v>1181</v>
       </c>
       <c r="B47">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3033,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3042,24 +3069,24 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1504</v>
+        <v>1182</v>
       </c>
       <c r="B48">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3071,33 +3098,33 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1505</v>
+        <v>1183</v>
       </c>
       <c r="B49">
-        <v>505</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3109,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3118,24 +3145,24 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1506</v>
+        <v>1184</v>
       </c>
       <c r="B50">
-        <v>506</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3147,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3156,24 +3183,24 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1507</v>
+        <v>1185</v>
       </c>
       <c r="B51">
-        <v>507</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3185,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3194,21 +3221,21 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="B52">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3240,13 +3267,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1509</v>
+        <v>1501</v>
       </c>
       <c r="B53">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3278,28 +3305,28 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1550</v>
+        <v>1502</v>
       </c>
       <c r="B54">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3316,28 +3343,28 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1551</v>
+        <v>1503</v>
       </c>
       <c r="B55">
-        <v>551</v>
+        <v>503</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3354,28 +3381,28 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1552</v>
+        <v>1504</v>
       </c>
       <c r="B56">
-        <v>552</v>
+        <v>504</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3392,28 +3419,28 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1553</v>
+        <v>1505</v>
       </c>
       <c r="B57">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3430,28 +3457,28 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1554</v>
+        <v>1506</v>
       </c>
       <c r="B58">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3468,28 +3495,28 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1555</v>
+        <v>1507</v>
       </c>
       <c r="B59">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3506,28 +3533,28 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1556</v>
+        <v>1508</v>
       </c>
       <c r="B60">
-        <v>556</v>
+        <v>508</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3544,28 +3571,28 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1557</v>
+        <v>1509</v>
       </c>
       <c r="B61">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3582,13 +3609,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="B62">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -3620,13 +3647,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="B63">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -3658,34 +3685,34 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1600</v>
+        <v>1552</v>
       </c>
       <c r="B64">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -3696,66 +3723,72 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1999</v>
+        <v>1553</v>
+      </c>
+      <c r="B65">
+        <v>553</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D65">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>0.8</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>2000</v>
+        <v>1554</v>
+      </c>
+      <c r="B66">
+        <v>554</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3766,34 +3799,34 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>2001</v>
+        <v>1555</v>
+      </c>
+      <c r="B67">
+        <v>555</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D67">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1.5</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3804,34 +3837,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>2002</v>
+        <v>1556</v>
+      </c>
+      <c r="B68">
+        <v>556</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>0.8</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
       <c r="J68">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3842,34 +3875,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>2003</v>
+        <v>1557</v>
+      </c>
+      <c r="B69">
+        <v>557</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3880,34 +3913,34 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>2004</v>
+        <v>1558</v>
+      </c>
+      <c r="B70">
+        <v>558</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3918,34 +3951,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>2005</v>
+        <v>1559</v>
+      </c>
+      <c r="B71">
+        <v>559</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3956,28 +3989,28 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>2006</v>
+        <v>1600</v>
+      </c>
+      <c r="B72">
+        <v>600</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3994,60 +4027,54 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
-      <c r="I73">
-        <v>9</v>
-      </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4059,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4070,25 +4097,25 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -4097,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4108,25 +4135,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>2102</v>
+        <v>2002</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -4135,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4146,34 +4173,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>5000</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D77">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4184,16 +4211,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>5001</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
+        <v>2004</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D78">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -4202,16 +4226,19 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
       </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4222,37 +4249,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>5002</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
+        <v>2005</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D79">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4260,37 +4287,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>5003</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
+        <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D80">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -4298,54 +4325,51 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>5100</v>
-      </c>
-      <c r="B81">
-        <v>5</v>
+        <v>2007</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>5101</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
+        <v>2100</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D82">
-        <v>3001</v>
+        <v>110</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -4359,11 +4383,14 @@
       <c r="H82">
         <v>1</v>
       </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4374,37 +4401,37 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>5102</v>
-      </c>
-      <c r="B83">
-        <v>7</v>
+        <v>2101</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D83">
-        <v>3001</v>
+        <v>110</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -4412,326 +4439,326 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
+        <v>2102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84">
+        <v>110</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>5000</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>1000</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>5001</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86">
+        <v>1001</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>5002</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87">
+        <v>2000</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>5003</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88">
+        <v>2000</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>5100</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89">
+        <v>2100</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>5101</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90">
+        <v>3001</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>5102</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91">
+        <v>3001</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>5103</v>
       </c>
-      <c r="B84">
+      <c r="B92">
         <v>8</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
         <v>126</v>
       </c>
-      <c r="D84">
+      <c r="D92">
         <v>3001</v>
       </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" s="4">
-        <v>5200</v>
-      </c>
-      <c r="B85">
-        <v>200</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85">
-        <v>2001</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="4">
-        <v>5201</v>
-      </c>
-      <c r="B86">
-        <v>201</v>
-      </c>
-      <c r="C86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86">
-        <v>2001</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" s="4">
-        <v>5202</v>
-      </c>
-      <c r="B87">
-        <v>202</v>
-      </c>
-      <c r="C87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87">
-        <v>2001</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" s="4">
-        <v>5203</v>
-      </c>
-      <c r="B88">
-        <v>203</v>
-      </c>
-      <c r="C88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D88">
-        <v>2001</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" s="4">
-        <v>5204</v>
-      </c>
-      <c r="B89">
-        <v>204</v>
-      </c>
-      <c r="C89" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89">
-        <v>2001</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" s="4">
-        <v>5205</v>
-      </c>
-      <c r="B90">
-        <v>205</v>
-      </c>
-      <c r="C90" t="s">
-        <v>174</v>
-      </c>
-      <c r="D90">
-        <v>2001</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" s="4">
-        <v>5206</v>
-      </c>
-      <c r="B91">
-        <v>206</v>
-      </c>
-      <c r="C91" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91">
-        <v>2001</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92" s="4">
-        <v>5207</v>
-      </c>
-      <c r="B92">
-        <v>207</v>
-      </c>
-      <c r="C92" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92">
-        <v>2001</v>
-      </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -4743,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -4754,13 +4781,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
-        <v>5208</v>
+        <v>5200</v>
       </c>
       <c r="B93">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D93">
         <v>2001</v>
@@ -4792,13 +4819,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
-        <v>5209</v>
+        <v>5201</v>
       </c>
       <c r="B94">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D94">
         <v>2001</v>
@@ -4829,26 +4856,26 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95">
-        <v>6000</v>
+      <c r="A95" s="4">
+        <v>5202</v>
       </c>
       <c r="B95">
-        <v>3003</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D95">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -4867,26 +4894,32 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96">
-        <v>6001</v>
+      <c r="A96" s="4">
+        <v>5203</v>
+      </c>
+      <c r="B96">
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D96">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -4899,26 +4932,32 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97">
-        <v>6002</v>
+      <c r="A97" s="4">
+        <v>5204</v>
+      </c>
+      <c r="B97">
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D97">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4931,26 +4970,32 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98">
-        <v>6003</v>
+      <c r="A98" s="4">
+        <v>5205</v>
+      </c>
+      <c r="B98">
+        <v>205</v>
       </c>
       <c r="C98" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D98">
-        <v>1005</v>
+        <v>2001</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -4963,26 +5008,32 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99">
-        <v>6004</v>
+      <c r="A99" s="4">
+        <v>5206</v>
+      </c>
+      <c r="B99">
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D99">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -4995,26 +5046,32 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100">
-        <v>6005</v>
+      <c r="A100" s="4">
+        <v>5207</v>
+      </c>
+      <c r="B100">
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D100">
-        <v>1007</v>
+        <v>2001</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -5027,26 +5084,26 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101">
-        <v>7016</v>
+      <c r="A101" s="4">
+        <v>5208</v>
       </c>
       <c r="B101">
-        <v>7016</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D101">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5065,26 +5122,26 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102">
-        <v>7017</v>
+      <c r="A102" s="4">
+        <v>5209</v>
       </c>
       <c r="B102">
-        <v>7017</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="D102">
-        <v>3003</v>
+        <v>2001</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -5104,25 +5161,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>7018</v>
+        <v>6000</v>
       </c>
       <c r="B103">
-        <v>7018</v>
+        <v>3003</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D103">
-        <v>3003</v>
+        <v>1002</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
         <v>3</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5142,19 +5199,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>7019</v>
-      </c>
-      <c r="B104">
-        <v>7019</v>
+        <v>6001</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D104">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -5162,11 +5216,8 @@
       <c r="G104">
         <v>1</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -5180,16 +5231,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>7020</v>
-      </c>
-      <c r="B105">
-        <v>7020</v>
+        <v>6002</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D105">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5200,11 +5248,8 @@
       <c r="G105">
         <v>1</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -5218,16 +5263,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>7021</v>
-      </c>
-      <c r="B106">
-        <v>7021</v>
+        <v>6003</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D106">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5238,11 +5280,8 @@
       <c r="G106">
         <v>1</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -5256,16 +5295,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>7022</v>
-      </c>
-      <c r="B107">
-        <v>7022</v>
+        <v>6004</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D107">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5276,11 +5312,8 @@
       <c r="G107">
         <v>1</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5294,16 +5327,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>7023</v>
-      </c>
-      <c r="B108">
-        <v>7023</v>
+        <v>6005</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D108">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5314,11 +5344,8 @@
       <c r="G108">
         <v>1</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -5332,25 +5359,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>7024</v>
+        <v>7016</v>
       </c>
       <c r="B109">
-        <v>7024</v>
+        <v>7016</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D109">
         <v>3003</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -5370,25 +5397,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="B110">
-        <v>7025</v>
+        <v>7017</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D110">
         <v>3003</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5408,22 +5435,22 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>7026</v>
+        <v>7018</v>
       </c>
       <c r="B111">
-        <v>7026</v>
+        <v>7018</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D111">
         <v>3003</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -5446,19 +5473,19 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>7027</v>
+        <v>7019</v>
       </c>
       <c r="B112">
-        <v>7027</v>
+        <v>7019</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D112">
         <v>3003</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -5484,19 +5511,19 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="B113">
-        <v>7028</v>
+        <v>7020</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D113">
         <v>3003</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5522,19 +5549,19 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>7029</v>
+        <v>7021</v>
       </c>
       <c r="B114">
-        <v>7029</v>
+        <v>7021</v>
       </c>
       <c r="C114" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D114">
         <v>3003</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -5560,19 +5587,19 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>7030</v>
+        <v>7022</v>
       </c>
       <c r="B115">
-        <v>7030</v>
+        <v>7022</v>
       </c>
       <c r="C115" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D115">
         <v>3003</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -5598,156 +5625,285 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>8001</v>
+        <v>7023</v>
+      </c>
+      <c r="B116">
+        <v>7023</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D116">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>8002</v>
+        <v>7024</v>
+      </c>
+      <c r="B117">
+        <v>7024</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D117">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>8003</v>
+        <v>7025</v>
+      </c>
+      <c r="B118">
+        <v>7025</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D118">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>8004</v>
+        <v>7026</v>
+      </c>
+      <c r="B119">
+        <v>7026</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D119">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>8005</v>
+        <v>7027</v>
+      </c>
+      <c r="B120">
+        <v>7027</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D120">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>8010</v>
+        <v>7028</v>
+      </c>
+      <c r="B121">
+        <v>7028</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D121">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>8013</v>
+        <v>7029</v>
+      </c>
+      <c r="B122">
+        <v>7029</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D122">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>8020</v>
+        <v>7030</v>
+      </c>
+      <c r="B123">
+        <v>7030</v>
       </c>
       <c r="C123" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D123">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5755,180 +5911,171 @@
       <c r="G123">
         <v>1</v>
       </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
       <c r="K123">
         <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>8030</v>
+        <v>8001</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D124">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>5</v>
       </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>8031</v>
+        <v>8002</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D125">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <v>5</v>
       </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>8041</v>
+        <v>8003</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D126">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
         <v>5</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>8042</v>
+        <v>8004</v>
       </c>
       <c r="C127" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D127">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
         <v>5</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>3</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>8043</v>
+        <v>8005</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D128">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128">
         <v>2</v>
       </c>
       <c r="G128">
-        <v>1.5</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>8044</v>
+        <v>8010</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D129">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>3</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>8045</v>
+        <v>8013</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D130">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F130">
         <v>2</v>
       </c>
       <c r="G130">
-        <v>3</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>9999</v>
+        <v>8020</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="D131">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5939,42 +6086,226 @@
       <c r="G131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
       <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
+        <v>8030</v>
+      </c>
+      <c r="C132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132">
+        <v>3001</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>8031</v>
+      </c>
+      <c r="C133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133">
+        <v>3001</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>8041</v>
+      </c>
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134">
+        <v>3001</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>8042</v>
+      </c>
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135">
+        <v>3001</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>8043</v>
+      </c>
+      <c r="C136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136">
+        <v>3001</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1.5</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>8044</v>
+      </c>
+      <c r="C137" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137">
+        <v>3001</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>8045</v>
+      </c>
+      <c r="C138" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138">
+        <v>3001</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>9999</v>
+      </c>
+      <c r="C139" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139">
+        <v>9999</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140">
         <v>10000</v>
       </c>
-      <c r="D132">
+      <c r="D140">
         <v>10000</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="M132">
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="M140">
         <v>1</v>
       </c>
     </row>
@@ -6138,7 +6469,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795B345F-2365-464A-820D-C1AAFA56EA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BA9D0-43CA-4252-8B6E-273F95BB7C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2625" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -814,30 +816,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Block/block_3d_078</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_079</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_080</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_081</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_082</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_083</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_084</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Block/block_3d_085</t>
+    <t>Prefabs/Game/Scene/object_3d_078</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_079</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_080</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_081</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_082</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_083</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_084</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向きないObject（下のブロック隠れない）</t>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向きあるObject（下のブロック隠れない）</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1293,7 +1318,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2934,7 +2959,7 @@
         <v>180</v>
       </c>
       <c r="D44">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2972,7 +2997,7 @@
         <v>181</v>
       </c>
       <c r="D45">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3010,7 +3035,7 @@
         <v>182</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3048,7 +3073,7 @@
         <v>183</v>
       </c>
       <c r="D47">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3086,7 +3111,7 @@
         <v>184</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3001</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3124,7 +3149,7 @@
         <v>185</v>
       </c>
       <c r="D49">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3162,7 +3187,7 @@
         <v>186</v>
       </c>
       <c r="D50">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3200,7 +3225,7 @@
         <v>187</v>
       </c>
       <c r="D51">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -6466,10 +6491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6644,14 +6669,30 @@
         <v>3001</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>3002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>9999</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BA9D0-43CA-4252-8B6E-273F95BB7C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57537922-C903-4DA3-A061-EFA8A2B3118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -862,6 +862,14 @@
     <rPh sb="0" eb="1">
       <t>ム</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_089</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_092</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -994,8 +1002,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M140" totalsRowShown="0">
-  <autoFilter ref="A1:M140" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M142" totalsRowShown="0">
+  <autoFilter ref="A1:M142" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1312,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3254,16 +3262,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1500</v>
-      </c>
-      <c r="B52">
-        <v>500</v>
+        <v>1189</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3275,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3284,24 +3289,21 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1501</v>
-      </c>
-      <c r="B53">
-        <v>501</v>
+        <v>1192</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3313,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3322,21 +3324,21 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B54">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3368,13 +3370,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B55">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3406,13 +3408,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B56">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3444,13 +3446,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B57">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3482,13 +3484,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B58">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3520,13 +3522,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B59">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3558,13 +3560,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B60">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3596,13 +3598,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B61">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3634,28 +3636,28 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1550</v>
+        <v>1508</v>
       </c>
       <c r="B62">
-        <v>550</v>
+        <v>508</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3672,28 +3674,28 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1551</v>
+        <v>1509</v>
       </c>
       <c r="B63">
-        <v>551</v>
+        <v>509</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3710,13 +3712,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B64">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3748,13 +3750,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B65">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -3786,13 +3788,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B66">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -3824,13 +3826,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B67">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -3862,13 +3864,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B68">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -3900,13 +3902,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B69">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -3938,13 +3940,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B70">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3976,13 +3978,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B71">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4014,34 +4016,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1600</v>
+        <v>1558</v>
       </c>
       <c r="B72">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J72">
         <v>1</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -4052,45 +4054,54 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1999</v>
+        <v>1559</v>
+      </c>
+      <c r="B73">
+        <v>559</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>0.8</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>2000</v>
+        <v>1600</v>
+      </c>
+      <c r="B74">
+        <v>600</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4099,13 +4110,10 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -4122,13 +4130,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4137,33 +4145,27 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="H75">
-        <v>1.5</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D76">
         <v>100</v>
@@ -4178,10 +4180,10 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4198,28 +4200,28 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D77">
         <v>100</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4236,28 +4238,28 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D78">
         <v>100</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4274,10 +4276,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79">
         <v>100</v>
@@ -4295,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4312,10 +4314,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80">
         <v>100</v>
@@ -4333,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -4350,10 +4352,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D81">
         <v>100</v>
@@ -4368,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -4388,13 +4390,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>2100</v>
+        <v>2006</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="D82">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -4403,19 +4405,19 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4426,13 +4428,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>2101</v>
+        <v>2007</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="D83">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -4441,19 +4443,19 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -4464,10 +4466,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D84">
         <v>110</v>
@@ -4485,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -4502,28 +4504,28 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>5000</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
+        <v>2101</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="D85">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>1</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -4540,16 +4542,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>5001</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
+        <v>2102</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D86">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -4562,6 +4561,9 @@
       </c>
       <c r="H86">
         <v>1</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -4578,16 +4580,16 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D87">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4596,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4608,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -4616,22 +4618,22 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D88">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -4646,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -4654,16 +4656,16 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>5100</v>
+        <v>5002</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4672,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -4684,30 +4686,30 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>5101</v>
+        <v>5003</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="D90">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -4719,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -4730,16 +4732,16 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="D91">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4757,36 +4759,36 @@
         <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D92">
         <v>3001</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -4798,30 +4800,30 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" s="4">
-        <v>5200</v>
+      <c r="A93">
+        <v>5102</v>
       </c>
       <c r="B93">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D93">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -4833,33 +4835,33 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" s="4">
-        <v>5201</v>
+      <c r="A94">
+        <v>5103</v>
       </c>
       <c r="B94">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="D94">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -4871,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -4882,13 +4884,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="B95">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D95">
         <v>2001</v>
@@ -4920,13 +4922,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B96">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D96">
         <v>2001</v>
@@ -4958,13 +4960,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B97">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97">
         <v>2001</v>
@@ -4996,13 +4998,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B98">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D98">
         <v>2001</v>
@@ -5034,13 +5036,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B99">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99">
         <v>2001</v>
@@ -5072,13 +5074,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B100">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D100">
         <v>2001</v>
@@ -5110,13 +5112,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B101">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D101">
         <v>2001</v>
@@ -5148,13 +5150,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B102">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D102">
         <v>2001</v>
@@ -5185,26 +5187,26 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103">
-        <v>6000</v>
+      <c r="A103" s="4">
+        <v>5208</v>
       </c>
       <c r="B103">
-        <v>3003</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D103">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5223,26 +5225,32 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104">
-        <v>6001</v>
+      <c r="A104" s="4">
+        <v>5209</v>
+      </c>
+      <c r="B104">
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D104">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -5256,25 +5264,31 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>6002</v>
+        <v>6000</v>
+      </c>
+      <c r="B105">
+        <v>3003</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D105">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -5288,13 +5302,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D106">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5320,13 +5334,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D107">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5352,13 +5366,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D108">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5384,31 +5398,25 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>7016</v>
-      </c>
-      <c r="B109">
-        <v>7016</v>
+        <v>6004</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D109">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>2</v>
-      </c>
-      <c r="H109">
         <v>1</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -5422,31 +5430,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>7017</v>
-      </c>
-      <c r="B110">
-        <v>7017</v>
+        <v>6005</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D110">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
         <v>1</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -5460,25 +5462,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B111">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C111" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D111">
         <v>3003</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5498,25 +5500,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B112">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D112">
         <v>3003</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -5536,13 +5538,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B113">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D113">
         <v>3003</v>
@@ -5551,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -5574,19 +5576,19 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B114">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D114">
         <v>3003</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -5612,13 +5614,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B115">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D115">
         <v>3003</v>
@@ -5650,13 +5652,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B116">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C116" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <v>3003</v>
@@ -5688,13 +5690,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B117">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D117">
         <v>3003</v>
@@ -5726,13 +5728,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B118">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D118">
         <v>3003</v>
@@ -5764,19 +5766,19 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B119">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D119">
         <v>3003</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -5802,19 +5804,19 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B120">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D120">
         <v>3003</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -5840,13 +5842,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B121">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D121">
         <v>3003</v>
@@ -5878,13 +5880,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B122">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D122">
         <v>3003</v>
@@ -5916,13 +5918,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B123">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D123">
         <v>3003</v>
@@ -5954,50 +5956,86 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>8001</v>
+        <v>7029</v>
+      </c>
+      <c r="B124">
+        <v>7029</v>
       </c>
       <c r="C124" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D124">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>8002</v>
+        <v>7030</v>
+      </c>
+      <c r="B125">
+        <v>7030</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D125">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D126">
         <v>3000</v>
@@ -6014,10 +6052,10 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D127">
         <v>3000</v>
@@ -6034,10 +6072,10 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D128">
         <v>3000</v>
@@ -6054,10 +6092,10 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D129">
         <v>3000</v>
@@ -6069,15 +6107,15 @@
         <v>2</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>8013</v>
+        <v>8005</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D130">
         <v>3000</v>
@@ -6089,61 +6127,55 @@
         <v>2</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>8020</v>
+        <v>8010</v>
       </c>
       <c r="C131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>8030</v>
+        <v>8013</v>
       </c>
       <c r="C132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D132">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>5</v>
-      </c>
-      <c r="K132">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="C133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D133">
         <v>3001</v>
@@ -6155,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -6163,22 +6195,22 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8041</v>
+        <v>8030</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D134">
         <v>3001</v>
       </c>
       <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
         <v>5</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -6186,22 +6218,22 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8042</v>
+        <v>8031</v>
       </c>
       <c r="C135" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D135">
         <v>3001</v>
       </c>
       <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
         <v>5</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>3</v>
       </c>
       <c r="K135">
         <v>1</v>
@@ -6209,22 +6241,22 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D136">
         <v>3001</v>
       </c>
       <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
         <v>3</v>
-      </c>
-      <c r="F136">
-        <v>2</v>
-      </c>
-      <c r="G136">
-        <v>1.5</v>
       </c>
       <c r="K136">
         <v>1</v>
@@ -6232,19 +6264,19 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C137" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D137">
         <v>3001</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -6255,22 +6287,22 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138">
         <v>3001</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F138">
         <v>2</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -6278,59 +6310,105 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>9999</v>
+        <v>8044</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="D139">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
+        <v>8045</v>
+      </c>
+      <c r="C140" t="s">
+        <v>152</v>
+      </c>
+      <c r="D140">
+        <v>3001</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>9999</v>
+      </c>
+      <c r="C141" t="s">
+        <v>37</v>
+      </c>
+      <c r="D141">
+        <v>9999</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142">
         <v>10000</v>
       </c>
-      <c r="D140">
+      <c r="D142">
         <v>10000</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="M140">
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="M142">
         <v>1</v>
       </c>
     </row>
@@ -6491,10 +6569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6546,158 +6624,164 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>2000</v>
+        <v>1007</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>3000</v>
+        <v>2101</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
+        <v>3003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>9999</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57537922-C903-4DA3-A061-EFA8A2B3118F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1CDB9-BB73-4DA9-8C79-76DCC50B1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -865,12 +865,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Prefabs/Game/Scene/object_3d_087</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Prefabs/Game/Scene/object_3d_089</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_090</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_091</t>
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_092</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_093</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M142" totalsRowShown="0">
-  <autoFilter ref="A1:M142" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M147" totalsRowShown="0">
+  <autoFilter ref="A1:M147" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1320,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R48" sqref="R48"/>
+      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3262,7 +3277,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C52" t="s">
         <v>190</v>
@@ -3297,7 +3312,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C53" t="s">
         <v>191</v>
@@ -3332,16 +3347,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1500</v>
-      </c>
-      <c r="B54">
-        <v>500</v>
+        <v>1189</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3353,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3362,24 +3374,21 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1501</v>
-      </c>
-      <c r="B55">
-        <v>501</v>
+        <v>1190</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3391,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3400,24 +3409,21 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1502</v>
-      </c>
-      <c r="B56">
-        <v>502</v>
+        <v>1191</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>3001</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3438,24 +3444,21 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1503</v>
-      </c>
-      <c r="B57">
-        <v>503</v>
+        <v>1192</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3467,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3476,24 +3479,21 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1504</v>
-      </c>
-      <c r="B58">
-        <v>504</v>
+        <v>1193</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3514,21 +3514,21 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B59">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3560,13 +3560,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="B60">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3598,13 +3598,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B61">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3636,13 +3636,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B62">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B63">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3712,28 +3712,28 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1550</v>
+        <v>1505</v>
       </c>
       <c r="B64">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3750,28 +3750,28 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1551</v>
+        <v>1506</v>
       </c>
       <c r="B65">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3788,28 +3788,28 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1552</v>
+        <v>1507</v>
       </c>
       <c r="B66">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3826,28 +3826,28 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1553</v>
+        <v>1508</v>
       </c>
       <c r="B67">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3864,28 +3864,28 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1554</v>
+        <v>1509</v>
       </c>
       <c r="B68">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3902,13 +3902,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="B69">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -3940,13 +3940,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="B70">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3978,13 +3978,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="B71">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4016,13 +4016,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="B72">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -4054,13 +4054,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B73">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4092,34 +4092,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1600</v>
+        <v>1555</v>
       </c>
       <c r="B74">
-        <v>600</v>
+        <v>555</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4130,66 +4130,72 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1999</v>
+        <v>1556</v>
+      </c>
+      <c r="B75">
+        <v>556</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D75">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>2000</v>
+        <v>1557</v>
+      </c>
+      <c r="B76">
+        <v>557</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D76">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4200,34 +4206,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>2001</v>
+        <v>1558</v>
+      </c>
+      <c r="B77">
+        <v>558</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D77">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>1.5</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4238,34 +4244,34 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>2002</v>
+        <v>1559</v>
+      </c>
+      <c r="B78">
+        <v>559</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78">
         <v>0.8</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
       <c r="J78">
         <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4276,28 +4282,28 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>2003</v>
+        <v>1600</v>
+      </c>
+      <c r="B79">
+        <v>600</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4314,66 +4320,60 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-      <c r="I80">
-        <v>6</v>
-      </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D81">
         <v>100</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -4390,28 +4390,28 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D82">
         <v>100</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -4428,28 +4428,28 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D83">
         <v>100</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="I83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4466,13 +4466,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>2100</v>
+        <v>2003</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -4481,19 +4481,19 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -4504,13 +4504,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>2101</v>
+        <v>2004</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="D85">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -4519,19 +4519,19 @@
         <v>2</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -4542,13 +4542,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>2102</v>
+        <v>2005</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -4557,19 +4557,19 @@
         <v>2</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -4580,34 +4580,34 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>5000</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D87">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -4618,16 +4618,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>5001</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
+        <v>2007</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -4636,16 +4633,19 @@
         <v>2</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>9</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -4656,22 +4656,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>5002</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
+        <v>2100</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="D89">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -4679,6 +4676,9 @@
       <c r="H89">
         <v>1</v>
       </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
       <c r="J89">
         <v>1</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -4694,22 +4694,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>5003</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
+        <v>2101</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D90">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -4717,6 +4714,9 @@
       <c r="H90">
         <v>1</v>
       </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
       <c r="J90">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -4732,29 +4732,29 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>5100</v>
-      </c>
-      <c r="B91">
-        <v>5</v>
+        <v>2102</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="D91">
-        <v>2100</v>
+        <v>110</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
       <c r="J91">
         <v>1</v>
       </c>
@@ -4765,30 +4765,30 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>5101</v>
+        <v>5000</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D92">
-        <v>3001</v>
+        <v>1000</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -4808,25 +4808,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>5102</v>
+        <v>5001</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="D93">
-        <v>3001</v>
+        <v>1001</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -4835,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -4846,212 +4846,212 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
+        <v>5002</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>2000</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>5003</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95">
+        <v>2000</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>5100</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96">
+        <v>2100</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>5101</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97">
+        <v>3001</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>5102</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98">
+        <v>3001</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>5103</v>
       </c>
-      <c r="B94">
+      <c r="B99">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C99" t="s">
         <v>126</v>
       </c>
-      <c r="D94">
+      <c r="D99">
         <v>3001</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" s="4">
-        <v>5200</v>
-      </c>
-      <c r="B95">
-        <v>200</v>
-      </c>
-      <c r="C95" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95">
-        <v>2001</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" s="4">
-        <v>5201</v>
-      </c>
-      <c r="B96">
-        <v>201</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96">
-        <v>2001</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97" s="4">
-        <v>5202</v>
-      </c>
-      <c r="B97">
-        <v>202</v>
-      </c>
-      <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97">
-        <v>2001</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" s="4">
-        <v>5203</v>
-      </c>
-      <c r="B98">
-        <v>203</v>
-      </c>
-      <c r="C98" t="s">
-        <v>171</v>
-      </c>
-      <c r="D98">
-        <v>2001</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99" s="4">
-        <v>5204</v>
-      </c>
-      <c r="B99">
-        <v>204</v>
-      </c>
-      <c r="C99" t="s">
-        <v>172</v>
-      </c>
-      <c r="D99">
-        <v>2001</v>
-      </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -5074,13 +5074,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
-        <v>5205</v>
+        <v>5200</v>
       </c>
       <c r="B100">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D100">
         <v>2001</v>
@@ -5112,13 +5112,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>5206</v>
+        <v>5201</v>
       </c>
       <c r="B101">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D101">
         <v>2001</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>5207</v>
+        <v>5202</v>
       </c>
       <c r="B102">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D102">
         <v>2001</v>
@@ -5188,13 +5188,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>5208</v>
+        <v>5203</v>
       </c>
       <c r="B103">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D103">
         <v>2001</v>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>5209</v>
+        <v>5204</v>
       </c>
       <c r="B104">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D104">
         <v>2001</v>
@@ -5263,26 +5263,26 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105">
-        <v>6000</v>
+      <c r="A105" s="4">
+        <v>5205</v>
       </c>
       <c r="B105">
-        <v>3003</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D105">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -5301,26 +5301,32 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106">
-        <v>6001</v>
+      <c r="A106" s="4">
+        <v>5206</v>
+      </c>
+      <c r="B106">
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D106">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
         <v>1</v>
@@ -5333,26 +5339,32 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107">
-        <v>6002</v>
+      <c r="A107" s="4">
+        <v>5207</v>
+      </c>
+      <c r="B107">
+        <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D107">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
         <v>1</v>
@@ -5365,26 +5377,32 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108">
-        <v>6003</v>
+      <c r="A108" s="4">
+        <v>5208</v>
+      </c>
+      <c r="B108">
+        <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D108">
-        <v>1005</v>
+        <v>2001</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
       <c r="J108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -5397,26 +5415,32 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109">
-        <v>6004</v>
+      <c r="A109" s="4">
+        <v>5209</v>
+      </c>
+      <c r="B109">
+        <v>209</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="D109">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
         <v>1</v>
@@ -5430,25 +5454,31 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>6005</v>
+        <v>6000</v>
+      </c>
+      <c r="B110">
+        <v>3003</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="D110">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
         <v>1</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -5462,31 +5492,25 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>7016</v>
-      </c>
-      <c r="B111">
-        <v>7016</v>
+        <v>6001</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D111">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>2</v>
-      </c>
-      <c r="H111">
         <v>1</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5500,31 +5524,25 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>7017</v>
-      </c>
-      <c r="B112">
-        <v>7017</v>
+        <v>6002</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D112">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -5538,31 +5556,25 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>7018</v>
-      </c>
-      <c r="B113">
-        <v>7018</v>
+        <v>6003</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="D113">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5576,19 +5588,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>7019</v>
-      </c>
-      <c r="B114">
-        <v>7019</v>
+        <v>6004</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D114">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -5596,11 +5605,8 @@
       <c r="G114">
         <v>1</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5614,16 +5620,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>7020</v>
-      </c>
-      <c r="B115">
-        <v>7020</v>
+        <v>6005</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D115">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5634,11 +5637,8 @@
       <c r="G115">
         <v>1</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5652,25 +5652,25 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="B116">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D116">
         <v>3003</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -5690,25 +5690,25 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="B117">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D117">
         <v>3003</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5728,13 +5728,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="B118">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D118">
         <v>3003</v>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -5766,19 +5766,19 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="B119">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D119">
         <v>3003</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -5804,13 +5804,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="B120">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D120">
         <v>3003</v>
@@ -5842,19 +5842,19 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="B121">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D121">
         <v>3003</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="B122">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D122">
         <v>3003</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5918,19 +5918,19 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="B123">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D123">
         <v>3003</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5956,19 +5956,19 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="B124">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D124">
         <v>3003</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -5994,19 +5994,19 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="B125">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="C125" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D125">
         <v>3003</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -6032,110 +6032,200 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>8001</v>
+        <v>7026</v>
+      </c>
+      <c r="B126">
+        <v>7026</v>
       </c>
       <c r="C126" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D126">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>8002</v>
+        <v>7027</v>
+      </c>
+      <c r="B127">
+        <v>7027</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D127">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>8003</v>
+        <v>7028</v>
+      </c>
+      <c r="B128">
+        <v>7028</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D128">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>8004</v>
+        <v>7029</v>
+      </c>
+      <c r="B129">
+        <v>7029</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D129">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>8005</v>
+        <v>7030</v>
+      </c>
+      <c r="B130">
+        <v>7030</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D130">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>8010</v>
+        <v>8001</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D131">
         <v>3000</v>
@@ -6147,15 +6237,15 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>8013</v>
+        <v>8002</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -6167,142 +6257,127 @@
         <v>2</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>8020</v>
+        <v>8003</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D133">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8030</v>
+        <v>8004</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D134">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134">
         <v>5</v>
       </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8031</v>
+        <v>8005</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D135">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135">
         <v>5</v>
       </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8041</v>
+        <v>8010</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D136">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>3</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8042</v>
+        <v>8013</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D137">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>3</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8043</v>
+        <v>8020</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D138">
         <v>3001</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -6310,22 +6385,22 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8044</v>
+        <v>8030</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D139">
         <v>3001</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -6333,22 +6408,22 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8045</v>
+        <v>8031</v>
       </c>
       <c r="C140" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D140">
         <v>3001</v>
       </c>
       <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
         <v>5</v>
-      </c>
-      <c r="F140">
-        <v>2</v>
-      </c>
-      <c r="G140">
-        <v>3</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -6356,59 +6431,174 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>9999</v>
+        <v>8041</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D141">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
+        <v>8042</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142">
+        <v>3001</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>8043</v>
+      </c>
+      <c r="C143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143">
+        <v>3001</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1.5</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>8044</v>
+      </c>
+      <c r="C144" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144">
+        <v>3001</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>8045</v>
+      </c>
+      <c r="C145" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145">
+        <v>3001</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>9999</v>
+      </c>
+      <c r="C146" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146">
+        <v>9999</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147">
         <v>10000</v>
       </c>
-      <c r="D142">
+      <c r="D147">
         <v>10000</v>
       </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="M142">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="M147">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1CDB9-BB73-4DA9-8C79-76DCC50B1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1F9F-F1B6-4F7C-88C1-89774D3F89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/Ingame_3d_008</t>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
   </si>
   <si>
     <t>Prefabs/Game/Scene/TransferGate</t>
@@ -886,6 +883,14 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_093</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Ingame_3d_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_086</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1017,8 +1022,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M147" totalsRowShown="0">
-  <autoFilter ref="A1:M147" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M148" totalsRowShown="0">
+  <autoFilter ref="A1:M148" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1335,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1378,19 +1383,19 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1398,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2067,7 +2072,7 @@
         <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2105,7 +2110,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2143,7 +2148,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2181,7 +2186,7 @@
         <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2219,7 +2224,7 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2257,7 +2262,7 @@
         <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2295,7 +2300,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2333,7 +2338,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2371,7 +2376,7 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <v>3000</v>
@@ -2409,7 +2414,7 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>3000</v>
@@ -2447,7 +2452,7 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30">
         <v>3000</v>
@@ -2485,7 +2490,7 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -2523,7 +2528,7 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>3000</v>
@@ -2561,7 +2566,7 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -2599,7 +2604,7 @@
         <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2637,7 +2642,7 @@
         <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2675,7 +2680,7 @@
         <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2713,7 +2718,7 @@
         <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2751,7 +2756,7 @@
         <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2789,7 +2794,7 @@
         <v>235</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2827,7 +2832,7 @@
         <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2865,7 +2870,7 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2903,7 +2908,7 @@
         <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2941,7 +2946,7 @@
         <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2979,7 +2984,7 @@
         <v>278</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44">
         <v>3003</v>
@@ -3017,7 +3022,7 @@
         <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45">
         <v>3003</v>
@@ -3055,7 +3060,7 @@
         <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46">
         <v>3001</v>
@@ -3093,7 +3098,7 @@
         <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47">
         <v>3003</v>
@@ -3131,7 +3136,7 @@
         <v>282</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48">
         <v>3001</v>
@@ -3169,7 +3174,7 @@
         <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49">
         <v>3003</v>
@@ -3207,7 +3212,7 @@
         <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50">
         <v>3003</v>
@@ -3245,7 +3250,7 @@
         <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51">
         <v>3003</v>
@@ -3280,7 +3285,7 @@
         <v>1187</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <v>3003</v>
@@ -3315,7 +3320,7 @@
         <v>1188</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>3003</v>
@@ -3350,7 +3355,7 @@
         <v>1189</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54">
         <v>3003</v>
@@ -3385,7 +3390,7 @@
         <v>1190</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D55">
         <v>3003</v>
@@ -3420,7 +3425,7 @@
         <v>1191</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D56">
         <v>3001</v>
@@ -3455,7 +3460,7 @@
         <v>1192</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57">
         <v>3003</v>
@@ -3490,7 +3495,7 @@
         <v>1193</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D58">
         <v>3003</v>
@@ -3528,7 +3533,7 @@
         <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3566,7 +3571,7 @@
         <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3604,7 +3609,7 @@
         <v>502</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3642,7 +3647,7 @@
         <v>503</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3680,7 +3685,7 @@
         <v>504</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3718,7 +3723,7 @@
         <v>505</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3756,7 +3761,7 @@
         <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3794,7 +3799,7 @@
         <v>507</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3832,7 +3837,7 @@
         <v>508</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3870,7 +3875,7 @@
         <v>509</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3908,7 +3913,7 @@
         <v>550</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -3946,7 +3951,7 @@
         <v>551</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3984,7 +3989,7 @@
         <v>552</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4022,7 +4027,7 @@
         <v>553</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -4060,7 +4065,7 @@
         <v>554</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4098,7 +4103,7 @@
         <v>555</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4136,7 +4141,7 @@
         <v>556</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4174,7 +4179,7 @@
         <v>557</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4212,7 +4217,7 @@
         <v>558</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4250,7 +4255,7 @@
         <v>559</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4288,7 +4293,7 @@
         <v>600</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -4323,7 +4328,7 @@
         <v>1999</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D80">
         <v>99</v>
@@ -4621,7 +4626,7 @@
         <v>2007</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="D88">
         <v>100</v>
@@ -4656,13 +4661,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>2100</v>
+        <v>2008</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D89">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -4671,19 +4676,19 @@
         <v>2</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4694,10 +4699,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90">
         <v>110</v>
@@ -4715,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -4732,10 +4737,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D91">
         <v>110</v>
@@ -4753,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -4770,28 +4775,28 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>5000</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="D92">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>1</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -4808,25 +4813,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -4846,22 +4851,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -4876,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -4884,19 +4889,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>2000</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4922,25 +4927,25 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D96">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -4952,33 +4957,33 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D97">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -4987,36 +4992,36 @@
         <v>1</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D98">
         <v>3001</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5028,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -5036,13 +5041,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>3001</v>
@@ -5073,23 +5078,23 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" s="4">
-        <v>5200</v>
+      <c r="A100">
+        <v>5103</v>
       </c>
       <c r="B100">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D100">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -5101,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -5112,13 +5117,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B101">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D101">
         <v>2001</v>
@@ -5150,13 +5155,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B102">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D102">
         <v>2001</v>
@@ -5188,13 +5193,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B103">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D103">
         <v>2001</v>
@@ -5226,13 +5231,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B104">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D104">
         <v>2001</v>
@@ -5264,13 +5269,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B105">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D105">
         <v>2001</v>
@@ -5302,13 +5307,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B106">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D106">
         <v>2001</v>
@@ -5340,13 +5345,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B107">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D107">
         <v>2001</v>
@@ -5378,13 +5383,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B108">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D108">
         <v>2001</v>
@@ -5416,13 +5421,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B109">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D109">
         <v>2001</v>
@@ -5453,26 +5458,26 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>6000</v>
+      <c r="A110" s="4">
+        <v>5209</v>
       </c>
       <c r="B110">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="D110">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -5492,25 +5497,31 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B111">
+        <v>3003</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D111">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
         <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -5524,13 +5535,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D112">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5556,13 +5567,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D113">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5588,13 +5599,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D114">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5620,13 +5631,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D115">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5652,31 +5663,25 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>7016</v>
-      </c>
-      <c r="B116">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D116">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116">
         <v>1</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>1</v>
@@ -5690,13 +5695,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B117">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D117">
         <v>3003</v>
@@ -5728,25 +5733,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B118">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D118">
         <v>3003</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -5766,22 +5771,22 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B119">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C119" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D119">
         <v>3003</v>
       </c>
       <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
         <v>3</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -5804,19 +5809,19 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B120">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C120" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D120">
         <v>3003</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -5842,13 +5847,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B121">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C121" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D121">
         <v>3003</v>
@@ -5880,13 +5885,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B122">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D122">
         <v>3003</v>
@@ -5918,13 +5923,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B123">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D123">
         <v>3003</v>
@@ -5956,13 +5961,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B124">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124">
         <v>3003</v>
@@ -5994,13 +5999,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B125">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D125">
         <v>3003</v>
@@ -6032,19 +6037,19 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B126">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D126">
         <v>3003</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -6070,13 +6075,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B127">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127">
         <v>3003</v>
@@ -6108,13 +6113,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B128">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D128">
         <v>3003</v>
@@ -6146,13 +6151,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B129">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D129">
         <v>3003</v>
@@ -6184,13 +6189,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B130">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D130">
         <v>3003</v>
@@ -6222,30 +6227,48 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>8001</v>
+        <v>7030</v>
+      </c>
+      <c r="B131">
+        <v>7030</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D131">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D132">
         <v>3000</v>
@@ -6262,10 +6285,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D133">
         <v>3000</v>
@@ -6282,10 +6305,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D134">
         <v>3000</v>
@@ -6302,10 +6325,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D135">
         <v>3000</v>
@@ -6322,10 +6345,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D136">
         <v>3000</v>
@@ -6337,15 +6360,15 @@
         <v>2</v>
       </c>
       <c r="G136">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C137" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D137">
         <v>3000</v>
@@ -6362,33 +6385,30 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D138">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D139">
         <v>3001</v>
@@ -6400,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -6408,10 +6428,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D140">
         <v>3001</v>
@@ -6431,22 +6451,22 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C141" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D141">
         <v>3001</v>
       </c>
       <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
         <v>5</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>3</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -6454,10 +6474,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D142">
         <v>3001</v>
@@ -6477,22 +6497,22 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C143" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D143">
         <v>3001</v>
       </c>
       <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
         <v>3</v>
-      </c>
-      <c r="F143">
-        <v>2</v>
-      </c>
-      <c r="G143">
-        <v>1.5</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -6500,10 +6520,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D144">
         <v>3001</v>
@@ -6512,10 +6532,10 @@
         <v>3</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -6523,19 +6543,19 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D145">
         <v>3001</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -6546,59 +6566,82 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>9999</v>
+        <v>8045</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="D146">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
+        <v>9999</v>
+      </c>
+      <c r="C147" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147">
+        <v>9999</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148">
         <v>10000</v>
       </c>
-      <c r="D147">
+      <c r="D148">
         <v>10000</v>
       </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="M147">
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="M148">
         <v>1</v>
       </c>
     </row>
@@ -6627,7 +6670,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -6637,7 +6680,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -6647,7 +6690,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -6657,7 +6700,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -6667,27 +6710,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -6697,57 +6740,57 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -6785,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -6793,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -6801,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -6809,7 +6852,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -6822,7 +6865,7 @@
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -6830,7 +6873,7 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -6838,7 +6881,7 @@
         <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -6846,7 +6889,7 @@
         <v>1000</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -6854,7 +6897,7 @@
         <v>1001</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -6862,7 +6905,7 @@
         <v>1002</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -6870,7 +6913,7 @@
         <v>1003</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -6878,7 +6921,7 @@
         <v>1004</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -6886,7 +6929,7 @@
         <v>1005</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -6894,7 +6937,7 @@
         <v>1006</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -6902,7 +6945,7 @@
         <v>1007</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -6910,7 +6953,7 @@
         <v>2000</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -6918,7 +6961,7 @@
         <v>2100</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -6926,7 +6969,7 @@
         <v>2101</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -6934,7 +6977,7 @@
         <v>3000</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -6942,7 +6985,7 @@
         <v>3001</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -6950,7 +6993,7 @@
         <v>3002</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -6958,7 +7001,7 @@
         <v>3003</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -6966,7 +7009,7 @@
         <v>9999</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B1F9F-F1B6-4F7C-88C1-89774D3F89C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276AFAE-819B-46E4-AA9F-A550BC524D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1395" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1343,10 +1343,10 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3284,6 +3284,9 @@
       <c r="A52">
         <v>1187</v>
       </c>
+      <c r="B52">
+        <v>287</v>
+      </c>
       <c r="C52" t="s">
         <v>189</v>
       </c>
@@ -3319,6 +3322,9 @@
       <c r="A53">
         <v>1188</v>
       </c>
+      <c r="B53">
+        <v>288</v>
+      </c>
       <c r="C53" t="s">
         <v>190</v>
       </c>
@@ -3354,6 +3360,9 @@
       <c r="A54">
         <v>1189</v>
       </c>
+      <c r="B54">
+        <v>289</v>
+      </c>
       <c r="C54" t="s">
         <v>191</v>
       </c>
@@ -3389,6 +3398,9 @@
       <c r="A55">
         <v>1190</v>
       </c>
+      <c r="B55">
+        <v>290</v>
+      </c>
       <c r="C55" t="s">
         <v>192</v>
       </c>
@@ -3424,6 +3436,9 @@
       <c r="A56">
         <v>1191</v>
       </c>
+      <c r="B56">
+        <v>291</v>
+      </c>
       <c r="C56" t="s">
         <v>193</v>
       </c>
@@ -3459,6 +3474,9 @@
       <c r="A57">
         <v>1192</v>
       </c>
+      <c r="B57">
+        <v>292</v>
+      </c>
       <c r="C57" t="s">
         <v>194</v>
       </c>
@@ -3493,6 +3511,9 @@
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1193</v>
+      </c>
+      <c r="B58">
+        <v>293</v>
       </c>
       <c r="C58" t="s">
         <v>195</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276AFAE-819B-46E4-AA9F-A550BC524D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655329D2-F536-477A-ADD3-4B582EEB49A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -890,6 +890,17 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/Blast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1022,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M148" totalsRowShown="0">
-  <autoFilter ref="A1:M148" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M149" totalsRowShown="0">
+  <autoFilter ref="A1:M149" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1340,13 +1351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="O135" sqref="O135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6610,13 +6621,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>9999</v>
+        <v>9000</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D147">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6626,43 +6637,63 @@
       </c>
       <c r="G147">
         <v>1</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
+        <v>9999</v>
+      </c>
+      <c r="C148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148">
+        <v>9999</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149">
         <v>10000</v>
       </c>
-      <c r="D148">
+      <c r="D149">
         <v>10000</v>
       </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="M148">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="M149">
         <v>1</v>
       </c>
     </row>
@@ -6823,10 +6854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7027,9 +7058,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
+        <v>4000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>9999</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655329D2-F536-477A-ADD3-4B582EEB49A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6FF0-C6DB-431B-94EA-616576B43ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1033,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M149" totalsRowShown="0">
-  <autoFilter ref="A1:M149" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M150" totalsRowShown="0">
+  <autoFilter ref="A1:M150" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1351,13 +1351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O135" sqref="O135"/>
+      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6641,13 +6641,13 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D148">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6657,43 +6657,63 @@
       </c>
       <c r="G148">
         <v>1</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
+        <v>9999</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149">
+        <v>9999</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150">
         <v>10000</v>
       </c>
-      <c r="D149">
+      <c r="D150">
         <v>10000</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="M149">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="M150">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD6FF0-C6DB-431B-94EA-616576B43ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA9078-13EC-4673-A2F3-F16ED4989B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="201">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -900,6 +898,13 @@
     <t>爆弾</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畑</t>
+    <rPh sb="0" eb="1">
+      <t>ハタケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1033,8 +1038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M150" totalsRowShown="0">
-  <autoFilter ref="A1:M150" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M151" totalsRowShown="0">
+  <autoFilter ref="A1:M151" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1351,13 +1356,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K148" sqref="K148"/>
+      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4845,16 +4850,16 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4866,42 +4871,42 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -4921,22 +4926,22 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -4951,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -4959,19 +4964,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96">
         <v>2000</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -4997,25 +5002,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D97">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -5027,33 +5032,33 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D98">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5062,36 +5067,36 @@
         <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99">
         <v>3001</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5103,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -5111,13 +5116,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D100">
         <v>3001</v>
@@ -5148,23 +5153,23 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" s="4">
-        <v>5200</v>
+      <c r="A101">
+        <v>5103</v>
       </c>
       <c r="B101">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D101">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5176,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -5187,13 +5192,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B102">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D102">
         <v>2001</v>
@@ -5225,13 +5230,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B103">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D103">
         <v>2001</v>
@@ -5263,13 +5268,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B104">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D104">
         <v>2001</v>
@@ -5301,13 +5306,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B105">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D105">
         <v>2001</v>
@@ -5339,13 +5344,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B106">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106">
         <v>2001</v>
@@ -5377,13 +5382,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B107">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D107">
         <v>2001</v>
@@ -5415,13 +5420,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B108">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D108">
         <v>2001</v>
@@ -5453,13 +5458,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B109">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109">
         <v>2001</v>
@@ -5491,13 +5496,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B110">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D110">
         <v>2001</v>
@@ -5528,26 +5533,26 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111">
-        <v>6000</v>
+      <c r="A111" s="4">
+        <v>5209</v>
       </c>
       <c r="B111">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D111">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -5567,25 +5572,31 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B112">
+        <v>3003</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D112">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
       <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
         <v>1</v>
@@ -5599,13 +5610,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5631,13 +5642,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5663,13 +5674,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D115">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5695,13 +5706,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D116">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5727,31 +5738,25 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>7016</v>
-      </c>
-      <c r="B117">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D117">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117">
         <v>1</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>1</v>
@@ -5765,13 +5770,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B118">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118">
         <v>3003</v>
@@ -5803,25 +5808,25 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B119">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>3003</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5841,22 +5846,22 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B120">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D120">
         <v>3003</v>
       </c>
       <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>3</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -5879,19 +5884,19 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B121">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D121">
         <v>3003</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -5917,13 +5922,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B122">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D122">
         <v>3003</v>
@@ -5955,13 +5960,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B123">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D123">
         <v>3003</v>
@@ -5993,13 +5998,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B124">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124">
         <v>3003</v>
@@ -6031,13 +6036,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B125">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D125">
         <v>3003</v>
@@ -6069,13 +6074,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B126">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D126">
         <v>3003</v>
@@ -6107,19 +6112,19 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B127">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D127">
         <v>3003</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -6145,13 +6150,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B128">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D128">
         <v>3003</v>
@@ -6183,13 +6188,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B129">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D129">
         <v>3003</v>
@@ -6221,13 +6226,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B130">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D130">
         <v>3003</v>
@@ -6259,13 +6264,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B131">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D131">
         <v>3003</v>
@@ -6297,30 +6302,48 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>8001</v>
+        <v>7030</v>
+      </c>
+      <c r="B132">
+        <v>7030</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D132">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D133">
         <v>3000</v>
@@ -6337,10 +6360,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D134">
         <v>3000</v>
@@ -6357,10 +6380,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D135">
         <v>3000</v>
@@ -6377,10 +6400,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D136">
         <v>3000</v>
@@ -6397,10 +6420,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D137">
         <v>3000</v>
@@ -6412,15 +6435,15 @@
         <v>2</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D138">
         <v>3000</v>
@@ -6437,33 +6460,30 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D139">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D140">
         <v>3001</v>
@@ -6475,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -6483,10 +6503,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141">
         <v>3001</v>
@@ -6506,22 +6526,22 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D142">
         <v>3001</v>
       </c>
       <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
         <v>5</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>3</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -6529,10 +6549,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D143">
         <v>3001</v>
@@ -6552,22 +6572,22 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D144">
         <v>3001</v>
       </c>
       <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
         <v>3</v>
-      </c>
-      <c r="F144">
-        <v>2</v>
-      </c>
-      <c r="G144">
-        <v>1.5</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -6575,10 +6595,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D145">
         <v>3001</v>
@@ -6587,10 +6607,10 @@
         <v>3</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K145">
         <v>1</v>
@@ -6598,19 +6618,19 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C146" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D146">
         <v>3001</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -6621,27 +6641,30 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>9000</v>
+        <v>8045</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D147">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="K147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C148" t="s">
         <v>198</v>
@@ -6661,13 +6684,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D149">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6677,43 +6700,63 @@
       </c>
       <c r="G149">
         <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
+        <v>9999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150">
+        <v>9999</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151">
         <v>10000</v>
       </c>
-      <c r="D150">
+      <c r="D151">
         <v>10000</v>
       </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="M150">
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="M151">
         <v>1</v>
       </c>
     </row>
@@ -6876,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6931,6 +6974,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CA9078-13EC-4673-A2F3-F16ED4989B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524F723-C224-401F-BC60-1C7B07206E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-360" yWindow="3150" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="202">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -906,6 +906,10 @@
     <rPh sb="0" eb="1">
       <t>ハタケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_094</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1038,8 +1042,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M151" totalsRowShown="0">
-  <autoFilter ref="A1:M151" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M152" totalsRowShown="0">
+  <autoFilter ref="A1:M152" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1356,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3564,16 +3568,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1500</v>
-      </c>
-      <c r="B59">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3585,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3602,13 +3603,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B60">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3640,13 +3641,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B61">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3678,13 +3679,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B62">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3716,13 +3717,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B63">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3754,13 +3755,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B64">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3792,13 +3793,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B65">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3830,13 +3831,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B66">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3868,13 +3869,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B67">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3906,13 +3907,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B68">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3944,28 +3945,28 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1550</v>
+        <v>1509</v>
       </c>
       <c r="B69">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3982,13 +3983,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B70">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4020,13 +4021,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B71">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4058,13 +4059,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B72">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -4096,13 +4097,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B73">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4134,13 +4135,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B74">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4172,13 +4173,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B75">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4210,13 +4211,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B76">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4248,13 +4249,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B77">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4286,13 +4287,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B78">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4324,34 +4325,34 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1600</v>
+        <v>1559</v>
       </c>
       <c r="B79">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -4362,13 +4363,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1999</v>
+        <v>1600</v>
+      </c>
+      <c r="B80">
+        <v>600</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4379,28 +4383,31 @@
       <c r="G80">
         <v>1</v>
       </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4409,33 +4416,27 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>5</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>100</v>
@@ -4450,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -4470,10 +4471,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83">
         <v>100</v>
@@ -4488,10 +4489,10 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -4508,28 +4509,28 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84">
         <v>100</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -4546,10 +4547,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85">
         <v>100</v>
@@ -4567,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="I85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -4584,10 +4585,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>100</v>
@@ -4605,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -4622,10 +4623,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87">
         <v>100</v>
@@ -4643,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -4660,10 +4661,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="D88">
         <v>100</v>
@@ -4678,10 +4679,10 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -4698,10 +4699,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D89">
         <v>100</v>
@@ -4716,10 +4717,10 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -4736,13 +4737,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>2100</v>
+        <v>2008</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="D90">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4751,19 +4752,19 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -4774,10 +4775,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D91">
         <v>110</v>
@@ -4795,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -4812,10 +4813,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92">
         <v>110</v>
@@ -4833,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -4850,54 +4851,54 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3000</v>
-      </c>
-      <c r="B93">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4909,42 +4910,42 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -4964,22 +4965,22 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -4994,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -5002,19 +5003,19 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97">
         <v>2000</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -5040,25 +5041,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D98">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -5070,33 +5071,33 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D99">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5105,36 +5106,36 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100">
         <v>3001</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5146,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -5154,13 +5155,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D101">
         <v>3001</v>
@@ -5191,23 +5192,23 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102" s="4">
-        <v>5200</v>
+      <c r="A102">
+        <v>5103</v>
       </c>
       <c r="B102">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D102">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -5219,10 +5220,10 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -5230,13 +5231,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B103">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D103">
         <v>2001</v>
@@ -5268,13 +5269,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B104">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D104">
         <v>2001</v>
@@ -5306,13 +5307,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B105">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D105">
         <v>2001</v>
@@ -5344,13 +5345,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B106">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D106">
         <v>2001</v>
@@ -5382,13 +5383,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B107">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107">
         <v>2001</v>
@@ -5420,13 +5421,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B108">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D108">
         <v>2001</v>
@@ -5458,13 +5459,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B109">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D109">
         <v>2001</v>
@@ -5496,13 +5497,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B110">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110">
         <v>2001</v>
@@ -5534,13 +5535,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B111">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D111">
         <v>2001</v>
@@ -5571,26 +5572,26 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112">
-        <v>6000</v>
+      <c r="A112" s="4">
+        <v>5209</v>
       </c>
       <c r="B112">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D112">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -5610,25 +5611,31 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B113">
+        <v>3003</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D113">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113">
         <v>1</v>
       </c>
       <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
         <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>1</v>
@@ -5642,13 +5649,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5674,13 +5681,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D115">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5706,13 +5713,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D116">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5738,13 +5745,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D117">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5770,31 +5777,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>7016</v>
-      </c>
-      <c r="B118">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C118" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D118">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118">
         <v>1</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -5808,13 +5809,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B119">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119">
         <v>3003</v>
@@ -5846,25 +5847,25 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B120">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D120">
         <v>3003</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -5884,22 +5885,22 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B121">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D121">
         <v>3003</v>
       </c>
       <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
         <v>3</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -5922,19 +5923,19 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B122">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D122">
         <v>3003</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -5960,13 +5961,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B123">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D123">
         <v>3003</v>
@@ -5998,13 +5999,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B124">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124">
         <v>3003</v>
@@ -6036,13 +6037,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B125">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D125">
         <v>3003</v>
@@ -6074,13 +6075,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B126">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D126">
         <v>3003</v>
@@ -6112,13 +6113,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B127">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D127">
         <v>3003</v>
@@ -6150,19 +6151,19 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B128">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128">
         <v>3003</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -6188,13 +6189,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B129">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D129">
         <v>3003</v>
@@ -6226,13 +6227,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B130">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D130">
         <v>3003</v>
@@ -6264,13 +6265,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B131">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D131">
         <v>3003</v>
@@ -6302,13 +6303,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B132">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D132">
         <v>3003</v>
@@ -6340,30 +6341,48 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>8001</v>
+        <v>7030</v>
+      </c>
+      <c r="B133">
+        <v>7030</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D133">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134">
         <v>3000</v>
@@ -6380,10 +6399,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135">
         <v>3000</v>
@@ -6400,10 +6419,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D136">
         <v>3000</v>
@@ -6420,10 +6439,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137">
         <v>3000</v>
@@ -6440,10 +6459,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138">
         <v>3000</v>
@@ -6455,15 +6474,15 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139">
         <v>3000</v>
@@ -6480,33 +6499,30 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141">
         <v>3001</v>
@@ -6518,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -6526,10 +6542,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142">
         <v>3001</v>
@@ -6549,22 +6565,22 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D143">
         <v>3001</v>
       </c>
       <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
         <v>5</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>3</v>
       </c>
       <c r="K143">
         <v>1</v>
@@ -6572,10 +6588,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D144">
         <v>3001</v>
@@ -6595,22 +6611,22 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D145">
         <v>3001</v>
       </c>
       <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
         <v>3</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
-      </c>
-      <c r="G145">
-        <v>1.5</v>
       </c>
       <c r="K145">
         <v>1</v>
@@ -6618,10 +6634,10 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D146">
         <v>3001</v>
@@ -6630,10 +6646,10 @@
         <v>3</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -6641,19 +6657,19 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C147" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D147">
         <v>3001</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -6664,27 +6680,30 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>9000</v>
+        <v>8045</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D148">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="K148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C149" t="s">
         <v>198</v>
@@ -6704,13 +6723,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D150">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6720,43 +6739,63 @@
       </c>
       <c r="G150">
         <v>1</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
+        <v>9999</v>
+      </c>
+      <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151">
+        <v>9999</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152">
         <v>10000</v>
       </c>
-      <c r="D151">
+      <c r="D152">
         <v>10000</v>
       </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="M151">
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="M152">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524F723-C224-401F-BC60-1C7B07206E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18328CC-9D03-4575-BD26-0EEED569A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="3150" windowWidth="21690" windowHeight="12525" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1363,10 +1363,10 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4898,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94">
         <v>1</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18328CC-9D03-4575-BD26-0EEED569A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F8F94-513D-4C96-B69D-8E512032CE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -910,6 +910,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_094</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_195</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,8 +1046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M152" totalsRowShown="0">
-  <autoFilter ref="A1:M152" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M153" totalsRowShown="0">
+  <autoFilter ref="A1:M153" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1360,13 +1364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E95" sqref="E95"/>
+      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4775,34 +4779,34 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>2100</v>
+        <v>2009</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="D91">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -4813,10 +4817,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92">
         <v>110</v>
@@ -4834,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -4851,10 +4855,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D93">
         <v>110</v>
@@ -4872,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -4889,54 +4893,54 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3000</v>
-      </c>
-      <c r="B94">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
       </c>
       <c r="J94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4948,42 +4952,42 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -5003,22 +5007,22 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -5033,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5041,19 +5045,19 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98">
         <v>2000</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5079,25 +5083,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D99">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -5109,33 +5113,33 @@
         <v>1</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D100">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5144,36 +5148,36 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101">
         <v>3001</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5185,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -5193,13 +5197,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D102">
         <v>3001</v>
@@ -5230,23 +5234,23 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" s="4">
-        <v>5200</v>
+      <c r="A103">
+        <v>5103</v>
       </c>
       <c r="B103">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D103">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -5258,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -5269,13 +5273,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B104">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104">
         <v>2001</v>
@@ -5307,13 +5311,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B105">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D105">
         <v>2001</v>
@@ -5345,13 +5349,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B106">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106">
         <v>2001</v>
@@ -5383,13 +5387,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B107">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107">
         <v>2001</v>
@@ -5421,13 +5425,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B108">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108">
         <v>2001</v>
@@ -5459,13 +5463,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B109">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D109">
         <v>2001</v>
@@ -5497,13 +5501,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B110">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D110">
         <v>2001</v>
@@ -5535,13 +5539,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B111">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111">
         <v>2001</v>
@@ -5573,13 +5577,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B112">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112">
         <v>2001</v>
@@ -5610,26 +5614,26 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113">
-        <v>6000</v>
+      <c r="A113" s="4">
+        <v>5209</v>
       </c>
       <c r="B113">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D113">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -5649,25 +5653,31 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B114">
+        <v>3003</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D114">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>1</v>
@@ -5681,13 +5691,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D115">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5713,13 +5723,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5745,13 +5755,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D117">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5777,13 +5787,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D118">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5809,31 +5819,25 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>7016</v>
-      </c>
-      <c r="B119">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D119">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>2</v>
-      </c>
-      <c r="H119">
         <v>1</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>1</v>
@@ -5847,13 +5851,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B120">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120">
         <v>3003</v>
@@ -5885,25 +5889,25 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B121">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C121" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D121">
         <v>3003</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -5923,22 +5927,22 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B122">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D122">
         <v>3003</v>
       </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>3</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -5961,19 +5965,19 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B123">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D123">
         <v>3003</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -5999,13 +6003,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B124">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D124">
         <v>3003</v>
@@ -6037,13 +6041,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B125">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D125">
         <v>3003</v>
@@ -6075,13 +6079,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B126">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126">
         <v>3003</v>
@@ -6113,13 +6117,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B127">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D127">
         <v>3003</v>
@@ -6151,13 +6155,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B128">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D128">
         <v>3003</v>
@@ -6189,19 +6193,19 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B129">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D129">
         <v>3003</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -6227,13 +6231,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B130">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D130">
         <v>3003</v>
@@ -6265,13 +6269,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B131">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D131">
         <v>3003</v>
@@ -6303,13 +6307,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B132">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D132">
         <v>3003</v>
@@ -6341,13 +6345,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B133">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D133">
         <v>3003</v>
@@ -6379,30 +6383,48 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>8001</v>
+        <v>7030</v>
+      </c>
+      <c r="B134">
+        <v>7030</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D134">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D135">
         <v>3000</v>
@@ -6419,10 +6441,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D136">
         <v>3000</v>
@@ -6439,10 +6461,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D137">
         <v>3000</v>
@@ -6459,10 +6481,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138">
         <v>3000</v>
@@ -6479,10 +6501,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D139">
         <v>3000</v>
@@ -6494,15 +6516,15 @@
         <v>2</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D140">
         <v>3000</v>
@@ -6519,33 +6541,30 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D141">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D142">
         <v>3001</v>
@@ -6557,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -6565,10 +6584,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143">
         <v>3001</v>
@@ -6588,22 +6607,22 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C144" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D144">
         <v>3001</v>
       </c>
       <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
         <v>5</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>3</v>
       </c>
       <c r="K144">
         <v>1</v>
@@ -6611,10 +6630,10 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D145">
         <v>3001</v>
@@ -6634,22 +6653,22 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D146">
         <v>3001</v>
       </c>
       <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
         <v>3</v>
-      </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-      <c r="G146">
-        <v>1.5</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -6657,10 +6676,10 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D147">
         <v>3001</v>
@@ -6669,10 +6688,10 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K147">
         <v>1</v>
@@ -6680,19 +6699,19 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D148">
         <v>3001</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -6703,27 +6722,30 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>9000</v>
+        <v>8045</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="D149">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="K149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C150" t="s">
         <v>198</v>
@@ -6743,13 +6765,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D151">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6759,43 +6781,63 @@
       </c>
       <c r="G151">
         <v>1</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
+        <v>9999</v>
+      </c>
+      <c r="C152" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152">
+        <v>9999</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153">
         <v>10000</v>
       </c>
-      <c r="D152">
+      <c r="D153">
         <v>10000</v>
       </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="M152">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="M153">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F8F94-513D-4C96-B69D-8E512032CE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A060CDD-3DA8-43B2-9A11-FDCA517ACE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="204">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -914,6 +914,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_195</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_040</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1370,7 +1374,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4937,7 +4941,7 @@
         <v>700</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D95">
         <v>6</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A060CDD-3DA8-43B2-9A11-FDCA517ACE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AEFDBC-92AB-453C-8F69-A58BE632045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="209">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -891,10 +891,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Blast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>爆弾</t>
     <rPh sb="0" eb="2">
       <t>バクダン</t>
@@ -919,6 +915,25 @@
   <si>
     <t>Prefabs/Game/Block/block_3d_040</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_189</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_190</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_191</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_192</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_193</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_194</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1065,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M153" totalsRowShown="0">
-  <autoFilter ref="A1:M153" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M157" totalsRowShown="0">
+  <autoFilter ref="A1:M157" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1368,13 +1383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomRight" activeCell="O150" sqref="O150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3579,7 +3594,7 @@
         <v>1200</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -4786,7 +4801,7 @@
         <v>2009</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91">
         <v>100</v>
@@ -4941,7 +4956,7 @@
         <v>700</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95">
         <v>6</v>
@@ -6749,10 +6764,10 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D150">
         <v>4000</v>
@@ -6769,10 +6784,10 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9001</v>
+        <v>9002</v>
       </c>
       <c r="C151" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D151">
         <v>4000</v>
@@ -6789,13 +6804,13 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>9999</v>
+        <v>9003</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D152">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6805,43 +6820,123 @@
       </c>
       <c r="G152">
         <v>1</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
+        <v>9004</v>
+      </c>
+      <c r="C153" t="s">
+        <v>206</v>
+      </c>
+      <c r="D153">
+        <v>4000</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>9005</v>
+      </c>
+      <c r="C154" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154">
+        <v>4000</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>9006</v>
+      </c>
+      <c r="C155" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155">
+        <v>4000</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>9999</v>
+      </c>
+      <c r="C156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156">
+        <v>9999</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157">
         <v>10000</v>
       </c>
-      <c r="D153">
+      <c r="D157">
         <v>10000</v>
       </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="M153">
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="M157">
         <v>1</v>
       </c>
     </row>
@@ -7060,7 +7155,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -7212,7 +7307,7 @@
         <v>4000</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AEFDBC-92AB-453C-8F69-A58BE632045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465B685-60AB-4DAF-8BEE-8055583006C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="211">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -934,6 +934,20 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_194</t>
+  </si>
+  <si>
+    <t>種</t>
+    <rPh sb="0" eb="1">
+      <t>タネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向きあるブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1386,10 +1400,10 @@
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O150" sqref="O150"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3030,7 +3044,7 @@
         <v>179</v>
       </c>
       <c r="D44">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3068,7 +3082,7 @@
         <v>180</v>
       </c>
       <c r="D45">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3106,7 +3120,7 @@
         <v>181</v>
       </c>
       <c r="D46">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3144,7 +3158,7 @@
         <v>182</v>
       </c>
       <c r="D47">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3182,7 +3196,7 @@
         <v>183</v>
       </c>
       <c r="D48">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3220,7 +3234,7 @@
         <v>184</v>
       </c>
       <c r="D49">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3258,7 +3272,7 @@
         <v>185</v>
       </c>
       <c r="D50">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3296,7 +3310,7 @@
         <v>186</v>
       </c>
       <c r="D51">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3334,7 +3348,7 @@
         <v>189</v>
       </c>
       <c r="D52">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3372,7 +3386,7 @@
         <v>190</v>
       </c>
       <c r="D53">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3410,7 +3424,7 @@
         <v>191</v>
       </c>
       <c r="D54">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3448,7 +3462,7 @@
         <v>192</v>
       </c>
       <c r="D55">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3486,7 +3500,7 @@
         <v>193</v>
       </c>
       <c r="D56">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3524,7 +3538,7 @@
         <v>194</v>
       </c>
       <c r="D57">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3562,7 +3576,7 @@
         <v>195</v>
       </c>
       <c r="D58">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -7097,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7160,161 +7174,177 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2000</v>
+        <v>1006</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>2100</v>
+        <v>1007</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2101</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>3001</v>
+        <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>4000</v>
+        <v>3002</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
+        <v>3003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>9999</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465B685-60AB-4DAF-8BEE-8055583006C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C770E50D-7EC7-4112-A5C6-49E96B1B9C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="306">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -905,10 +905,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/object_3d_094</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Scene/object_3d_195</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -947,6 +943,295 @@
     <rPh sb="0" eb="1">
       <t>ム</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_094</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_095</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_096</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_097</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_098</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_099</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_100</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_101</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_102</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_103</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_104</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_105</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_106</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_107</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_108</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_109</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_110</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_111</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_112</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_113</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_114</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_115</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_116</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_117</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_118</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_119</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_120</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_121</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_122</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_123</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_124</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_125</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_126</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_127</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_128</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_129</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_130</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_131</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_132</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_133</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_134</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_135</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_136</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_137</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_138</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_139</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_140</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_141</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_142</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_143</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_144</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_145</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_146</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_147</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_148</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_149</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_150</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_151</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_152</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_153</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_154</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_155</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_156</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_157</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_158</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_159</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_160</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_161</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_162</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_163</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_164</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_165</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_166</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_167</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_168</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_169</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_170</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_171</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_172</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_173</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_174</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_175</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_176</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_177</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_178</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_179</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_180</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_181</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_182</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_183</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_184</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_185</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_186</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_187</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_188</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_300</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1079,8 +1364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M157" totalsRowShown="0">
-  <autoFilter ref="A1:M157" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M252" totalsRowShown="0">
+  <autoFilter ref="A1:M252" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1397,13 +1682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3605,13 +3890,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1200</v>
+        <v>1194</v>
+      </c>
+      <c r="B59">
+        <v>294</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3623,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3632,24 +3920,24 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1500</v>
+        <v>1195</v>
       </c>
       <c r="B60">
-        <v>500</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3661,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3670,24 +3958,24 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1501</v>
+        <v>1196</v>
       </c>
       <c r="B61">
-        <v>501</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3699,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3708,24 +3996,24 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1502</v>
+        <v>1197</v>
       </c>
       <c r="B62">
-        <v>502</v>
+        <v>297</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3737,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -3746,24 +4034,24 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1503</v>
+        <v>1198</v>
       </c>
       <c r="B63">
-        <v>503</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3775,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3784,24 +4072,24 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1504</v>
+        <v>1199</v>
       </c>
       <c r="B64">
-        <v>504</v>
+        <v>299</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3813,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -3822,24 +4110,24 @@
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1505</v>
+        <v>1200</v>
       </c>
       <c r="B65">
-        <v>505</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3851,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3860,24 +4148,24 @@
         <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1506</v>
+        <v>1201</v>
       </c>
       <c r="B66">
-        <v>506</v>
+        <v>301</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3889,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3898,24 +4186,24 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1507</v>
+        <v>1202</v>
       </c>
       <c r="B67">
-        <v>507</v>
+        <v>302</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3927,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3936,24 +4224,24 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1508</v>
+        <v>1203</v>
       </c>
       <c r="B68">
-        <v>508</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3965,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3974,24 +4262,24 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1509</v>
+        <v>1204</v>
       </c>
       <c r="B69">
-        <v>509</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4003,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -4012,36 +4300,36 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1550</v>
+        <v>1205</v>
       </c>
       <c r="B70">
-        <v>550</v>
+        <v>305</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -4050,36 +4338,36 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1551</v>
+        <v>1206</v>
       </c>
       <c r="B71">
-        <v>551</v>
+        <v>306</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -4088,36 +4376,36 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1552</v>
+        <v>1207</v>
       </c>
       <c r="B72">
-        <v>552</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -4126,36 +4414,36 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1553</v>
+        <v>1208</v>
       </c>
       <c r="B73">
-        <v>553</v>
+        <v>308</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4164,36 +4452,36 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1554</v>
+        <v>1209</v>
       </c>
       <c r="B74">
-        <v>554</v>
+        <v>309</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -4202,36 +4490,36 @@
         <v>1</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1555</v>
+        <v>1210</v>
       </c>
       <c r="B75">
-        <v>555</v>
+        <v>310</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -4240,36 +4528,36 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1556</v>
+        <v>1211</v>
       </c>
       <c r="B76">
-        <v>556</v>
+        <v>311</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4278,36 +4566,36 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1557</v>
+        <v>1212</v>
       </c>
       <c r="B77">
-        <v>557</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -4316,36 +4604,36 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1558</v>
+        <v>1213</v>
       </c>
       <c r="B78">
-        <v>558</v>
+        <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4354,36 +4642,36 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1559</v>
+        <v>1214</v>
       </c>
       <c r="B79">
-        <v>559</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4392,24 +4680,24 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1600</v>
+        <v>1215</v>
       </c>
       <c r="B80">
-        <v>600</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4421,30 +4709,33 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1999</v>
+        <v>1216</v>
+      </c>
+      <c r="B81">
+        <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="D81">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4455,11 +4746,14 @@
       <c r="G81">
         <v>1</v>
       </c>
+      <c r="H81">
+        <v>0.7</v>
+      </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4470,13 +4764,16 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>2000</v>
+        <v>1217</v>
+      </c>
+      <c r="B82">
+        <v>317</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="D82">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4485,36 +4782,36 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>2001</v>
+        <v>1218</v>
+      </c>
+      <c r="B83">
+        <v>318</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="D83">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4523,36 +4820,36 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1.5</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>2002</v>
+        <v>1219</v>
+      </c>
+      <c r="B84">
+        <v>319</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="D84">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4561,264 +4858,264 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0.8</v>
-      </c>
-      <c r="I84">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>2003</v>
+        <v>1220</v>
+      </c>
+      <c r="B85">
+        <v>320</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J85">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>2004</v>
+        <v>1221</v>
+      </c>
+      <c r="B86">
+        <v>321</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
-      </c>
-      <c r="I86">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>2005</v>
+        <v>1222</v>
+      </c>
+      <c r="B87">
+        <v>322</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="D87">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="J87">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>2006</v>
+        <v>1223</v>
+      </c>
+      <c r="B88">
+        <v>323</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>2</v>
-      </c>
-      <c r="I88">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="J88">
         <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>2007</v>
+        <v>1224</v>
+      </c>
+      <c r="B89">
+        <v>324</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>4</v>
-      </c>
-      <c r="I89">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>2008</v>
+        <v>1225</v>
+      </c>
+      <c r="B90">
+        <v>325</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>2</v>
-      </c>
-      <c r="I90">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>2009</v>
+        <v>1226</v>
+      </c>
+      <c r="B91">
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D91">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4830,48 +5127,45 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="I91">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>2100</v>
+        <v>1227</v>
+      </c>
+      <c r="B92">
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="D92">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -4880,36 +5174,36 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>2101</v>
+        <v>1228</v>
+      </c>
+      <c r="B93">
+        <v>328</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="D93">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -4918,36 +5212,36 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>2102</v>
+        <v>1229</v>
+      </c>
+      <c r="B94">
+        <v>329</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="D94">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -4956,24 +5250,24 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3000</v>
+        <v>1230</v>
       </c>
       <c r="B95">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4991,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5002,16 +5296,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>5000</v>
+        <v>1231</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="D96">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5023,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5032,36 +5326,36 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>5001</v>
+        <v>1232</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="D97">
-        <v>1001</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5070,24 +5364,24 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5002</v>
+        <v>1233</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="D98">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5096,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5111,33 +5405,33 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>5003</v>
+        <v>1234</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="D99">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5149,21 +5443,21 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>5100</v>
+        <v>1235</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="D100">
-        <v>2100</v>
+        <v>8</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5175,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5184,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5192,54 +5486,54 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>5101</v>
+        <v>1236</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="D101">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>5102</v>
+        <v>1237</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="D102">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5251,34 +5545,34 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>5103</v>
+        <v>1238</v>
       </c>
       <c r="B103">
+        <v>338</v>
+      </c>
+      <c r="C103" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
-        <v>125</v>
-      </c>
-      <c r="D103">
-        <v>3001</v>
-      </c>
       <c r="E103">
         <v>1</v>
       </c>
@@ -5289,45 +5583,45 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" s="4">
-        <v>5200</v>
+      <c r="A104">
+        <v>1239</v>
       </c>
       <c r="B104">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="C104" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="D104">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5336,36 +5630,36 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" s="4">
-        <v>5201</v>
+      <c r="A105">
+        <v>1240</v>
       </c>
       <c r="B105">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="C105" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="D105">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5374,36 +5668,36 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" s="4">
-        <v>5202</v>
+      <c r="A106">
+        <v>1241</v>
       </c>
       <c r="B106">
-        <v>202</v>
+        <v>341</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D106">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -5412,36 +5706,36 @@
         <v>1</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" s="4">
-        <v>5203</v>
+      <c r="A107">
+        <v>1242</v>
       </c>
       <c r="B107">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="D107">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -5450,36 +5744,36 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" s="4">
-        <v>5204</v>
+      <c r="A108">
+        <v>1243</v>
       </c>
       <c r="B108">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="D108">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5488,36 +5782,36 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" s="4">
-        <v>5205</v>
+      <c r="A109">
+        <v>1244</v>
       </c>
       <c r="B109">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="D109">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -5526,36 +5820,36 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" s="4">
-        <v>5206</v>
+      <c r="A110">
+        <v>1245</v>
       </c>
       <c r="B110">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="C110" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="D110">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -5564,36 +5858,36 @@
         <v>1</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" s="4">
-        <v>5207</v>
+      <c r="A111">
+        <v>1246</v>
       </c>
       <c r="B111">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="D111">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5602,36 +5896,36 @@
         <v>1</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" s="4">
-        <v>5208</v>
+      <c r="A112">
+        <v>1247</v>
       </c>
       <c r="B112">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="D112">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -5640,36 +5934,36 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" s="4">
-        <v>5209</v>
+      <c r="A113">
+        <v>1248</v>
       </c>
       <c r="B113">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="D113">
-        <v>2001</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -5678,36 +5972,36 @@
         <v>1</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>6000</v>
+        <v>1249</v>
       </c>
       <c r="B114">
-        <v>3003</v>
+        <v>349</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="D114">
-        <v>1002</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -5716,21 +6010,24 @@
         <v>1</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>6001</v>
+        <v>1250</v>
+      </c>
+      <c r="B115">
+        <v>350</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>266</v>
       </c>
       <c r="D115">
-        <v>1003</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5741,28 +6038,34 @@
       <c r="G115">
         <v>1</v>
       </c>
+      <c r="H115">
+        <v>0.7</v>
+      </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>6002</v>
+        <v>1251</v>
+      </c>
+      <c r="B116">
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="D116">
-        <v>1004</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5773,28 +6076,34 @@
       <c r="G116">
         <v>1</v>
       </c>
+      <c r="H116">
+        <v>0.7</v>
+      </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>6003</v>
+        <v>1252</v>
+      </c>
+      <c r="B117">
+        <v>352</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D117">
-        <v>1005</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5805,28 +6114,34 @@
       <c r="G117">
         <v>1</v>
       </c>
+      <c r="H117">
+        <v>0.7</v>
+      </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>6004</v>
+        <v>1253</v>
+      </c>
+      <c r="B118">
+        <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D118">
-        <v>1006</v>
+        <v>8</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5837,28 +6152,34 @@
       <c r="G118">
         <v>1</v>
       </c>
+      <c r="H118">
+        <v>0.7</v>
+      </c>
       <c r="J118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>6005</v>
+        <v>1254</v>
+      </c>
+      <c r="B119">
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="D119">
-        <v>1007</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5869,43 +6190,46 @@
       <c r="G119">
         <v>1</v>
       </c>
+      <c r="H119">
+        <v>0.7</v>
+      </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7016</v>
+        <v>1255</v>
       </c>
       <c r="B120">
-        <v>7016</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="D120">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -5914,36 +6238,36 @@
         <v>1</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>7017</v>
+        <v>1256</v>
       </c>
       <c r="B121">
-        <v>7017</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="D121">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -5952,36 +6276,36 @@
         <v>1</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7018</v>
+        <v>1257</v>
       </c>
       <c r="B122">
-        <v>7018</v>
+        <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="D122">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -5990,27 +6314,27 @@
         <v>1</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7019</v>
+        <v>1258</v>
       </c>
       <c r="B123">
-        <v>7019</v>
+        <v>358</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="D123">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -6019,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -6028,24 +6352,24 @@
         <v>1</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>7020</v>
+        <v>1259</v>
       </c>
       <c r="B124">
-        <v>7020</v>
+        <v>359</v>
       </c>
       <c r="C124" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="D124">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6057,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -6066,24 +6390,24 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>7021</v>
+        <v>1260</v>
       </c>
       <c r="B125">
-        <v>7021</v>
+        <v>360</v>
       </c>
       <c r="C125" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="D125">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6095,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -6104,24 +6428,24 @@
         <v>1</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>7022</v>
+        <v>1261</v>
       </c>
       <c r="B126">
-        <v>7022</v>
+        <v>361</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="D126">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6133,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -6142,24 +6466,24 @@
         <v>1</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>7023</v>
+        <v>1262</v>
       </c>
       <c r="B127">
-        <v>7023</v>
+        <v>362</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="D127">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6171,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6180,24 +6504,24 @@
         <v>1</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>7024</v>
+        <v>1263</v>
       </c>
       <c r="B128">
-        <v>7024</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="D128">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6209,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -6218,24 +6542,24 @@
         <v>1</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>7025</v>
+        <v>1264</v>
       </c>
       <c r="B129">
-        <v>7025</v>
+        <v>364</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="D129">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6247,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -6256,27 +6580,27 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>7026</v>
+        <v>1265</v>
       </c>
       <c r="B130">
-        <v>7026</v>
+        <v>365</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="D130">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -6285,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -6294,27 +6618,27 @@
         <v>1</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>7027</v>
+        <v>1266</v>
       </c>
       <c r="B131">
-        <v>7027</v>
+        <v>366</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="D131">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -6323,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -6332,27 +6656,27 @@
         <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>7028</v>
+        <v>1267</v>
       </c>
       <c r="B132">
-        <v>7028</v>
+        <v>367</v>
       </c>
       <c r="C132" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="D132">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -6361,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -6370,27 +6694,27 @@
         <v>1</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>7029</v>
+        <v>1268</v>
       </c>
       <c r="B133">
-        <v>7029</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="D133">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -6399,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -6408,27 +6732,27 @@
         <v>1</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>7030</v>
+        <v>1269</v>
       </c>
       <c r="B134">
-        <v>7030</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="D134">
-        <v>3003</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -6437,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -6446,161 +6770,290 @@
         <v>1</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>8001</v>
+        <v>1270</v>
+      </c>
+      <c r="B135">
+        <v>370</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="D135">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0.7</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>8002</v>
+        <v>1271</v>
+      </c>
+      <c r="B136">
+        <v>371</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="D136">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0.7</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8003</v>
+        <v>1272</v>
+      </c>
+      <c r="B137">
+        <v>372</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="D137">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0.7</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>8004</v>
+        <v>1273</v>
+      </c>
+      <c r="B138">
+        <v>373</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="D138">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0.7</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>8005</v>
+        <v>1274</v>
+      </c>
+      <c r="B139">
+        <v>374</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="D139">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0.7</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>8010</v>
+        <v>1275</v>
+      </c>
+      <c r="B140">
+        <v>375</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="D140">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0.7</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8013</v>
+        <v>1276</v>
+      </c>
+      <c r="B141">
+        <v>376</v>
       </c>
       <c r="C141" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="D141">
-        <v>3000</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0.7</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>8020</v>
+        <v>1277</v>
+      </c>
+      <c r="B142">
+        <v>377</v>
       </c>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="D142">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6611,19 +7064,34 @@
       <c r="G142">
         <v>1</v>
       </c>
+      <c r="H142">
+        <v>0.7</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
       <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>8030</v>
+        <v>1278</v>
+      </c>
+      <c r="B143">
+        <v>378</v>
       </c>
       <c r="C143" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="D143">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6632,21 +7100,36 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0.7</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
       </c>
       <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>8031</v>
+        <v>1279</v>
+      </c>
+      <c r="B144">
+        <v>379</v>
       </c>
       <c r="C144" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="D144">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6655,136 +7138,226 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0.7</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
       </c>
       <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>8041</v>
+        <v>1280</v>
+      </c>
+      <c r="B145">
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="D145">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0.7</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
       </c>
       <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>8042</v>
+        <v>1281</v>
+      </c>
+      <c r="B146">
+        <v>381</v>
       </c>
       <c r="C146" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="D146">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0.7</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
       </c>
       <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>8043</v>
+        <v>1282</v>
+      </c>
+      <c r="B147">
+        <v>382</v>
       </c>
       <c r="C147" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="D147">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0.7</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
       </c>
       <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>8044</v>
+        <v>1283</v>
+      </c>
+      <c r="B148">
+        <v>383</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="D148">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0.7</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
       </c>
       <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>8045</v>
+        <v>1284</v>
+      </c>
+      <c r="B149">
+        <v>384</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="D149">
-        <v>3001</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0.7</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
       </c>
       <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>9001</v>
+        <v>1285</v>
+      </c>
+      <c r="B150">
+        <v>385</v>
       </c>
       <c r="C150" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="D150">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6793,18 +7366,36 @@
         <v>1</v>
       </c>
       <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0.7</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>9002</v>
+        <v>1286</v>
+      </c>
+      <c r="B151">
+        <v>386</v>
       </c>
       <c r="C151" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="D151">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6813,18 +7404,36 @@
         <v>1</v>
       </c>
       <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0.7</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>9003</v>
+        <v>1287</v>
+      </c>
+      <c r="B152">
+        <v>387</v>
       </c>
       <c r="C152" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="D152">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6833,18 +7442,36 @@
         <v>1</v>
       </c>
       <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0.7</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>9004</v>
+        <v>1288</v>
+      </c>
+      <c r="B153">
+        <v>388</v>
       </c>
       <c r="C153" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="D153">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6853,18 +7480,33 @@
         <v>1</v>
       </c>
       <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0.7</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>9005</v>
+        <v>1998</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="D154">
-        <v>4000</v>
+        <v>7</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6874,17 +7516,35 @@
       </c>
       <c r="G154">
         <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>9006</v>
+        <v>1500</v>
+      </c>
+      <c r="B155">
+        <v>500</v>
       </c>
       <c r="C155" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="D155">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6894,17 +7554,35 @@
       </c>
       <c r="G155">
         <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0.5</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>9999</v>
+        <v>1501</v>
+      </c>
+      <c r="B156">
+        <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D156">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6915,11 +7593,14 @@
       <c r="G156">
         <v>1</v>
       </c>
+      <c r="H156">
+        <v>0.5</v>
+      </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <v>0</v>
@@ -6930,27 +7611,3241 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
+        <v>1502</v>
+      </c>
+      <c r="B157">
+        <v>502</v>
+      </c>
+      <c r="C157" t="s">
+        <v>67</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0.5</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>1503</v>
+      </c>
+      <c r="B158">
+        <v>503</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0.5</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>1504</v>
+      </c>
+      <c r="B159">
+        <v>504</v>
+      </c>
+      <c r="C159" t="s">
+        <v>69</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0.5</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>1505</v>
+      </c>
+      <c r="B160">
+        <v>505</v>
+      </c>
+      <c r="C160" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0.5</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>1506</v>
+      </c>
+      <c r="B161">
+        <v>506</v>
+      </c>
+      <c r="C161" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0.5</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>1507</v>
+      </c>
+      <c r="B162">
+        <v>507</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0.5</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>1508</v>
+      </c>
+      <c r="B163">
+        <v>508</v>
+      </c>
+      <c r="C163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0.5</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>1509</v>
+      </c>
+      <c r="B164">
+        <v>509</v>
+      </c>
+      <c r="C164" t="s">
+        <v>74</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0.5</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>1550</v>
+      </c>
+      <c r="B165">
+        <v>550</v>
+      </c>
+      <c r="C165" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>0.8</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>1551</v>
+      </c>
+      <c r="B166">
+        <v>551</v>
+      </c>
+      <c r="C166" t="s">
+        <v>81</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>0.8</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>1552</v>
+      </c>
+      <c r="B167">
+        <v>552</v>
+      </c>
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <v>0.8</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>1553</v>
+      </c>
+      <c r="B168">
+        <v>553</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>0.8</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>1554</v>
+      </c>
+      <c r="B169">
+        <v>554</v>
+      </c>
+      <c r="C169" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
+        <v>0.8</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>1555</v>
+      </c>
+      <c r="B170">
+        <v>555</v>
+      </c>
+      <c r="C170" t="s">
+        <v>85</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0.8</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>1556</v>
+      </c>
+      <c r="B171">
+        <v>556</v>
+      </c>
+      <c r="C171" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>0.8</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>1557</v>
+      </c>
+      <c r="B172">
+        <v>557</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
+        <v>0.8</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>1558</v>
+      </c>
+      <c r="B173">
+        <v>558</v>
+      </c>
+      <c r="C173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <v>0.8</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>1559</v>
+      </c>
+      <c r="B174">
+        <v>559</v>
+      </c>
+      <c r="C174" t="s">
+        <v>89</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
+        <v>0.8</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>1600</v>
+      </c>
+      <c r="B175">
+        <v>600</v>
+      </c>
+      <c r="C175" t="s">
+        <v>66</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0.5</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>1999</v>
+      </c>
+      <c r="C176" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176">
+        <v>99</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>2000</v>
+      </c>
+      <c r="C177" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177">
+        <v>100</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>2001</v>
+      </c>
+      <c r="C178" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178">
+        <v>100</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <v>1.5</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>2002</v>
+      </c>
+      <c r="C179" t="s">
+        <v>31</v>
+      </c>
+      <c r="D179">
+        <v>100</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>0.8</v>
+      </c>
+      <c r="I179">
+        <v>3</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>2003</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>5</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>2004</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181">
+        <v>100</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>6</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>2005</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182">
+        <v>100</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>7</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>2006</v>
+      </c>
+      <c r="C183" t="s">
+        <v>35</v>
+      </c>
+      <c r="D183">
+        <v>100</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>8</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>2007</v>
+      </c>
+      <c r="C184" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184">
+        <v>100</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>4</v>
+      </c>
+      <c r="I184">
+        <v>9</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>2008</v>
+      </c>
+      <c r="C185" t="s">
+        <v>197</v>
+      </c>
+      <c r="D185">
+        <v>100</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>2009</v>
+      </c>
+      <c r="C186" t="s">
+        <v>200</v>
+      </c>
+      <c r="D186">
+        <v>100</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>11</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>2100</v>
+      </c>
+      <c r="C187" t="s">
+        <v>155</v>
+      </c>
+      <c r="D187">
+        <v>110</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>2101</v>
+      </c>
+      <c r="C188" t="s">
+        <v>156</v>
+      </c>
+      <c r="D188">
+        <v>110</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>2102</v>
+      </c>
+      <c r="C189" t="s">
+        <v>157</v>
+      </c>
+      <c r="D189">
+        <v>110</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189">
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>3000</v>
+      </c>
+      <c r="B190">
+        <v>700</v>
+      </c>
+      <c r="C190" t="s">
+        <v>201</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0.7</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>5000</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191">
+        <v>1000</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>5001</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>1001</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>5002</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193">
+        <v>2000</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>5003</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194">
+        <v>2000</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>5100</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195">
+        <v>2100</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>5101</v>
+      </c>
+      <c r="B196">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>123</v>
+      </c>
+      <c r="D196">
+        <v>3001</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>5102</v>
+      </c>
+      <c r="B197">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>124</v>
+      </c>
+      <c r="D197">
+        <v>3001</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>5103</v>
+      </c>
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>125</v>
+      </c>
+      <c r="D198">
+        <v>3001</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A199" s="4">
+        <v>5200</v>
+      </c>
+      <c r="B199">
+        <v>200</v>
+      </c>
+      <c r="C199" t="s">
+        <v>167</v>
+      </c>
+      <c r="D199">
+        <v>2001</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A200" s="4">
+        <v>5201</v>
+      </c>
+      <c r="B200">
+        <v>201</v>
+      </c>
+      <c r="C200" t="s">
+        <v>168</v>
+      </c>
+      <c r="D200">
+        <v>2001</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A201" s="4">
+        <v>5202</v>
+      </c>
+      <c r="B201">
+        <v>202</v>
+      </c>
+      <c r="C201" t="s">
+        <v>169</v>
+      </c>
+      <c r="D201">
+        <v>2001</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" s="4">
+        <v>5203</v>
+      </c>
+      <c r="B202">
+        <v>203</v>
+      </c>
+      <c r="C202" t="s">
+        <v>170</v>
+      </c>
+      <c r="D202">
+        <v>2001</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A203" s="4">
+        <v>5204</v>
+      </c>
+      <c r="B203">
+        <v>204</v>
+      </c>
+      <c r="C203" t="s">
+        <v>171</v>
+      </c>
+      <c r="D203">
+        <v>2001</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A204" s="4">
+        <v>5205</v>
+      </c>
+      <c r="B204">
+        <v>205</v>
+      </c>
+      <c r="C204" t="s">
+        <v>172</v>
+      </c>
+      <c r="D204">
+        <v>2001</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A205" s="4">
+        <v>5206</v>
+      </c>
+      <c r="B205">
+        <v>206</v>
+      </c>
+      <c r="C205" t="s">
+        <v>173</v>
+      </c>
+      <c r="D205">
+        <v>2001</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206" s="4">
+        <v>5207</v>
+      </c>
+      <c r="B206">
+        <v>207</v>
+      </c>
+      <c r="C206" t="s">
+        <v>174</v>
+      </c>
+      <c r="D206">
+        <v>2001</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>2</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207" s="4">
+        <v>5208</v>
+      </c>
+      <c r="B207">
+        <v>208</v>
+      </c>
+      <c r="C207" t="s">
+        <v>175</v>
+      </c>
+      <c r="D207">
+        <v>2001</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208" s="4">
+        <v>5209</v>
+      </c>
+      <c r="B208">
+        <v>209</v>
+      </c>
+      <c r="C208" t="s">
+        <v>176</v>
+      </c>
+      <c r="D208">
+        <v>2001</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>6000</v>
+      </c>
+      <c r="B209">
+        <v>3003</v>
+      </c>
+      <c r="C209" t="s">
+        <v>97</v>
+      </c>
+      <c r="D209">
+        <v>1002</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>6001</v>
+      </c>
+      <c r="C210" t="s">
+        <v>144</v>
+      </c>
+      <c r="D210">
+        <v>1003</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>6002</v>
+      </c>
+      <c r="C211" t="s">
+        <v>145</v>
+      </c>
+      <c r="D211">
+        <v>1004</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>6003</v>
+      </c>
+      <c r="C212" t="s">
+        <v>146</v>
+      </c>
+      <c r="D212">
+        <v>1005</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>6004</v>
+      </c>
+      <c r="C213" t="s">
+        <v>147</v>
+      </c>
+      <c r="D213">
+        <v>1006</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>6005</v>
+      </c>
+      <c r="C214" t="s">
+        <v>148</v>
+      </c>
+      <c r="D214">
+        <v>1007</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>7016</v>
+      </c>
+      <c r="B215">
+        <v>7016</v>
+      </c>
+      <c r="C215" t="s">
+        <v>126</v>
+      </c>
+      <c r="D215">
+        <v>3003</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>7017</v>
+      </c>
+      <c r="B216">
+        <v>7017</v>
+      </c>
+      <c r="C216" t="s">
+        <v>127</v>
+      </c>
+      <c r="D216">
+        <v>3003</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>7018</v>
+      </c>
+      <c r="B217">
+        <v>7018</v>
+      </c>
+      <c r="C217" t="s">
+        <v>107</v>
+      </c>
+      <c r="D217">
+        <v>3003</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>7019</v>
+      </c>
+      <c r="B218">
+        <v>7019</v>
+      </c>
+      <c r="C218" t="s">
+        <v>108</v>
+      </c>
+      <c r="D218">
+        <v>3003</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>7020</v>
+      </c>
+      <c r="B219">
+        <v>7020</v>
+      </c>
+      <c r="C219" t="s">
+        <v>109</v>
+      </c>
+      <c r="D219">
+        <v>3003</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>7021</v>
+      </c>
+      <c r="B220">
+        <v>7021</v>
+      </c>
+      <c r="C220" t="s">
+        <v>110</v>
+      </c>
+      <c r="D220">
+        <v>3003</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>7022</v>
+      </c>
+      <c r="B221">
+        <v>7022</v>
+      </c>
+      <c r="C221" t="s">
+        <v>111</v>
+      </c>
+      <c r="D221">
+        <v>3003</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>7023</v>
+      </c>
+      <c r="B222">
+        <v>7023</v>
+      </c>
+      <c r="C222" t="s">
+        <v>112</v>
+      </c>
+      <c r="D222">
+        <v>3003</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>7024</v>
+      </c>
+      <c r="B223">
+        <v>7024</v>
+      </c>
+      <c r="C223" t="s">
+        <v>113</v>
+      </c>
+      <c r="D223">
+        <v>3003</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>7025</v>
+      </c>
+      <c r="B224">
+        <v>7025</v>
+      </c>
+      <c r="C224" t="s">
+        <v>114</v>
+      </c>
+      <c r="D224">
+        <v>3003</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>7026</v>
+      </c>
+      <c r="B225">
+        <v>7026</v>
+      </c>
+      <c r="C225" t="s">
+        <v>115</v>
+      </c>
+      <c r="D225">
+        <v>3003</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>7027</v>
+      </c>
+      <c r="B226">
+        <v>7027</v>
+      </c>
+      <c r="C226" t="s">
+        <v>116</v>
+      </c>
+      <c r="D226">
+        <v>3003</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>7028</v>
+      </c>
+      <c r="B227">
+        <v>7028</v>
+      </c>
+      <c r="C227" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227">
+        <v>3003</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>7029</v>
+      </c>
+      <c r="B228">
+        <v>7029</v>
+      </c>
+      <c r="C228" t="s">
+        <v>118</v>
+      </c>
+      <c r="D228">
+        <v>3003</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>7030</v>
+      </c>
+      <c r="B229">
+        <v>7030</v>
+      </c>
+      <c r="C229" t="s">
+        <v>119</v>
+      </c>
+      <c r="D229">
+        <v>3003</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>8001</v>
+      </c>
+      <c r="C230" t="s">
+        <v>134</v>
+      </c>
+      <c r="D230">
+        <v>3000</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>8002</v>
+      </c>
+      <c r="C231" t="s">
+        <v>135</v>
+      </c>
+      <c r="D231">
+        <v>3000</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>8003</v>
+      </c>
+      <c r="C232" t="s">
+        <v>136</v>
+      </c>
+      <c r="D232">
+        <v>3000</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>8004</v>
+      </c>
+      <c r="C233" t="s">
+        <v>137</v>
+      </c>
+      <c r="D233">
+        <v>3000</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>8005</v>
+      </c>
+      <c r="C234" t="s">
+        <v>138</v>
+      </c>
+      <c r="D234">
+        <v>3000</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+      <c r="G234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>8010</v>
+      </c>
+      <c r="C235" t="s">
+        <v>139</v>
+      </c>
+      <c r="D235">
+        <v>3000</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="G235">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>8013</v>
+      </c>
+      <c r="C236" t="s">
+        <v>140</v>
+      </c>
+      <c r="D236">
+        <v>3000</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="G236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>8020</v>
+      </c>
+      <c r="C237" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237">
+        <v>3001</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>8030</v>
+      </c>
+      <c r="C238" t="s">
+        <v>142</v>
+      </c>
+      <c r="D238">
+        <v>3001</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>5</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>8031</v>
+      </c>
+      <c r="C239" t="s">
+        <v>143</v>
+      </c>
+      <c r="D239">
+        <v>3001</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>5</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>8041</v>
+      </c>
+      <c r="C240" t="s">
+        <v>149</v>
+      </c>
+      <c r="D240">
+        <v>3001</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>8042</v>
+      </c>
+      <c r="C241" t="s">
+        <v>150</v>
+      </c>
+      <c r="D241">
+        <v>3001</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>8043</v>
+      </c>
+      <c r="C242" t="s">
+        <v>152</v>
+      </c>
+      <c r="D242">
+        <v>3001</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <v>1.5</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>8044</v>
+      </c>
+      <c r="C243" t="s">
+        <v>153</v>
+      </c>
+      <c r="D243">
+        <v>3001</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>8045</v>
+      </c>
+      <c r="C244" t="s">
+        <v>151</v>
+      </c>
+      <c r="D244">
+        <v>3001</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>9001</v>
+      </c>
+      <c r="C245" t="s">
+        <v>202</v>
+      </c>
+      <c r="D245">
+        <v>4000</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>9002</v>
+      </c>
+      <c r="C246" t="s">
+        <v>203</v>
+      </c>
+      <c r="D246">
+        <v>4000</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>9003</v>
+      </c>
+      <c r="C247" t="s">
+        <v>204</v>
+      </c>
+      <c r="D247">
+        <v>4000</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>9004</v>
+      </c>
+      <c r="C248" t="s">
+        <v>205</v>
+      </c>
+      <c r="D248">
+        <v>4000</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>9005</v>
+      </c>
+      <c r="C249" t="s">
+        <v>206</v>
+      </c>
+      <c r="D249">
+        <v>4000</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>9006</v>
+      </c>
+      <c r="C250" t="s">
+        <v>207</v>
+      </c>
+      <c r="D250">
+        <v>4000</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>9999</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251">
+        <v>9999</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A252">
         <v>10000</v>
       </c>
-      <c r="D157">
+      <c r="D252">
         <v>10000</v>
       </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="M157">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="M252">
         <v>1</v>
       </c>
     </row>
@@ -7177,7 +11072,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -7185,7 +11080,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C770E50D-7EC7-4112-A5C6-49E96B1B9C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0B0FD-0F33-49FB-BFB5-CD1A10B43F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="308">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1233,6 +1233,12 @@
   <si>
     <t>Prefabs/Game/Scene/object_3d_300</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_301</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_302</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M252" totalsRowShown="0">
-  <autoFilter ref="A1:M252" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M254" totalsRowShown="0">
+  <autoFilter ref="A1:M254" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1682,13 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E147" sqref="E147"/>
+      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7500,13 +7506,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1998</v>
+        <v>1500</v>
+      </c>
+      <c r="B154">
+        <v>500</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="D154">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7518,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -7535,13 +7544,13 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B155">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -7573,13 +7582,13 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B156">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7611,13 +7620,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B157">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C157" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -7649,13 +7658,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B158">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C158" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7687,13 +7696,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B159">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C159" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -7725,13 +7734,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B160">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C160" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -7763,13 +7772,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B161">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C161" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7801,13 +7810,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B162">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -7839,13 +7848,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B163">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C163" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -7877,28 +7886,28 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1509</v>
+        <v>1550</v>
       </c>
       <c r="B164">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="C164" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
         <v>3</v>
       </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
       <c r="F164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -7915,13 +7924,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B165">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -7953,13 +7962,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B166">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C166" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D166">
         <v>4</v>
@@ -7991,13 +8000,13 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B167">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -8029,13 +8038,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B168">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C168" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D168">
         <v>4</v>
@@ -8067,13 +8076,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B169">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C169" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -8105,13 +8114,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B170">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C170" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -8143,13 +8152,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B171">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -8181,13 +8190,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B172">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -8219,13 +8228,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B173">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C173" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D173">
         <v>4</v>
@@ -8257,34 +8266,34 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1559</v>
+        <v>1600</v>
       </c>
       <c r="B174">
-        <v>559</v>
+        <v>600</v>
       </c>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J174">
         <v>1</v>
       </c>
       <c r="K174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -8295,16 +8304,13 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1600</v>
-      </c>
-      <c r="B175">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="C175" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8316,13 +8322,13 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -8333,13 +8339,13 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1999</v>
+        <v>1801</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="D176">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8350,28 +8356,31 @@
       <c r="G176">
         <v>1</v>
       </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>2000</v>
+        <v>1802</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="D177">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8380,19 +8389,16 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
       <c r="J177">
         <v>1</v>
       </c>
       <c r="K177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -8403,13 +8409,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8418,33 +8424,27 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>5</v>
-      </c>
-      <c r="H178">
-        <v>1.5</v>
-      </c>
-      <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D179">
         <v>100</v>
@@ -8459,10 +8459,10 @@
         <v>5</v>
       </c>
       <c r="H179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -8479,28 +8479,28 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D180">
         <v>100</v>
       </c>
       <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>5</v>
+      </c>
+      <c r="H180">
+        <v>1.5</v>
+      </c>
+      <c r="I180">
         <v>2</v>
-      </c>
-      <c r="F180">
-        <v>2</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
-      <c r="I180">
-        <v>5</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -8517,28 +8517,28 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>100</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -8555,10 +8555,10 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D182">
         <v>100</v>
@@ -8576,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="I182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -8593,10 +8593,10 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D183">
         <v>100</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="I183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -8631,10 +8631,10 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D184">
         <v>100</v>
@@ -8649,10 +8649,10 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -8669,10 +8669,10 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="D185">
         <v>100</v>
@@ -8690,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="I185">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -8707,28 +8707,28 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C186" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D186">
         <v>100</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -8745,13 +8745,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>2100</v>
+        <v>2008</v>
       </c>
       <c r="C187" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="D187">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -8760,19 +8760,19 @@
         <v>2</v>
       </c>
       <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
         <v>2</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
       <c r="I187">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -8783,34 +8783,34 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>2101</v>
+        <v>2009</v>
       </c>
       <c r="C188" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="D188">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
         <v>2</v>
       </c>
-      <c r="F188">
-        <v>2</v>
-      </c>
-      <c r="G188">
-        <v>2</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
       <c r="I188">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J188">
         <v>1</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C189" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D189">
         <v>110</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -8859,66 +8859,66 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>3000</v>
-      </c>
-      <c r="B190">
-        <v>700</v>
+        <v>2101</v>
       </c>
       <c r="C190" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
       </c>
       <c r="J190">
         <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>5000</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="D191">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191">
         <v>1</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -8935,54 +8935,54 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>5001</v>
+        <v>3000</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="D192">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D193">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -9011,22 +9011,22 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D194">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E194">
         <v>2</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="L194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -9049,16 +9049,16 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>5100</v>
+        <v>5002</v>
       </c>
       <c r="B195">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D195">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -9079,30 +9079,30 @@
         <v>1</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>5101</v>
+        <v>5003</v>
       </c>
       <c r="B196">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D196">
-        <v>3001</v>
+        <v>2000</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -9114,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -9125,16 +9125,16 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D197">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9152,36 +9152,36 @@
         <v>1</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B198">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D198">
         <v>3001</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -9193,30 +9193,30 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A199" s="4">
-        <v>5200</v>
+      <c r="A199">
+        <v>5102</v>
       </c>
       <c r="B199">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D199">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -9228,33 +9228,33 @@
         <v>1</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A200" s="4">
-        <v>5201</v>
+      <c r="A200">
+        <v>5103</v>
       </c>
       <c r="B200">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D200">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -9266,10 +9266,10 @@
         <v>1</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -9277,13 +9277,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="4">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="B201">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D201">
         <v>2001</v>
@@ -9315,13 +9315,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="4">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B202">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D202">
         <v>2001</v>
@@ -9353,13 +9353,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="4">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B203">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D203">
         <v>2001</v>
@@ -9391,13 +9391,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B204">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D204">
         <v>2001</v>
@@ -9429,13 +9429,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B205">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D205">
         <v>2001</v>
@@ -9467,13 +9467,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B206">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D206">
         <v>2001</v>
@@ -9505,13 +9505,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B207">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9543,13 +9543,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B208">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9580,26 +9580,26 @@
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209">
-        <v>6000</v>
+      <c r="A209" s="4">
+        <v>5208</v>
       </c>
       <c r="B209">
-        <v>3003</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="D209">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -9618,26 +9618,32 @@
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210">
-        <v>6001</v>
+      <c r="A210" s="4">
+        <v>5209</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D210">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210">
         <v>1</v>
       </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
       <c r="J210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210">
         <v>1</v>
@@ -9651,25 +9657,31 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>6002</v>
+        <v>6000</v>
+      </c>
+      <c r="B211">
+        <v>3003</v>
       </c>
       <c r="C211" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D211">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F211">
         <v>1</v>
       </c>
       <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
         <v>1</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -9683,13 +9695,13 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="C212" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D212">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9715,13 +9727,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="C213" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D213">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9747,13 +9759,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="C214" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D214">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9779,31 +9791,25 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>7016</v>
-      </c>
-      <c r="B215">
-        <v>7016</v>
+        <v>6004</v>
       </c>
       <c r="C215" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D215">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>2</v>
-      </c>
-      <c r="H215">
         <v>1</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -9817,31 +9823,25 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>7017</v>
-      </c>
-      <c r="B216">
-        <v>7017</v>
+        <v>6005</v>
       </c>
       <c r="C216" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D216">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216">
         <v>1</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -9855,25 +9855,25 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B217">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C217" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D217">
         <v>3003</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -9893,25 +9893,25 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B218">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C218" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D218">
         <v>3003</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -9931,13 +9931,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B219">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C219" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D219">
         <v>3003</v>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -9969,19 +9969,19 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B220">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C220" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D220">
         <v>3003</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -10007,13 +10007,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B221">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C221" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D221">
         <v>3003</v>
@@ -10045,13 +10045,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B222">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C222" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D222">
         <v>3003</v>
@@ -10083,13 +10083,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B223">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C223" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D223">
         <v>3003</v>
@@ -10121,13 +10121,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B224">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C224" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D224">
         <v>3003</v>
@@ -10159,19 +10159,19 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B225">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C225" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D225">
         <v>3003</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -10197,19 +10197,19 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B226">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C226" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D226">
         <v>3003</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -10235,13 +10235,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B227">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C227" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D227">
         <v>3003</v>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B228">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C228" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D228">
         <v>3003</v>
@@ -10311,13 +10311,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B229">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C229" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D229">
         <v>3003</v>
@@ -10349,50 +10349,86 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>8001</v>
+        <v>7029</v>
+      </c>
+      <c r="B230">
+        <v>7029</v>
       </c>
       <c r="C230" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D230">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E230">
         <v>2</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G230">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>8002</v>
+        <v>7030</v>
+      </c>
+      <c r="B231">
+        <v>7030</v>
       </c>
       <c r="C231" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D231">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E231">
         <v>2</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C232" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D232">
         <v>3000</v>
@@ -10409,10 +10445,10 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C233" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D233">
         <v>3000</v>
@@ -10429,10 +10465,10 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C234" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D234">
         <v>3000</v>
@@ -10449,10 +10485,10 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C235" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D235">
         <v>3000</v>
@@ -10464,15 +10500,15 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>8013</v>
+        <v>8005</v>
       </c>
       <c r="C236" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D236">
         <v>3000</v>
@@ -10484,61 +10520,55 @@
         <v>2</v>
       </c>
       <c r="G236">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>8020</v>
+        <v>8010</v>
       </c>
       <c r="C237" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D237">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="K237">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8030</v>
+        <v>8013</v>
       </c>
       <c r="C238" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D238">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G238">
-        <v>5</v>
-      </c>
-      <c r="K238">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="C239" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D239">
         <v>3001</v>
@@ -10550,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="G239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -10558,22 +10588,22 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8041</v>
+        <v>8030</v>
       </c>
       <c r="C240" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D240">
         <v>3001</v>
       </c>
       <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
         <v>5</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>3</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -10581,22 +10611,22 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8042</v>
+        <v>8031</v>
       </c>
       <c r="C241" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D241">
         <v>3001</v>
       </c>
       <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
         <v>5</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>3</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -10604,22 +10634,22 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C242" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D242">
         <v>3001</v>
       </c>
       <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
         <v>3</v>
-      </c>
-      <c r="F242">
-        <v>2</v>
-      </c>
-      <c r="G242">
-        <v>1.5</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -10627,19 +10657,19 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C243" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D243">
         <v>3001</v>
       </c>
       <c r="E243">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -10650,22 +10680,22 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C244" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D244">
         <v>3001</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F244">
         <v>2</v>
       </c>
       <c r="G244">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -10673,50 +10703,56 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>9001</v>
+        <v>8044</v>
       </c>
       <c r="C245" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D245">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G245">
+        <v>3</v>
+      </c>
+      <c r="K245">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>9002</v>
+        <v>8045</v>
       </c>
       <c r="C246" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D246">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="K246">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C247" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D247">
         <v>4000</v>
@@ -10733,10 +10769,10 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C248" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D248">
         <v>4000</v>
@@ -10753,10 +10789,10 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C249" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D249">
         <v>4000</v>
@@ -10773,10 +10809,10 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="C250" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D250">
         <v>4000</v>
@@ -10793,13 +10829,13 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>9999</v>
+        <v>9005</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D251">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10809,43 +10845,83 @@
       </c>
       <c r="G251">
         <v>1</v>
-      </c>
-      <c r="J251">
-        <v>0</v>
-      </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="M251">
-        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
+        <v>9006</v>
+      </c>
+      <c r="C252" t="s">
+        <v>207</v>
+      </c>
+      <c r="D252">
+        <v>4000</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>9999</v>
+      </c>
+      <c r="C253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253">
+        <v>9999</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254">
         <v>10000</v>
       </c>
-      <c r="D252">
+      <c r="D254">
         <v>10000</v>
       </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="J252">
-        <v>0</v>
-      </c>
-      <c r="K252">
-        <v>0</v>
-      </c>
-      <c r="M252">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="M254">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0B0FD-0F33-49FB-BFB5-CD1A10B43F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B18D60-20AC-4074-9843-9DD0C47640AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="309">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1239,6 +1239,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_302</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_041</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1370,8 +1374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M254" totalsRowShown="0">
-  <autoFilter ref="A1:M254" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M255" totalsRowShown="0">
+  <autoFilter ref="A1:M255" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1688,13 +1692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2452,16 +2456,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2490,13 +2494,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B22">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2528,13 +2532,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2566,13 +2570,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2604,13 +2608,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2642,13 +2646,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2680,13 +2684,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2718,16 +2722,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B28">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2739,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2756,13 +2760,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29">
         <v>3000</v>
@@ -2794,13 +2798,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B30">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>3000</v>
@@ -2832,13 +2836,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B31">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -2870,13 +2874,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B32">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>3000</v>
@@ -2908,13 +2912,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B33">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -2946,16 +2950,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1130</v>
+        <v>1039</v>
       </c>
       <c r="B34">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2967,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2984,13 +2988,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B35">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3022,13 +3026,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B36">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3060,13 +3064,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B37">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3098,13 +3102,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B38">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3136,13 +3140,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B39">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3174,13 +3178,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B40">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3212,13 +3216,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B41">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3250,13 +3254,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B42">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3288,13 +3292,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B43">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3326,16 +3330,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="B44">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3353,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -3364,13 +3368,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B45">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -3402,16 +3406,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B46">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3429,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3440,16 +3444,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B47">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3467,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3478,16 +3482,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B48">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3505,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3516,16 +3520,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B49">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3543,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3554,13 +3558,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B50">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -3592,13 +3596,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B51">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -3630,13 +3634,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B52">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -3668,13 +3672,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B53">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -3706,13 +3710,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B54">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -3744,13 +3748,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B55">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -3782,16 +3786,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B56">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3820,16 +3824,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B57">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3858,13 +3862,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B58">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58">
         <v>8</v>
@@ -3896,13 +3900,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B59">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -3934,13 +3938,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B60">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -3972,13 +3976,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B61">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -4010,13 +4014,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B62">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62">
         <v>8</v>
@@ -4048,13 +4052,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B63">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -4086,13 +4090,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B64">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -4124,13 +4128,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B65">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -4162,13 +4166,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B66">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -4200,13 +4204,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B67">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -4238,13 +4242,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B68">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -4276,13 +4280,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B69">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -4314,13 +4318,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B70">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4352,13 +4356,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B71">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -4390,13 +4394,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B72">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -4428,13 +4432,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B73">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4466,13 +4470,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B74">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -4504,13 +4508,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B75">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -4542,13 +4546,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B76">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4580,13 +4584,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B77">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4618,13 +4622,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B78">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -4656,13 +4660,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B79">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4694,13 +4698,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B80">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -4732,13 +4736,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B81">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -4770,13 +4774,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B82">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -4808,13 +4812,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B83">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -4846,13 +4850,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B84">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -4884,13 +4888,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B85">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -4922,13 +4926,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B86">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -4960,13 +4964,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B87">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -4998,13 +5002,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B88">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -5036,13 +5040,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B89">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5074,13 +5078,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B90">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -5112,13 +5116,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B91">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -5150,13 +5154,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B92">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5188,13 +5192,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B93">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -5226,13 +5230,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B94">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -5264,13 +5268,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B95">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5302,13 +5306,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B96">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -5340,13 +5344,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B97">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -5378,13 +5382,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B98">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -5416,13 +5420,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B99">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -5454,13 +5458,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B100">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -5492,13 +5496,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B101">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -5530,13 +5534,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B102">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -5568,13 +5572,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B103">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -5606,13 +5610,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B104">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -5644,13 +5648,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B105">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5682,13 +5686,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B106">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -5720,13 +5724,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B107">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -5758,13 +5762,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B108">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5796,13 +5800,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B109">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -5834,13 +5838,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B110">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -5872,13 +5876,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B111">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C111" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -5910,13 +5914,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B112">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -5948,13 +5952,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B113">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -5986,13 +5990,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B114">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -6024,13 +6028,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B115">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -6062,13 +6066,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B116">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -6100,13 +6104,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B117">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -6138,13 +6142,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B118">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -6176,13 +6180,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B119">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -6214,13 +6218,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B120">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -6252,13 +6256,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B121">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -6290,13 +6294,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B122">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -6328,13 +6332,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B123">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -6366,13 +6370,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B124">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -6404,13 +6408,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B125">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6442,13 +6446,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B126">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -6480,13 +6484,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B127">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -6518,13 +6522,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B128">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -6556,13 +6560,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B129">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -6594,13 +6598,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B130">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D130">
         <v>8</v>
@@ -6632,13 +6636,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B131">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -6670,13 +6674,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B132">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -6708,13 +6712,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B133">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -6746,13 +6750,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B134">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6784,13 +6788,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B135">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D135">
         <v>8</v>
@@ -6822,13 +6826,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B136">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -6860,13 +6864,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B137">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C137" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -6898,13 +6902,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B138">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C138" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -6936,13 +6940,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B139">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -6974,13 +6978,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B140">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D140">
         <v>8</v>
@@ -7012,13 +7016,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B141">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C141" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -7050,13 +7054,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B142">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -7088,13 +7092,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B143">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7126,13 +7130,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B144">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -7164,13 +7168,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B145">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -7202,13 +7206,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B146">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7240,13 +7244,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B147">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -7278,13 +7282,13 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B148">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -7316,13 +7320,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B149">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C149" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7354,13 +7358,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B150">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -7392,13 +7396,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B151">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C151" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -7430,13 +7434,13 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B152">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -7468,13 +7472,13 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B153">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -7506,16 +7510,16 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1500</v>
+        <v>1288</v>
       </c>
       <c r="B154">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7527,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -7536,21 +7540,21 @@
         <v>1</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B155">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C155" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -7582,13 +7586,13 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B156">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7620,13 +7624,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B157">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -7658,13 +7662,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B158">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7696,13 +7700,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B159">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C159" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -7734,13 +7738,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B160">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -7772,13 +7776,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B161">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C161" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7810,13 +7814,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B162">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C162" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -7848,13 +7852,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B163">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -7886,28 +7890,28 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1550</v>
+        <v>1509</v>
       </c>
       <c r="B164">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -7924,13 +7928,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B165">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C165" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -7962,13 +7966,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B166">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D166">
         <v>4</v>
@@ -8000,13 +8004,13 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B167">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -8038,13 +8042,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B168">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D168">
         <v>4</v>
@@ -8076,13 +8080,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B169">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C169" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -8114,13 +8118,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B170">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -8152,13 +8156,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B171">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C171" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -8190,13 +8194,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B172">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -8228,13 +8232,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B173">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C173" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D173">
         <v>4</v>
@@ -8266,34 +8270,34 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1600</v>
+        <v>1559</v>
       </c>
       <c r="B174">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J174">
         <v>1</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
         <v>0</v>
@@ -8304,13 +8308,16 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1800</v>
+        <v>1600</v>
+      </c>
+      <c r="B175">
+        <v>600</v>
       </c>
       <c r="C175" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8322,13 +8329,13 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -8339,10 +8346,10 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C176" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D176">
         <v>7</v>
@@ -8374,10 +8381,10 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D177">
         <v>7</v>
@@ -8409,13 +8416,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1999</v>
+        <v>1802</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="D178">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8426,28 +8433,31 @@
       <c r="G178">
         <v>1</v>
       </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
       <c r="J178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D179">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8456,33 +8466,27 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>5</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D180">
         <v>100</v>
@@ -8497,10 +8501,10 @@
         <v>5</v>
       </c>
       <c r="H180">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -8517,10 +8521,10 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181">
         <v>100</v>
@@ -8535,10 +8539,10 @@
         <v>5</v>
       </c>
       <c r="H181">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -8555,28 +8559,28 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182">
         <v>100</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -8593,10 +8597,10 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D183">
         <v>100</v>
@@ -8614,7 +8618,7 @@
         <v>2</v>
       </c>
       <c r="I183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -8631,10 +8635,10 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184">
         <v>100</v>
@@ -8652,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="I184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -8669,10 +8673,10 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185">
         <v>100</v>
@@ -8690,7 +8694,7 @@
         <v>2</v>
       </c>
       <c r="I185">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -8707,10 +8711,10 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C186" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="D186">
         <v>100</v>
@@ -8725,10 +8729,10 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -8745,10 +8749,10 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D187">
         <v>100</v>
@@ -8763,10 +8767,10 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -8783,19 +8787,19 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C188" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D188">
         <v>100</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -8804,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="I188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -8821,34 +8825,34 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>2100</v>
+        <v>2009</v>
       </c>
       <c r="C189" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D189">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
         <v>2</v>
       </c>
-      <c r="F189">
-        <v>2</v>
-      </c>
-      <c r="G189">
-        <v>2</v>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
       <c r="I189">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -8859,10 +8863,10 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D190">
         <v>110</v>
@@ -8880,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -8897,10 +8901,10 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C191" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D191">
         <v>110</v>
@@ -8918,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="I191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -8935,54 +8939,54 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>3000</v>
-      </c>
-      <c r="B192">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C192" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="D193">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -8994,42 +8998,42 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -9049,22 +9053,22 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -9079,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -9087,19 +9091,19 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196">
         <v>2000</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -9125,25 +9129,25 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>5100</v>
+        <v>5003</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D197">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -9155,33 +9159,33 @@
         <v>1</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D198">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -9190,36 +9194,36 @@
         <v>1</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D199">
         <v>3001</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -9231,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -9239,13 +9243,13 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D200">
         <v>3001</v>
@@ -9276,23 +9280,23 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A201" s="4">
-        <v>5200</v>
+      <c r="A201">
+        <v>5103</v>
       </c>
       <c r="B201">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D201">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -9304,10 +9308,10 @@
         <v>1</v>
       </c>
       <c r="K201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -9315,13 +9319,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D202">
         <v>2001</v>
@@ -9353,13 +9357,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D203">
         <v>2001</v>
@@ -9391,13 +9395,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D204">
         <v>2001</v>
@@ -9429,13 +9433,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D205">
         <v>2001</v>
@@ -9467,13 +9471,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D206">
         <v>2001</v>
@@ -9505,13 +9509,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9543,13 +9547,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9581,13 +9585,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D209">
         <v>2001</v>
@@ -9619,13 +9623,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D210">
         <v>2001</v>
@@ -9656,26 +9660,26 @@
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211">
-        <v>6000</v>
+      <c r="A211" s="4">
+        <v>5209</v>
       </c>
       <c r="B211">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D211">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -9695,25 +9699,31 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B212">
+        <v>3003</v>
       </c>
       <c r="C212" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D212">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
       <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212">
         <v>1</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212">
         <v>1</v>
@@ -9727,13 +9737,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C213" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D213">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9759,13 +9769,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C214" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D214">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9791,13 +9801,13 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C215" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D215">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9823,13 +9833,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C216" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D216">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9855,31 +9865,25 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>7016</v>
-      </c>
-      <c r="B217">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C217" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D217">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G217">
-        <v>2</v>
-      </c>
-      <c r="H217">
         <v>1</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>1</v>
@@ -9893,13 +9897,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B218">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C218" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D218">
         <v>3003</v>
@@ -9931,25 +9935,25 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B219">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C219" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D219">
         <v>3003</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -9969,22 +9973,22 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B220">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C220" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D220">
         <v>3003</v>
       </c>
       <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
         <v>3</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -10007,19 +10011,19 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B221">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C221" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D221">
         <v>3003</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -10045,13 +10049,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B222">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C222" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D222">
         <v>3003</v>
@@ -10083,13 +10087,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B223">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C223" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D223">
         <v>3003</v>
@@ -10121,13 +10125,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B224">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D224">
         <v>3003</v>
@@ -10159,13 +10163,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B225">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D225">
         <v>3003</v>
@@ -10197,13 +10201,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B226">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C226" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D226">
         <v>3003</v>
@@ -10235,19 +10239,19 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B227">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C227" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D227">
         <v>3003</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -10273,13 +10277,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B228">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C228" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D228">
         <v>3003</v>
@@ -10311,13 +10315,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B229">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C229" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D229">
         <v>3003</v>
@@ -10349,13 +10353,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B230">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C230" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D230">
         <v>3003</v>
@@ -10387,13 +10391,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B231">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C231" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D231">
         <v>3003</v>
@@ -10425,30 +10429,48 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>8001</v>
+        <v>7030</v>
+      </c>
+      <c r="B232">
+        <v>7030</v>
       </c>
       <c r="C232" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D232">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E232">
         <v>2</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C233" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D233">
         <v>3000</v>
@@ -10465,10 +10487,10 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C234" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D234">
         <v>3000</v>
@@ -10485,10 +10507,10 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C235" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D235">
         <v>3000</v>
@@ -10505,10 +10527,10 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D236">
         <v>3000</v>
@@ -10525,10 +10547,10 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C237" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D237">
         <v>3000</v>
@@ -10540,15 +10562,15 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C238" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D238">
         <v>3000</v>
@@ -10565,33 +10587,30 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C239" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D239">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="K239">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C240" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D240">
         <v>3001</v>
@@ -10603,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -10611,10 +10630,10 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D241">
         <v>3001</v>
@@ -10634,22 +10653,22 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C242" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D242">
         <v>3001</v>
       </c>
       <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
         <v>5</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>3</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -10657,10 +10676,10 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C243" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D243">
         <v>3001</v>
@@ -10680,22 +10699,22 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C244" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D244">
         <v>3001</v>
       </c>
       <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
         <v>3</v>
-      </c>
-      <c r="F244">
-        <v>2</v>
-      </c>
-      <c r="G244">
-        <v>1.5</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -10703,10 +10722,10 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D245">
         <v>3001</v>
@@ -10715,10 +10734,10 @@
         <v>3</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G245">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -10726,19 +10745,19 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C246" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D246">
         <v>3001</v>
       </c>
       <c r="E246">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -10749,30 +10768,33 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>9001</v>
+        <v>8045</v>
       </c>
       <c r="C247" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="D247">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="K247">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C248" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D248">
         <v>4000</v>
@@ -10789,10 +10811,10 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C249" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D249">
         <v>4000</v>
@@ -10809,10 +10831,10 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C250" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D250">
         <v>4000</v>
@@ -10829,10 +10851,10 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C251" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D251">
         <v>4000</v>
@@ -10849,10 +10871,10 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C252" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D252">
         <v>4000</v>
@@ -10869,13 +10891,13 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>9999</v>
+        <v>9006</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="D253">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -10885,43 +10907,63 @@
       </c>
       <c r="G253">
         <v>1</v>
-      </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253">
-        <v>0</v>
-      </c>
-      <c r="M253">
-        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254">
+        <v>9999</v>
+      </c>
+      <c r="C254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254">
+        <v>9999</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255">
         <v>10000</v>
       </c>
-      <c r="D254">
+      <c r="D255">
         <v>10000</v>
       </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="J254">
-        <v>0</v>
-      </c>
-      <c r="K254">
-        <v>0</v>
-      </c>
-      <c r="M254">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="M255">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B18D60-20AC-4074-9843-9DD0C47640AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35444B-D965-4A53-A6DC-7EEA6E7084E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="311">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1243,6 +1243,13 @@
   <si>
     <t>Prefabs/Game/Block/block_3d_041</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_206</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M255" totalsRowShown="0">
-  <autoFilter ref="A1:M255" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M257" totalsRowShown="0">
+  <autoFilter ref="A1:M257" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1692,13 +1699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10467,13 +10474,16 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>8001</v>
+        <v>7031</v>
+      </c>
+      <c r="B233">
+        <v>7031</v>
       </c>
       <c r="C233" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="D233">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -10482,18 +10492,36 @@
         <v>2</v>
       </c>
       <c r="G233">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>8002</v>
+        <v>7032</v>
+      </c>
+      <c r="B234">
+        <v>7032</v>
       </c>
       <c r="C234" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="D234">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -10504,13 +10532,28 @@
       <c r="G234">
         <v>5</v>
       </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C235" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D235">
         <v>3000</v>
@@ -10527,10 +10570,10 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C236" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D236">
         <v>3000</v>
@@ -10547,10 +10590,10 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C237" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D237">
         <v>3000</v>
@@ -10567,10 +10610,10 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C238" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D238">
         <v>3000</v>
@@ -10582,15 +10625,15 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8013</v>
+        <v>8005</v>
       </c>
       <c r="C239" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D239">
         <v>3000</v>
@@ -10602,61 +10645,55 @@
         <v>2</v>
       </c>
       <c r="G239">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8020</v>
+        <v>8010</v>
       </c>
       <c r="C240" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D240">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="K240">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8030</v>
+        <v>8013</v>
       </c>
       <c r="C241" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D241">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G241">
-        <v>5</v>
-      </c>
-      <c r="K241">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="C242" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D242">
         <v>3001</v>
@@ -10668,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -10676,22 +10713,22 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8041</v>
+        <v>8030</v>
       </c>
       <c r="C243" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D243">
         <v>3001</v>
       </c>
       <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
         <v>5</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>3</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -10699,22 +10736,22 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8042</v>
+        <v>8031</v>
       </c>
       <c r="C244" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D244">
         <v>3001</v>
       </c>
       <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
         <v>5</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>3</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -10722,22 +10759,22 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C245" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D245">
         <v>3001</v>
       </c>
       <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
         <v>3</v>
-      </c>
-      <c r="F245">
-        <v>2</v>
-      </c>
-      <c r="G245">
-        <v>1.5</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -10745,19 +10782,19 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C246" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D246">
         <v>3001</v>
       </c>
       <c r="E246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -10768,22 +10805,22 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C247" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D247">
         <v>3001</v>
       </c>
       <c r="E247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F247">
         <v>2</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -10791,50 +10828,56 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>9001</v>
+        <v>8044</v>
       </c>
       <c r="C248" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D248">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="K248">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>9002</v>
+        <v>8045</v>
       </c>
       <c r="C249" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D249">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G249">
+        <v>3</v>
+      </c>
+      <c r="K249">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C250" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D250">
         <v>4000</v>
@@ -10851,10 +10894,10 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C251" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D251">
         <v>4000</v>
@@ -10871,10 +10914,10 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C252" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D252">
         <v>4000</v>
@@ -10891,10 +10934,10 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="C253" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D253">
         <v>4000</v>
@@ -10911,13 +10954,13 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>9999</v>
+        <v>9005</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D254">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -10927,43 +10970,83 @@
       </c>
       <c r="G254">
         <v>1</v>
-      </c>
-      <c r="J254">
-        <v>0</v>
-      </c>
-      <c r="K254">
-        <v>0</v>
-      </c>
-      <c r="L254">
-        <v>0</v>
-      </c>
-      <c r="M254">
-        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255">
+        <v>9006</v>
+      </c>
+      <c r="C255" t="s">
+        <v>207</v>
+      </c>
+      <c r="D255">
+        <v>4000</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>9999</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256">
+        <v>9999</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A257">
         <v>10000</v>
       </c>
-      <c r="D255">
+      <c r="D257">
         <v>10000</v>
       </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="J255">
-        <v>0</v>
-      </c>
-      <c r="K255">
-        <v>0</v>
-      </c>
-      <c r="M255">
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="M257">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF35444B-D965-4A53-A6DC-7EEA6E7084E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555618AE-6AB3-40FF-ABCF-AD3B65A58610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="314">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1250,6 +1250,16 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_206</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_207</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_208</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/shop_3d_102</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1381,8 +1391,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M257" totalsRowShown="0">
-  <autoFilter ref="A1:M257" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M260" totalsRowShown="0">
+  <autoFilter ref="A1:M260" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1699,13 +1709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C236" sqref="C236"/>
+      <selection pane="bottomRight" activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10550,13 +10560,16 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>8001</v>
+        <v>7033</v>
+      </c>
+      <c r="B235">
+        <v>7033</v>
       </c>
       <c r="C235" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="D235">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E235">
         <v>2</v>
@@ -10565,18 +10578,36 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>8002</v>
+        <v>7034</v>
+      </c>
+      <c r="B236">
+        <v>7034</v>
       </c>
       <c r="C236" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="D236">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -10585,15 +10616,30 @@
         <v>2</v>
       </c>
       <c r="G236">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C237" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D237">
         <v>3000</v>
@@ -10610,10 +10656,10 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C238" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D238">
         <v>3000</v>
@@ -10630,10 +10676,10 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C239" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D239">
         <v>3000</v>
@@ -10650,10 +10696,10 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C240" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D240">
         <v>3000</v>
@@ -10665,15 +10711,15 @@
         <v>2</v>
       </c>
       <c r="G240">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8013</v>
+        <v>8005</v>
       </c>
       <c r="C241" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D241">
         <v>3000</v>
@@ -10685,61 +10731,55 @@
         <v>2</v>
       </c>
       <c r="G241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>8010</v>
+      </c>
+      <c r="C242" t="s">
+        <v>139</v>
+      </c>
+      <c r="D242">
+        <v>3000</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>8013</v>
+      </c>
+      <c r="C243" t="s">
+        <v>140</v>
+      </c>
+      <c r="D243">
+        <v>3000</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A244">
         <v>8020</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C244" t="s">
         <v>141</v>
-      </c>
-      <c r="D242">
-        <v>3001</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="K242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243">
-        <v>8030</v>
-      </c>
-      <c r="C243" t="s">
-        <v>142</v>
-      </c>
-      <c r="D243">
-        <v>3001</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>5</v>
-      </c>
-      <c r="K243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244">
-        <v>8031</v>
-      </c>
-      <c r="C244" t="s">
-        <v>143</v>
       </c>
       <c r="D244">
         <v>3001</v>
@@ -10751,96 +10791,96 @@
         <v>1</v>
       </c>
       <c r="G244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8041</v>
+        <v>8030</v>
       </c>
       <c r="C245" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D245">
         <v>3001</v>
       </c>
       <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
         <v>5</v>
       </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>3</v>
-      </c>
       <c r="K245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8042</v>
+        <v>8031</v>
       </c>
       <c r="C246" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D246">
         <v>3001</v>
       </c>
       <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
         <v>5</v>
       </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>3</v>
-      </c>
       <c r="K246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C247" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D247">
         <v>3001</v>
       </c>
       <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
         <v>3</v>
       </c>
-      <c r="F247">
-        <v>2</v>
-      </c>
-      <c r="G247">
-        <v>1.5</v>
-      </c>
       <c r="K247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C248" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D248">
         <v>3001</v>
       </c>
       <c r="E248">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -10849,95 +10889,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C249" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D249">
         <v>3001</v>
       </c>
       <c r="E249">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F249">
         <v>2</v>
       </c>
       <c r="G249">
+        <v>1.5</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>8044</v>
+      </c>
+      <c r="C250" t="s">
+        <v>153</v>
+      </c>
+      <c r="D250">
+        <v>3001</v>
+      </c>
+      <c r="E250">
         <v>3</v>
       </c>
-      <c r="K249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A250">
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>8045</v>
+      </c>
+      <c r="C251" t="s">
+        <v>151</v>
+      </c>
+      <c r="D251">
+        <v>3001</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>8046</v>
+      </c>
+      <c r="C252" t="s">
+        <v>313</v>
+      </c>
+      <c r="D252">
+        <v>3001</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A253">
         <v>9001</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C253" t="s">
         <v>202</v>
-      </c>
-      <c r="D250">
-        <v>4000</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251">
-        <v>9002</v>
-      </c>
-      <c r="C251" t="s">
-        <v>203</v>
-      </c>
-      <c r="D251">
-        <v>4000</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252">
-        <v>9003</v>
-      </c>
-      <c r="C252" t="s">
-        <v>204</v>
-      </c>
-      <c r="D252">
-        <v>4000</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A253">
-        <v>9004</v>
-      </c>
-      <c r="C253" t="s">
-        <v>205</v>
       </c>
       <c r="D253">
         <v>4000</v>
@@ -10952,12 +11001,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>9005</v>
+        <v>9002</v>
       </c>
       <c r="C254" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D254">
         <v>4000</v>
@@ -10972,12 +11021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>9006</v>
+        <v>9003</v>
       </c>
       <c r="C255" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D255">
         <v>4000</v>
@@ -10992,15 +11041,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>9999</v>
+        <v>9004</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="D256">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -11010,43 +11059,103 @@
       </c>
       <c r="G256">
         <v>1</v>
-      </c>
-      <c r="J256">
-        <v>0</v>
-      </c>
-      <c r="K256">
-        <v>0</v>
-      </c>
-      <c r="L256">
-        <v>0</v>
-      </c>
-      <c r="M256">
-        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257">
+        <v>9005</v>
+      </c>
+      <c r="C257" t="s">
+        <v>206</v>
+      </c>
+      <c r="D257">
+        <v>4000</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>9006</v>
+      </c>
+      <c r="C258" t="s">
+        <v>207</v>
+      </c>
+      <c r="D258">
+        <v>4000</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>9999</v>
+      </c>
+      <c r="C259" t="s">
+        <v>36</v>
+      </c>
+      <c r="D259">
+        <v>9999</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260">
         <v>10000</v>
       </c>
-      <c r="D257">
+      <c r="D260">
         <v>10000</v>
       </c>
-      <c r="E257">
-        <v>1</v>
-      </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-      <c r="J257">
-        <v>0</v>
-      </c>
-      <c r="K257">
-        <v>0</v>
-      </c>
-      <c r="M257">
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="M260">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555618AE-6AB3-40FF-ABCF-AD3B65A58610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31978387-DE6A-48B4-A748-C79CCBD19FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="315">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1259,6 +1259,13 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/shop_3d_102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1712,10 +1719,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G252" sqref="G252"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2444,7 +2451,7 @@
         <v>38</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2468,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -11316,10 +11323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11395,161 +11402,169 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2000</v>
+        <v>1007</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>3000</v>
+        <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>4000</v>
+        <v>3003</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
+        <v>4000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>9999</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31978387-DE6A-48B4-A748-C79CCBD19FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F8D2E-04AD-4256-A3EF-7E543D831E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="317">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1265,6 +1265,19 @@
     <t>水ブロック</t>
     <rPh sb="0" eb="1">
       <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_002</t>
+  </si>
+  <si>
+    <t>装備作業台</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サギョウダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1398,8 +1411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M260" totalsRowShown="0">
-  <autoFilter ref="A1:M260" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M261" totalsRowShown="0">
+  <autoFilter ref="A1:M261" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1716,13 +1729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="N198" sqref="N198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9191,25 +9204,25 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5100</v>
+        <v>5009</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="D198">
-        <v>2100</v>
+        <v>1008</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -9224,30 +9237,30 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D199">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -9256,36 +9269,36 @@
         <v>1</v>
       </c>
       <c r="K199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199">
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D200">
         <v>3001</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -9297,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -9305,13 +9318,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D201">
         <v>3001</v>
@@ -9342,23 +9355,23 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A202" s="4">
-        <v>5200</v>
+      <c r="A202">
+        <v>5103</v>
       </c>
       <c r="B202">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D202">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -9370,10 +9383,10 @@
         <v>1</v>
       </c>
       <c r="K202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -9381,13 +9394,13 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B203">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D203">
         <v>2001</v>
@@ -9419,13 +9432,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B204">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D204">
         <v>2001</v>
@@ -9457,13 +9470,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B205">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D205">
         <v>2001</v>
@@ -9495,13 +9508,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B206">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D206">
         <v>2001</v>
@@ -9533,13 +9546,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B207">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9571,13 +9584,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B208">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9609,13 +9622,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B209">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D209">
         <v>2001</v>
@@ -9647,13 +9660,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B210">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D210">
         <v>2001</v>
@@ -9685,13 +9698,13 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B211">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D211">
         <v>2001</v>
@@ -9722,26 +9735,26 @@
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212">
-        <v>6000</v>
+      <c r="A212" s="4">
+        <v>5209</v>
       </c>
       <c r="B212">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D212">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -9761,25 +9774,31 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B213">
+        <v>3003</v>
       </c>
       <c r="C213" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D213">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213">
+        <v>3</v>
+      </c>
+      <c r="H213">
         <v>1</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213">
         <v>1</v>
@@ -9793,13 +9812,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C214" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D214">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9825,13 +9844,13 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D215">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9857,13 +9876,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D216">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9889,13 +9908,13 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C217" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D217">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9921,31 +9940,25 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>7016</v>
-      </c>
-      <c r="B218">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D218">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
         <v>1</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <v>1</v>
@@ -9959,13 +9972,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B219">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C219" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D219">
         <v>3003</v>
@@ -9997,25 +10010,25 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B220">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C220" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D220">
         <v>3003</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -10035,22 +10048,22 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B221">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C221" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D221">
         <v>3003</v>
       </c>
       <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
         <v>3</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -10073,19 +10086,19 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B222">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C222" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D222">
         <v>3003</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -10111,13 +10124,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B223">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C223" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D223">
         <v>3003</v>
@@ -10149,13 +10162,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B224">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C224" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D224">
         <v>3003</v>
@@ -10187,13 +10200,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B225">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C225" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D225">
         <v>3003</v>
@@ -10225,13 +10238,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B226">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C226" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D226">
         <v>3003</v>
@@ -10263,13 +10276,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B227">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C227" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D227">
         <v>3003</v>
@@ -10301,19 +10314,19 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B228">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C228" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D228">
         <v>3003</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -10339,13 +10352,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B229">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C229" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D229">
         <v>3003</v>
@@ -10377,13 +10390,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B230">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C230" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D230">
         <v>3003</v>
@@ -10415,13 +10428,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B231">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C231" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D231">
         <v>3003</v>
@@ -10453,13 +10466,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B232">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C232" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D232">
         <v>3003</v>
@@ -10491,13 +10504,13 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="B233">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="C233" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="D233">
         <v>3003</v>
@@ -10506,10 +10519,10 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -10529,13 +10542,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B234">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10547,7 +10560,7 @@
         <v>2</v>
       </c>
       <c r="G234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -10567,13 +10580,13 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="B235">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="C235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D235">
         <v>3003</v>
@@ -10585,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -10605,13 +10618,13 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="B236">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="C236" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D236">
         <v>3003</v>
@@ -10643,13 +10656,16 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>8001</v>
+        <v>7034</v>
+      </c>
+      <c r="B237">
+        <v>7034</v>
       </c>
       <c r="C237" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="D237">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E237">
         <v>2</v>
@@ -10658,15 +10674,30 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C238" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D238">
         <v>3000</v>
@@ -10683,10 +10714,10 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C239" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D239">
         <v>3000</v>
@@ -10703,10 +10734,10 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C240" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D240">
         <v>3000</v>
@@ -10723,10 +10754,10 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C241" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D241">
         <v>3000</v>
@@ -10743,10 +10774,10 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D242">
         <v>3000</v>
@@ -10758,15 +10789,15 @@
         <v>2</v>
       </c>
       <c r="G242">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C243" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D243">
         <v>3000</v>
@@ -10783,33 +10814,30 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C244" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D244">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="K244">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C245" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D245">
         <v>3001</v>
@@ -10821,7 +10849,7 @@
         <v>1</v>
       </c>
       <c r="G245">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -10829,10 +10857,10 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D246">
         <v>3001</v>
@@ -10852,22 +10880,22 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C247" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D247">
         <v>3001</v>
       </c>
       <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
         <v>5</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>3</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -10875,10 +10903,10 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C248" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D248">
         <v>3001</v>
@@ -10898,22 +10926,22 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C249" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D249">
         <v>3001</v>
       </c>
       <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
         <v>3</v>
-      </c>
-      <c r="F249">
-        <v>2</v>
-      </c>
-      <c r="G249">
-        <v>1.5</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -10921,10 +10949,10 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C250" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D250">
         <v>3001</v>
@@ -10933,10 +10961,10 @@
         <v>3</v>
       </c>
       <c r="F250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G250">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -10944,19 +10972,19 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C251" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D251">
         <v>3001</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G251">
         <v>3</v>
@@ -10967,16 +10995,16 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8046</v>
+        <v>8045</v>
       </c>
       <c r="C252" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="D252">
         <v>3001</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -10990,30 +11018,33 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>9001</v>
+        <v>8046</v>
       </c>
       <c r="C253" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="D253">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="K253">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C254" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D254">
         <v>4000</v>
@@ -11030,10 +11061,10 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C255" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D255">
         <v>4000</v>
@@ -11050,10 +11081,10 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C256" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D256">
         <v>4000</v>
@@ -11070,10 +11101,10 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C257" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D257">
         <v>4000</v>
@@ -11090,10 +11121,10 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C258" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D258">
         <v>4000</v>
@@ -11110,13 +11141,13 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>9999</v>
+        <v>9006</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="D259">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -11126,43 +11157,63 @@
       </c>
       <c r="G259">
         <v>1</v>
-      </c>
-      <c r="J259">
-        <v>0</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259">
-        <v>0</v>
-      </c>
-      <c r="M259">
-        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260">
+        <v>9999</v>
+      </c>
+      <c r="C260" t="s">
+        <v>36</v>
+      </c>
+      <c r="D260">
+        <v>9999</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261">
         <v>10000</v>
       </c>
-      <c r="D260">
+      <c r="D261">
         <v>10000</v>
       </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-      <c r="J260">
-        <v>0</v>
-      </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="M260">
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="M261">
         <v>1</v>
       </c>
     </row>
@@ -11323,10 +11374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11498,73 +11549,81 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2000</v>
+        <v>1008</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>3000</v>
+        <v>2101</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>4000</v>
+        <v>3003</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
+        <v>4000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>9999</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F8D2E-04AD-4256-A3EF-7E543D831E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16D142-FCD0-45BD-8BF9-4E25A71F384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="317">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1269,15 +1269,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/object_3d_002</t>
-  </si>
-  <si>
     <t>装備作業台</t>
     <rPh sb="0" eb="2">
       <t>ソウビ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>サギョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理台</t>
+    <rPh sb="0" eb="3">
+      <t>リョウリダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1411,8 +1415,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M261" totalsRowShown="0">
-  <autoFilter ref="A1:M261" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M262" totalsRowShown="0">
+  <autoFilter ref="A1:M262" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1729,13 +1733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M261"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N198" sqref="N198"/>
+      <selection pane="bottomRight" activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9210,7 +9214,7 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="D198">
         <v>1008</v>
@@ -9242,25 +9246,25 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5100</v>
+        <v>5010</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D199">
-        <v>2100</v>
+        <v>1009</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -9275,30 +9279,30 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D200">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -9307,36 +9311,36 @@
         <v>1</v>
       </c>
       <c r="K200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B201">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D201">
         <v>3001</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -9348,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -9356,13 +9360,13 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D202">
         <v>3001</v>
@@ -9393,23 +9397,23 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A203" s="4">
-        <v>5200</v>
+      <c r="A203">
+        <v>5103</v>
       </c>
       <c r="B203">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D203">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -9421,10 +9425,10 @@
         <v>1</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -9432,13 +9436,13 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B204">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D204">
         <v>2001</v>
@@ -9470,13 +9474,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B205">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D205">
         <v>2001</v>
@@ -9508,13 +9512,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B206">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D206">
         <v>2001</v>
@@ -9546,13 +9550,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B207">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9584,13 +9588,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B208">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9622,13 +9626,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B209">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D209">
         <v>2001</v>
@@ -9660,13 +9664,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B210">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D210">
         <v>2001</v>
@@ -9698,13 +9702,13 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B211">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D211">
         <v>2001</v>
@@ -9736,13 +9740,13 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B212">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D212">
         <v>2001</v>
@@ -9773,26 +9777,26 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213">
-        <v>6000</v>
+      <c r="A213" s="4">
+        <v>5209</v>
       </c>
       <c r="B213">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C213" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D213">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -9812,25 +9816,31 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B214">
+        <v>3003</v>
       </c>
       <c r="C214" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D214">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F214">
         <v>1</v>
       </c>
       <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
         <v>1</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214">
         <v>1</v>
@@ -9844,13 +9854,13 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C215" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D215">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9876,13 +9886,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C216" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D216">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9908,13 +9918,13 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C217" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D217">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9940,13 +9950,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D218">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9972,31 +9982,25 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>7016</v>
-      </c>
-      <c r="B219">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D219">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G219">
-        <v>2</v>
-      </c>
-      <c r="H219">
         <v>1</v>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K219">
         <v>1</v>
@@ -10010,13 +10014,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B220">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C220" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D220">
         <v>3003</v>
@@ -10048,25 +10052,25 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B221">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C221" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D221">
         <v>3003</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -10086,22 +10090,22 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B222">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C222" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D222">
         <v>3003</v>
       </c>
       <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
         <v>3</v>
-      </c>
-      <c r="F222">
-        <v>1</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -10124,19 +10128,19 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B223">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D223">
         <v>3003</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -10162,13 +10166,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B224">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C224" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D224">
         <v>3003</v>
@@ -10200,13 +10204,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B225">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C225" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D225">
         <v>3003</v>
@@ -10238,13 +10242,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B226">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C226" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D226">
         <v>3003</v>
@@ -10276,13 +10280,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B227">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C227" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D227">
         <v>3003</v>
@@ -10314,13 +10318,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B228">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C228" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D228">
         <v>3003</v>
@@ -10352,19 +10356,19 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B229">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C229" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D229">
         <v>3003</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -10390,13 +10394,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B230">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C230" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D230">
         <v>3003</v>
@@ -10428,13 +10432,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B231">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C231" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D231">
         <v>3003</v>
@@ -10466,13 +10470,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B232">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D232">
         <v>3003</v>
@@ -10504,13 +10508,13 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B233">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C233" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D233">
         <v>3003</v>
@@ -10542,13 +10546,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="B234">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="C234" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10557,10 +10561,10 @@
         <v>2</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -10580,13 +10584,13 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B235">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="C235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D235">
         <v>3003</v>
@@ -10598,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -10618,13 +10622,13 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="B236">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="C236" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D236">
         <v>3003</v>
@@ -10636,7 +10640,7 @@
         <v>2</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -10656,13 +10660,13 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="B237">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="C237" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D237">
         <v>3003</v>
@@ -10694,13 +10698,16 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>8001</v>
+        <v>7034</v>
+      </c>
+      <c r="B238">
+        <v>7034</v>
       </c>
       <c r="C238" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="D238">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E238">
         <v>2</v>
@@ -10709,15 +10716,30 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C239" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D239">
         <v>3000</v>
@@ -10734,10 +10756,10 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C240" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D240">
         <v>3000</v>
@@ -10754,10 +10776,10 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C241" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D241">
         <v>3000</v>
@@ -10774,10 +10796,10 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C242" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D242">
         <v>3000</v>
@@ -10794,10 +10816,10 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C243" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D243">
         <v>3000</v>
@@ -10809,15 +10831,15 @@
         <v>2</v>
       </c>
       <c r="G243">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C244" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D244">
         <v>3000</v>
@@ -10834,33 +10856,30 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C245" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D245">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G245">
-        <v>1</v>
-      </c>
-      <c r="K245">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D246">
         <v>3001</v>
@@ -10872,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="G246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -10880,10 +10899,10 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C247" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D247">
         <v>3001</v>
@@ -10903,22 +10922,22 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C248" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D248">
         <v>3001</v>
       </c>
       <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
         <v>5</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>3</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -10926,10 +10945,10 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C249" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D249">
         <v>3001</v>
@@ -10949,22 +10968,22 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C250" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D250">
         <v>3001</v>
       </c>
       <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
         <v>3</v>
-      </c>
-      <c r="F250">
-        <v>2</v>
-      </c>
-      <c r="G250">
-        <v>1.5</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -10972,10 +10991,10 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C251" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D251">
         <v>3001</v>
@@ -10984,10 +11003,10 @@
         <v>3</v>
       </c>
       <c r="F251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G251">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -10995,19 +11014,19 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C252" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D252">
         <v>3001</v>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -11018,16 +11037,16 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>8046</v>
+        <v>8045</v>
       </c>
       <c r="C253" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="D253">
         <v>3001</v>
       </c>
       <c r="E253">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -11041,30 +11060,33 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>9001</v>
+        <v>8046</v>
       </c>
       <c r="C254" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="D254">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254">
+        <v>3</v>
+      </c>
+      <c r="K254">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C255" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D255">
         <v>4000</v>
@@ -11081,10 +11103,10 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C256" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D256">
         <v>4000</v>
@@ -11101,10 +11123,10 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C257" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D257">
         <v>4000</v>
@@ -11121,10 +11143,10 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C258" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D258">
         <v>4000</v>
@@ -11141,10 +11163,10 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C259" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D259">
         <v>4000</v>
@@ -11161,13 +11183,13 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>9999</v>
+        <v>9006</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="D260">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -11177,43 +11199,63 @@
       </c>
       <c r="G260">
         <v>1</v>
-      </c>
-      <c r="J260">
-        <v>0</v>
-      </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260">
-        <v>0</v>
-      </c>
-      <c r="M260">
-        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261">
+        <v>9999</v>
+      </c>
+      <c r="C261" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261">
+        <v>9999</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262">
         <v>10000</v>
       </c>
-      <c r="D261">
+      <c r="D262">
         <v>10000</v>
       </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="J261">
-        <v>0</v>
-      </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-      <c r="M261">
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="M262">
         <v>1</v>
       </c>
     </row>
@@ -11374,10 +11416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11552,78 +11594,86 @@
         <v>1008</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>2000</v>
+        <v>1009</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>3000</v>
+        <v>2101</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>4000</v>
+        <v>3003</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
+        <v>4000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>9999</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16D142-FCD0-45BD-8BF9-4E25A71F384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B8444-3B45-4C44-9678-4378CB32A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="319">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1283,6 +1283,13 @@
     <rPh sb="0" eb="3">
       <t>リョウリダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_304</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_303</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1415,8 +1422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M262" totalsRowShown="0">
-  <autoFilter ref="A1:M262" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M264" totalsRowShown="0">
+  <autoFilter ref="A1:M264" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1733,13 +1740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K201" sqref="K201"/>
+      <selection pane="bottomRight" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8492,13 +8499,13 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>1999</v>
+        <v>1803</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="D179">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8509,28 +8516,31 @@
       <c r="G179">
         <v>1</v>
       </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>2000</v>
+        <v>1804</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="D180">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8539,19 +8549,16 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180">
         <v>1</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
         <v>0</v>
@@ -8562,13 +8569,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D181">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8577,33 +8584,27 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>5</v>
-      </c>
-      <c r="H181">
-        <v>1.5</v>
-      </c>
-      <c r="I181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D182">
         <v>100</v>
@@ -8618,10 +8619,10 @@
         <v>5</v>
       </c>
       <c r="H182">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -8638,28 +8639,28 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D183">
         <v>100</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -8676,28 +8677,28 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D184">
         <v>100</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -8714,10 +8715,10 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D185">
         <v>100</v>
@@ -8735,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -8752,10 +8753,10 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D186">
         <v>100</v>
@@ -8773,7 +8774,7 @@
         <v>2</v>
       </c>
       <c r="I186">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -8790,10 +8791,10 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C187" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D187">
         <v>100</v>
@@ -8808,10 +8809,10 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -8828,10 +8829,10 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C188" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="D188">
         <v>100</v>
@@ -8849,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="I188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -8866,28 +8867,28 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C189" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D189">
         <v>100</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -8904,13 +8905,13 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>2100</v>
+        <v>2008</v>
       </c>
       <c r="C190" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="D190">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -8919,19 +8920,19 @@
         <v>2</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J190">
         <v>1</v>
       </c>
       <c r="K190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190">
         <v>0</v>
@@ -8942,34 +8943,34 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>2101</v>
+        <v>2009</v>
       </c>
       <c r="C191" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="D191">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J191">
         <v>1</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -8980,10 +8981,10 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="C192" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D192">
         <v>110</v>
@@ -9001,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -9018,66 +9019,66 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>3000</v>
-      </c>
-      <c r="B193">
-        <v>700</v>
+        <v>2101</v>
       </c>
       <c r="C193" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>5000</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="D194">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>1</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -9094,54 +9095,54 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>5001</v>
+        <v>3000</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="D195">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J195">
         <v>1</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D196">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9150,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -9162,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -9170,22 +9171,22 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D197">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -9200,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -9208,22 +9209,22 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5009</v>
+        <v>5002</v>
       </c>
       <c r="B198">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D198">
-        <v>1008</v>
+        <v>2000</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -9238,7 +9239,7 @@
         <v>1</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -9246,22 +9247,22 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5010</v>
+        <v>5003</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D199">
-        <v>1009</v>
+        <v>2000</v>
       </c>
       <c r="E199">
         <v>2</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -9276,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="L199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -9284,25 +9285,25 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5100</v>
+        <v>5009</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D200">
-        <v>2100</v>
+        <v>1008</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -9317,21 +9318,21 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>5101</v>
+        <v>5010</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D201">
-        <v>3001</v>
+        <v>1009</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9349,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -9360,16 +9361,16 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B202">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D202">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9387,36 +9388,36 @@
         <v>1</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B203">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D203">
         <v>3001</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -9428,30 +9429,30 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A204" s="4">
-        <v>5200</v>
+      <c r="A204">
+        <v>5102</v>
       </c>
       <c r="B204">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D204">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -9463,33 +9464,33 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A205" s="4">
-        <v>5201</v>
+      <c r="A205">
+        <v>5103</v>
       </c>
       <c r="B205">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D205">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -9501,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="K205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -9512,13 +9513,13 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="4">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="B206">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D206">
         <v>2001</v>
@@ -9550,13 +9551,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B207">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C207" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9588,13 +9589,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B208">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C208" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9626,13 +9627,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B209">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C209" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D209">
         <v>2001</v>
@@ -9664,13 +9665,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B210">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D210">
         <v>2001</v>
@@ -9702,13 +9703,13 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B211">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D211">
         <v>2001</v>
@@ -9740,13 +9741,13 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B212">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D212">
         <v>2001</v>
@@ -9778,13 +9779,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="4">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B213">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C213" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D213">
         <v>2001</v>
@@ -9815,26 +9816,26 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A214">
-        <v>6000</v>
+      <c r="A214" s="4">
+        <v>5208</v>
       </c>
       <c r="B214">
-        <v>3003</v>
+        <v>208</v>
       </c>
       <c r="C214" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="D214">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -9853,26 +9854,32 @@
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215">
-        <v>6001</v>
+      <c r="A215" s="4">
+        <v>5209</v>
+      </c>
+      <c r="B215">
+        <v>209</v>
       </c>
       <c r="C215" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D215">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <v>1</v>
       </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -9886,25 +9893,31 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>6002</v>
+        <v>6000</v>
+      </c>
+      <c r="B216">
+        <v>3003</v>
       </c>
       <c r="C216" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D216">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
       <c r="G216">
+        <v>3</v>
+      </c>
+      <c r="H216">
         <v>1</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216">
         <v>1</v>
@@ -9918,13 +9931,13 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="C217" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D217">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9950,13 +9963,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="C218" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D218">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9982,13 +9995,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D219">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -10014,31 +10027,25 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>7016</v>
-      </c>
-      <c r="B220">
-        <v>7016</v>
+        <v>6004</v>
       </c>
       <c r="C220" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D220">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
         <v>1</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220">
         <v>1</v>
@@ -10052,31 +10059,25 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>7017</v>
-      </c>
-      <c r="B221">
-        <v>7017</v>
+        <v>6005</v>
       </c>
       <c r="C221" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D221">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="H221">
         <v>1</v>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -10090,25 +10091,25 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B222">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="C222" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D222">
         <v>3003</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -10128,25 +10129,25 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B223">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C223" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D223">
         <v>3003</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -10166,13 +10167,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="B224">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="C224" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D224">
         <v>3003</v>
@@ -10181,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -10204,19 +10205,19 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="B225">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C225" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D225">
         <v>3003</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -10242,13 +10243,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="B226">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="C226" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D226">
         <v>3003</v>
@@ -10280,13 +10281,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="B227">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C227" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D227">
         <v>3003</v>
@@ -10318,13 +10319,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="B228">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="C228" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D228">
         <v>3003</v>
@@ -10356,13 +10357,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="B229">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C229" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D229">
         <v>3003</v>
@@ -10394,19 +10395,19 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="B230">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="C230" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D230">
         <v>3003</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -10432,19 +10433,19 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="B231">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C231" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D231">
         <v>3003</v>
       </c>
       <c r="E231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -10470,13 +10471,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="B232">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="C232" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D232">
         <v>3003</v>
@@ -10508,13 +10509,13 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="B233">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C233" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D233">
         <v>3003</v>
@@ -10546,13 +10547,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="B234">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="C234" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10584,13 +10585,13 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="B235">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="C235" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="D235">
         <v>3003</v>
@@ -10599,10 +10600,10 @@
         <v>2</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -10622,13 +10623,13 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="B236">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="C236" t="s">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="D236">
         <v>3003</v>
@@ -10637,10 +10638,10 @@
         <v>2</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -10660,13 +10661,13 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="B237">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="C237" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D237">
         <v>3003</v>
@@ -10678,7 +10679,7 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -10698,13 +10699,13 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="B238">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="C238" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D238">
         <v>3003</v>
@@ -10716,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -10736,13 +10737,16 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>8001</v>
+        <v>7033</v>
+      </c>
+      <c r="B239">
+        <v>7033</v>
       </c>
       <c r="C239" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
       <c r="D239">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -10751,18 +10755,36 @@
         <v>2</v>
       </c>
       <c r="G239">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>8002</v>
+        <v>7034</v>
+      </c>
+      <c r="B240">
+        <v>7034</v>
       </c>
       <c r="C240" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="D240">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -10771,15 +10793,30 @@
         <v>2</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C241" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D241">
         <v>3000</v>
@@ -10796,10 +10833,10 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8004</v>
+        <v>8002</v>
       </c>
       <c r="C242" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D242">
         <v>3000</v>
@@ -10816,10 +10853,10 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8005</v>
+        <v>8003</v>
       </c>
       <c r="C243" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D243">
         <v>3000</v>
@@ -10836,10 +10873,10 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8010</v>
+        <v>8004</v>
       </c>
       <c r="C244" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D244">
         <v>3000</v>
@@ -10851,15 +10888,15 @@
         <v>2</v>
       </c>
       <c r="G244">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8013</v>
+        <v>8005</v>
       </c>
       <c r="C245" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D245">
         <v>3000</v>
@@ -10871,61 +10908,55 @@
         <v>2</v>
       </c>
       <c r="G245">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8020</v>
+        <v>8010</v>
       </c>
       <c r="C246" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D246">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="K246">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8030</v>
+        <v>8013</v>
       </c>
       <c r="C247" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D247">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G247">
-        <v>5</v>
-      </c>
-      <c r="K247">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>8031</v>
+        <v>8020</v>
       </c>
       <c r="C248" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D248">
         <v>3001</v>
@@ -10937,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="G248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -10945,22 +10976,22 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>8041</v>
+        <v>8030</v>
       </c>
       <c r="C249" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D249">
         <v>3001</v>
       </c>
       <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
         <v>5</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>3</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -10968,22 +10999,22 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>8042</v>
+        <v>8031</v>
       </c>
       <c r="C250" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D250">
         <v>3001</v>
       </c>
       <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
         <v>5</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>3</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -10991,22 +11022,22 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>8043</v>
+        <v>8041</v>
       </c>
       <c r="C251" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D251">
         <v>3001</v>
       </c>
       <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
         <v>3</v>
-      </c>
-      <c r="F251">
-        <v>2</v>
-      </c>
-      <c r="G251">
-        <v>1.5</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -11014,19 +11045,19 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8044</v>
+        <v>8042</v>
       </c>
       <c r="C252" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D252">
         <v>3001</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -11037,22 +11068,22 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>8045</v>
+        <v>8043</v>
       </c>
       <c r="C253" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D253">
         <v>3001</v>
       </c>
       <c r="E253">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F253">
         <v>2</v>
       </c>
       <c r="G253">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -11060,19 +11091,19 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>8046</v>
+        <v>8044</v>
       </c>
       <c r="C254" t="s">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="D254">
         <v>3001</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G254">
         <v>3</v>
@@ -11083,50 +11114,56 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>9001</v>
+        <v>8045</v>
       </c>
       <c r="C255" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="D255">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="K255">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>9002</v>
+        <v>8046</v>
       </c>
       <c r="C256" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="D256">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="K256">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C257" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D257">
         <v>4000</v>
@@ -11143,10 +11180,10 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C258" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D258">
         <v>4000</v>
@@ -11163,10 +11200,10 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C259" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D259">
         <v>4000</v>
@@ -11183,10 +11220,10 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="C260" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D260">
         <v>4000</v>
@@ -11203,13 +11240,13 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>9999</v>
+        <v>9005</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D261">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -11219,43 +11256,83 @@
       </c>
       <c r="G261">
         <v>1</v>
-      </c>
-      <c r="J261">
-        <v>0</v>
-      </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-      <c r="L261">
-        <v>0</v>
-      </c>
-      <c r="M261">
-        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262">
+        <v>9006</v>
+      </c>
+      <c r="C262" t="s">
+        <v>207</v>
+      </c>
+      <c r="D262">
+        <v>4000</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>9999</v>
+      </c>
+      <c r="C263" t="s">
+        <v>36</v>
+      </c>
+      <c r="D263">
+        <v>9999</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264">
         <v>10000</v>
       </c>
-      <c r="D262">
+      <c r="D264">
         <v>10000</v>
       </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="J262">
-        <v>0</v>
-      </c>
-      <c r="K262">
-        <v>0</v>
-      </c>
-      <c r="M262">
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="M264">
         <v>1</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B8444-3B45-4C44-9678-4378CB32A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEFA99-6623-4A6D-8EB4-E59130C90B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -1743,10 +1743,10 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D187" sqref="D187"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3577,7 +3577,7 @@
         <v>183</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -11495,7 +11495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EEFA99-6623-4A6D-8EB4-E59130C90B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC6323-EBDF-481F-9BDA-014B7CDB93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1743,10 +1743,10 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10819,7 +10819,7 @@
         <v>134</v>
       </c>
       <c r="D241">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -10839,7 +10839,7 @@
         <v>135</v>
       </c>
       <c r="D242">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E242">
         <v>2</v>
@@ -10859,7 +10859,7 @@
         <v>136</v>
       </c>
       <c r="D243">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E243">
         <v>2</v>
@@ -10879,7 +10879,7 @@
         <v>137</v>
       </c>
       <c r="D244">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E244">
         <v>2</v>
@@ -10899,7 +10899,7 @@
         <v>138</v>
       </c>
       <c r="D245">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -10919,7 +10919,7 @@
         <v>139</v>
       </c>
       <c r="D246">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E246">
         <v>2</v>
@@ -10939,7 +10939,7 @@
         <v>140</v>
       </c>
       <c r="D247">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="E247">
         <v>2</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CC6323-EBDF-481F-9BDA-014B7CDB93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E672D4C3-6752-4062-9938-3BB74CA9BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="321">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1290,6 +1290,14 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_303</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_209</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_210</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1743,10 +1751,10 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9291,7 +9299,7 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="D200">
         <v>1008</v>
@@ -9329,7 +9337,7 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D201">
         <v>1009</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E672D4C3-6752-4062-9938-3BB74CA9BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49634EB8-DBDE-4686-8227-E26C21B385A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="324">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1298,6 +1298,24 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_210</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boxコライダーを使うブロック（向きなし）</t>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boxコライダーを使うブロック（向きあり）</t>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_000_1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1430,8 +1448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M264" totalsRowShown="0">
-  <autoFilter ref="A1:M264" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M265" totalsRowShown="0">
+  <autoFilter ref="A1:M265" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1748,13 +1766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F200" sqref="F200"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1828,31 +1846,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.7</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2056,13 +2056,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2322,16 +2322,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B16">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B18">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2436,16 +2436,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2474,16 +2474,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B20">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2504,24 +2504,24 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B21">
-        <v>389</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2542,24 +2542,24 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B23">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2626,13 +2626,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2664,13 +2664,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B26">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2778,13 +2778,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2816,16 +2816,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B29">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B30">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>3000</v>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B31">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>3000</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B32">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>3000</v>
@@ -2968,13 +2968,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B33">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -3006,13 +3006,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B34">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>3000</v>
@@ -3044,16 +3044,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1130</v>
+        <v>1039</v>
       </c>
       <c r="B35">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B36">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B37">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3158,13 +3158,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B38">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3196,13 +3196,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B39">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B40">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3272,13 +3272,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B41">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3310,13 +3310,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B42">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B43">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3386,13 +3386,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B44">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3424,16 +3424,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="B45">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -3462,13 +3462,13 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B46">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -3500,16 +3500,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B47">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3538,16 +3538,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B48">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B49">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3614,16 +3614,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B50">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3652,16 +3652,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B51">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3690,13 +3690,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B52">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -3728,13 +3728,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B53">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B54">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54">
         <v>8</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B55">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -3842,13 +3842,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B56">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B57">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B58">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3956,13 +3956,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B59">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -3994,13 +3994,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B60">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -4032,13 +4032,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B61">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -4070,13 +4070,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B62">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D62">
         <v>8</v>
@@ -4108,13 +4108,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B63">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -4146,13 +4146,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B64">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B65">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -4222,13 +4222,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B66">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -4260,13 +4260,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B67">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -4298,13 +4298,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B68">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -4336,13 +4336,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B69">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -4374,13 +4374,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B70">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B71">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -4450,13 +4450,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B72">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -4488,13 +4488,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B73">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B74">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B75">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -4602,13 +4602,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B76">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4640,13 +4640,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B77">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4678,13 +4678,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B78">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -4716,13 +4716,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B79">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4754,13 +4754,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B80">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -4792,13 +4792,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B81">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B82">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B83">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -4906,13 +4906,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B84">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B85">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -4982,13 +4982,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B86">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -5020,13 +5020,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B87">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -5058,13 +5058,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B88">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -5096,13 +5096,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B89">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5134,13 +5134,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B90">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B91">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B92">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5248,13 +5248,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B93">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -5286,13 +5286,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B94">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -5324,13 +5324,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B95">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5362,13 +5362,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B96">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -5400,13 +5400,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B97">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -5438,13 +5438,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B98">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -5476,13 +5476,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B99">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -5514,13 +5514,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B100">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -5552,13 +5552,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B101">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -5590,13 +5590,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B102">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B103">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -5666,13 +5666,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B104">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -5704,13 +5704,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B105">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5742,13 +5742,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B106">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B107">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -5818,13 +5818,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B108">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5856,13 +5856,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B109">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -5894,13 +5894,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B110">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -5932,13 +5932,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B111">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -5970,13 +5970,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B112">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -6008,13 +6008,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B113">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -6046,13 +6046,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B114">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -6084,13 +6084,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B115">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -6122,13 +6122,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B116">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B117">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -6198,13 +6198,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B118">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B119">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -6274,13 +6274,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B120">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -6312,13 +6312,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B121">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -6350,13 +6350,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B122">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -6388,13 +6388,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B123">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B124">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B125">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6502,13 +6502,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B126">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -6540,13 +6540,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B127">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -6578,13 +6578,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B128">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -6616,13 +6616,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B129">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -6654,13 +6654,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B130">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D130">
         <v>8</v>
@@ -6692,13 +6692,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B131">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -6730,13 +6730,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B132">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -6768,13 +6768,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B133">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -6806,13 +6806,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B134">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6844,13 +6844,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B135">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D135">
         <v>8</v>
@@ -6882,13 +6882,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B136">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -6920,13 +6920,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B137">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -6958,13 +6958,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B138">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -6996,13 +6996,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B139">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -7034,13 +7034,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B140">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D140">
         <v>8</v>
@@ -7072,13 +7072,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B141">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -7110,13 +7110,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B142">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C142" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -7148,13 +7148,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B143">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7186,13 +7186,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B144">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C144" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -7224,13 +7224,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B145">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -7262,13 +7262,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B146">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7300,13 +7300,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B147">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -7338,13 +7338,13 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B148">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -7376,13 +7376,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B149">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7414,13 +7414,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B150">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -7452,13 +7452,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B151">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -7490,13 +7490,13 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B152">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C152" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -7528,13 +7528,13 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B153">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -7566,13 +7566,13 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B154">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -7604,16 +7604,16 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1500</v>
+        <v>1288</v>
       </c>
       <c r="B155">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -7634,21 +7634,21 @@
         <v>1</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B156">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C156" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7680,13 +7680,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B157">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C157" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -7718,13 +7718,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B158">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7756,13 +7756,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B159">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C159" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -7794,13 +7794,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B160">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C160" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -7832,13 +7832,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B161">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7870,13 +7870,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B162">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -7908,13 +7908,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B163">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C163" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -7946,13 +7946,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B164">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -7984,28 +7984,28 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1550</v>
+        <v>1509</v>
       </c>
       <c r="B165">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -8022,13 +8022,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B166">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D166">
         <v>4</v>
@@ -8060,13 +8060,13 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B167">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -8098,13 +8098,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B168">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D168">
         <v>4</v>
@@ -8136,13 +8136,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B169">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C169" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -8174,13 +8174,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B170">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -8212,13 +8212,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B171">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -8250,13 +8250,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B172">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -8288,13 +8288,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B173">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C173" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D173">
         <v>4</v>
@@ -8326,13 +8326,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B174">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D174">
         <v>4</v>
@@ -8364,34 +8364,34 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1600</v>
+        <v>1559</v>
       </c>
       <c r="B175">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C175" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175">
         <v>0</v>
@@ -8402,13 +8402,16 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1800</v>
+        <v>1600</v>
+      </c>
+      <c r="B176">
+        <v>600</v>
       </c>
       <c r="C176" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="D176">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8420,13 +8423,13 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J176">
         <v>1</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -8437,10 +8440,10 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D177">
         <v>7</v>
@@ -8472,10 +8475,10 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C178" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D178">
         <v>7</v>
@@ -8507,10 +8510,10 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C179" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D179">
         <v>7</v>
@@ -8542,10 +8545,10 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D180">
         <v>7</v>
@@ -8577,13 +8580,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>1999</v>
+        <v>1804</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="D181">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8594,28 +8597,31 @@
       <c r="G181">
         <v>1</v>
       </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D182">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8624,33 +8630,27 @@
         <v>1</v>
       </c>
       <c r="G182">
-        <v>5</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
         <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D183">
         <v>100</v>
@@ -8665,10 +8665,10 @@
         <v>5</v>
       </c>
       <c r="H183">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -8685,10 +8685,10 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184">
         <v>100</v>
@@ -8703,10 +8703,10 @@
         <v>5</v>
       </c>
       <c r="H184">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -8723,28 +8723,28 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185">
         <v>100</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -8761,10 +8761,10 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D186">
         <v>100</v>
@@ -8782,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="I186">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -8799,10 +8799,10 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D187">
         <v>100</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="I187">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -8837,10 +8837,10 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188">
         <v>100</v>
@@ -8858,7 +8858,7 @@
         <v>2</v>
       </c>
       <c r="I188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -8875,10 +8875,10 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C189" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="D189">
         <v>100</v>
@@ -8893,10 +8893,10 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -8913,10 +8913,10 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D190">
         <v>100</v>
@@ -8931,10 +8931,10 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -8951,19 +8951,19 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C191" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D191">
         <v>100</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -8972,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="I191">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -8989,34 +8989,34 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>2100</v>
+        <v>2009</v>
       </c>
       <c r="C192" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D192">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
         <v>2</v>
       </c>
-      <c r="F192">
-        <v>2</v>
-      </c>
-      <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
       <c r="I192">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -9027,10 +9027,10 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D193">
         <v>110</v>
@@ -9048,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C194" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D194">
         <v>110</v>
@@ -9086,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -9103,54 +9103,54 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>3000</v>
-      </c>
-      <c r="B195">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C195" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D195">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
       </c>
       <c r="J195">
         <v>1</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="D196">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9162,42 +9162,42 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J196">
         <v>1</v>
       </c>
       <c r="K196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D197">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -9217,22 +9217,22 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -9247,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -9255,19 +9255,19 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199">
         <v>2000</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -9293,22 +9293,22 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="B200">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="D200">
-        <v>1008</v>
+        <v>2000</v>
       </c>
       <c r="E200">
         <v>2</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -9323,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -9331,16 +9331,16 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D201">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9369,25 +9369,25 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>5100</v>
+        <v>5010</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="D202">
-        <v>2100</v>
+        <v>1009</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -9402,30 +9402,30 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D203">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -9434,36 +9434,36 @@
         <v>1</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203">
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D204">
         <v>3001</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -9483,13 +9483,13 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D205">
         <v>3001</v>
@@ -9520,23 +9520,23 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A206" s="4">
-        <v>5200</v>
+      <c r="A206">
+        <v>5103</v>
       </c>
       <c r="B206">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D206">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -9548,10 +9548,10 @@
         <v>1</v>
       </c>
       <c r="K206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206">
         <v>0</v>
@@ -9559,13 +9559,13 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B207">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D207">
         <v>2001</v>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B208">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C208" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D208">
         <v>2001</v>
@@ -9635,13 +9635,13 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B209">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D209">
         <v>2001</v>
@@ -9673,13 +9673,13 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B210">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D210">
         <v>2001</v>
@@ -9711,13 +9711,13 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B211">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C211" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D211">
         <v>2001</v>
@@ -9749,13 +9749,13 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B212">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D212">
         <v>2001</v>
@@ -9787,13 +9787,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B213">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D213">
         <v>2001</v>
@@ -9825,13 +9825,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B214">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D214">
         <v>2001</v>
@@ -9863,13 +9863,13 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B215">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D215">
         <v>2001</v>
@@ -9900,26 +9900,26 @@
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216">
-        <v>6000</v>
+      <c r="A216" s="4">
+        <v>5209</v>
       </c>
       <c r="B216">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C216" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D216">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -9939,25 +9939,31 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B217">
+        <v>3003</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D217">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
       <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217">
         <v>1</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217">
         <v>1</v>
@@ -9971,13 +9977,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C218" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D218">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -10003,13 +10009,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C219" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D219">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -10035,13 +10041,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C220" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D220">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -10067,13 +10073,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C221" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D221">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -10099,31 +10105,25 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222">
-        <v>7016</v>
-      </c>
-      <c r="B222">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C222" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D222">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
         <v>1</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K222">
         <v>1</v>
@@ -10137,13 +10137,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B223">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C223" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D223">
         <v>3003</v>
@@ -10175,25 +10175,25 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B224">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C224" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D224">
         <v>3003</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -10213,22 +10213,22 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B225">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C225" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D225">
         <v>3003</v>
       </c>
       <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
         <v>3</v>
-      </c>
-      <c r="F225">
-        <v>1</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -10251,19 +10251,19 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B226">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D226">
         <v>3003</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -10289,13 +10289,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B227">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C227" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D227">
         <v>3003</v>
@@ -10327,13 +10327,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B228">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C228" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D228">
         <v>3003</v>
@@ -10365,13 +10365,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B229">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C229" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D229">
         <v>3003</v>
@@ -10403,13 +10403,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B230">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C230" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D230">
         <v>3003</v>
@@ -10441,13 +10441,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B231">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C231" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D231">
         <v>3003</v>
@@ -10479,19 +10479,19 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B232">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C232" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D232">
         <v>3003</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -10517,13 +10517,13 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B233">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C233" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D233">
         <v>3003</v>
@@ -10555,13 +10555,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B234">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C234" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10593,13 +10593,13 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B235">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C235" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D235">
         <v>3003</v>
@@ -10631,13 +10631,13 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B236">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C236" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D236">
         <v>3003</v>
@@ -10669,13 +10669,13 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="B237">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="C237" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="D237">
         <v>3003</v>
@@ -10684,10 +10684,10 @@
         <v>2</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -10707,13 +10707,13 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B238">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="C238" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D238">
         <v>3003</v>
@@ -10725,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -10745,13 +10745,13 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="B239">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="C239" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D239">
         <v>3003</v>
@@ -10763,7 +10763,7 @@
         <v>2</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -10783,13 +10783,13 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="B240">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="C240" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D240">
         <v>3003</v>
@@ -10819,12 +10819,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>8001</v>
+        <v>7034</v>
+      </c>
+      <c r="B241">
+        <v>7034</v>
       </c>
       <c r="C241" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="D241">
         <v>3003</v>
@@ -10836,15 +10839,30 @@
         <v>2</v>
       </c>
       <c r="G241">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C242" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D242">
         <v>3003</v>
@@ -10859,12 +10877,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C243" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D243">
         <v>3003</v>
@@ -10879,12 +10897,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C244" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D244">
         <v>3003</v>
@@ -10899,12 +10917,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C245" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D245">
         <v>3003</v>
@@ -10919,12 +10937,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C246" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D246">
         <v>3003</v>
@@ -10936,15 +10954,15 @@
         <v>2</v>
       </c>
       <c r="G246">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C247" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D247">
         <v>3003</v>
@@ -10959,35 +10977,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
+        <v>8013</v>
+      </c>
+      <c r="C248" t="s">
+        <v>140</v>
+      </c>
+      <c r="D248">
+        <v>3003</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249">
         <v>8020</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C249" t="s">
         <v>141</v>
-      </c>
-      <c r="D248">
-        <v>3001</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="K248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A249">
-        <v>8030</v>
-      </c>
-      <c r="C249" t="s">
-        <v>142</v>
       </c>
       <c r="D249">
         <v>3001</v>
@@ -10999,18 +11014,18 @@
         <v>1</v>
       </c>
       <c r="G249">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K249">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C250" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D250">
         <v>3001</v>
@@ -11028,35 +11043,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C251" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D251">
         <v>3001</v>
       </c>
       <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
         <v>5</v>
       </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>3</v>
-      </c>
       <c r="K251">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C252" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D252">
         <v>3001</v>
@@ -11074,35 +11089,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C253" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D253">
         <v>3001</v>
       </c>
       <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
         <v>3</v>
       </c>
-      <c r="F253">
-        <v>2</v>
-      </c>
-      <c r="G253">
-        <v>1.5</v>
-      </c>
       <c r="K253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C254" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D254">
         <v>3001</v>
@@ -11111,30 +11126,30 @@
         <v>3</v>
       </c>
       <c r="F254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C255" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D255">
         <v>3001</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -11143,18 +11158,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>8046</v>
+        <v>8045</v>
       </c>
       <c r="C256" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="D256">
         <v>3001</v>
       </c>
       <c r="E256">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -11168,30 +11183,33 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>9001</v>
+        <v>8046</v>
       </c>
       <c r="C257" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="D257">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G257">
+        <v>3</v>
+      </c>
+      <c r="K257">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C258" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D258">
         <v>4000</v>
@@ -11208,10 +11226,10 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C259" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D259">
         <v>4000</v>
@@ -11228,10 +11246,10 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C260" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D260">
         <v>4000</v>
@@ -11248,10 +11266,10 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D261">
         <v>4000</v>
@@ -11268,10 +11286,10 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D262">
         <v>4000</v>
@@ -11288,13 +11306,13 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>9999</v>
+        <v>9006</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="D263">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11304,43 +11322,63 @@
       </c>
       <c r="G263">
         <v>1</v>
-      </c>
-      <c r="J263">
-        <v>0</v>
-      </c>
-      <c r="K263">
-        <v>0</v>
-      </c>
-      <c r="L263">
-        <v>0</v>
-      </c>
-      <c r="M263">
-        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264">
+        <v>9999</v>
+      </c>
+      <c r="C264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264">
+        <v>9999</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A265">
         <v>10000</v>
       </c>
-      <c r="D264">
+      <c r="D265">
         <v>10000</v>
       </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264">
-        <v>1</v>
-      </c>
-      <c r="J264">
-        <v>0</v>
-      </c>
-      <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="M264">
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="M265">
         <v>1</v>
       </c>
     </row>
@@ -11501,10 +11539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11588,177 +11626,193 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1001</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>2000</v>
+        <v>1008</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2100</v>
+        <v>1009</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>2101</v>
+        <v>2000</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>3001</v>
+        <v>2101</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>4000</v>
+        <v>3002</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>3003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>9999</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49634EB8-DBDE-4686-8227-E26C21B385A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E411F-406B-4050-809C-40323D09A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="326">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1316,6 +1316,17 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_000_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量化</t>
+    <rPh sb="0" eb="3">
+      <t>ケイリョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1768,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
   <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11539,280 +11550,310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>99</v>
       </c>
       <c r="B13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1002</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1003</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1004</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1005</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1006</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1007</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1008</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1009</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2000</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2100</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2101</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3000</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3001</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3002</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3003</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>4000</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>9999</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E411F-406B-4050-809C-40323D09A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61DDC0-3F4A-4709-ABC5-49780D37FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="335">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1327,6 +1327,102 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量化できる条件：</t>
+    <rPh sb="0" eb="3">
+      <t>ケイリョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．半透明ブロック（葉、水）</t>
+    <rPh sb="2" eb="5">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．普通のCubブロック（石、土）</t>
+    <rPh sb="2" eb="4">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．機能があるけどObjectは普通のブロック（畑）</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．屋根、柵など大量のブロック</t>
+    <rPh sb="2" eb="4">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量化できない注意：</t>
+    <rPh sb="0" eb="3">
+      <t>ケイリョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．複数のObjectで構成したObject</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．複数のメッシュがあるObject</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．サイズ１マス以上のObject</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11550,10 +11646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11561,7 +11657,7 @@
     <col min="2" max="2" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11665,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11579,8 +11675,11 @@
       <c r="C2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11590,32 +11689,44 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11626,7 +11737,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11634,7 +11745,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11645,7 +11756,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11656,7 +11767,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11667,7 +11778,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11678,7 +11789,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>99</v>
       </c>
@@ -11689,7 +11800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>100</v>
       </c>
@@ -11697,7 +11808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>110</v>
       </c>
@@ -11705,7 +11816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -11713,39 +11824,51 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
       <c r="C17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1002</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1003</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1004</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -11753,7 +11876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -11761,7 +11884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1007</v>
       </c>
@@ -11769,7 +11892,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1008</v>
       </c>
@@ -11777,7 +11900,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1009</v>
       </c>
@@ -11785,7 +11908,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2000</v>
       </c>
@@ -11793,7 +11916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2100</v>
       </c>
@@ -11801,7 +11924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2101</v>
       </c>
@@ -11809,7 +11932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -11817,7 +11940,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3001</v>
       </c>
@@ -11825,7 +11948,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>3002</v>
       </c>
@@ -11833,7 +11956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3003</v>
       </c>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61DDC0-3F4A-4709-ABC5-49780D37FB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88054191-66F1-49D9-A7D7-BB2BFD21A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="345">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1424,6 +1424,38 @@
       <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_044</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_045</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_046</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_047</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_048</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_049</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_050</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_051</t>
   </si>
 </sst>
 </file>
@@ -1555,8 +1587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M265" totalsRowShown="0">
-  <autoFilter ref="A1:M265" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M275" totalsRowShown="0">
+  <autoFilter ref="A1:M275" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1873,13 +1905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I54:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3569,16 +3601,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1178</v>
+        <v>1140</v>
       </c>
       <c r="B46">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>335</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3596,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -3607,16 +3639,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1179</v>
+        <v>1141</v>
       </c>
       <c r="B47">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3634,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3645,16 +3677,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1180</v>
+        <v>1142</v>
       </c>
       <c r="B48">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3683,16 +3715,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1181</v>
+        <v>1143</v>
       </c>
       <c r="B49">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3710,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3721,16 +3753,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1182</v>
+        <v>1144</v>
       </c>
       <c r="B50">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3759,16 +3791,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1183</v>
+        <v>1145</v>
       </c>
       <c r="B51">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3786,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3797,16 +3829,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1184</v>
+        <v>1146</v>
       </c>
       <c r="B52">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3824,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3835,16 +3867,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1185</v>
+        <v>1147</v>
       </c>
       <c r="B53">
-        <v>285</v>
+        <v>397</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3862,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3873,16 +3905,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1187</v>
+        <v>1148</v>
       </c>
       <c r="B54">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3900,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3911,16 +3943,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1188</v>
+        <v>1149</v>
       </c>
       <c r="B55">
-        <v>288</v>
+        <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>344</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3938,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3949,13 +3981,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="B56">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -3987,13 +4019,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="B57">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -4025,13 +4057,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="B58">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4052,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4063,16 +4095,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="B59">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4101,16 +4133,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="B60">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4128,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4139,16 +4171,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="B61">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4177,13 +4209,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="B62">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D62">
         <v>8</v>
@@ -4215,13 +4247,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="B63">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -4253,13 +4285,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="B64">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -4291,13 +4323,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="B65">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -4329,13 +4361,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="B66">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -4367,13 +4399,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="B67">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -4405,16 +4437,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="B68">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4443,13 +4475,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="B69">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -4481,13 +4513,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="B70">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4519,13 +4551,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="B71">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -4557,13 +4589,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="B72">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -4595,13 +4627,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="B73">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4633,13 +4665,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="B74">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -4671,13 +4703,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B75">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -4709,13 +4741,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="B76">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4747,13 +4779,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="B77">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4785,13 +4817,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="B78">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -4823,13 +4855,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="B79">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4861,13 +4893,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="B80">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -4899,13 +4931,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="B81">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -4937,13 +4969,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="B82">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -4975,13 +5007,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="B83">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -5013,13 +5045,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="B84">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -5051,13 +5083,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="B85">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -5089,13 +5121,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="B86">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -5127,13 +5159,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="B87">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -5165,13 +5197,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="B88">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -5203,13 +5235,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="B89">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5241,13 +5273,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="B90">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -5279,13 +5311,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="B91">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -5317,13 +5349,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="B92">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5355,13 +5387,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B93">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -5393,13 +5425,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="B94">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -5431,13 +5463,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="B95">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5469,13 +5501,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="B96">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -5507,13 +5539,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="B97">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -5545,13 +5577,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="B98">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -5583,13 +5615,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="B99">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -5621,13 +5653,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="B100">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -5659,13 +5691,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="B101">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -5697,13 +5729,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="B102">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -5735,13 +5767,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="B103">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -5773,13 +5805,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="B104">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -5811,13 +5843,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="B105">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5849,13 +5881,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="B106">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -5887,13 +5919,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B107">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -5925,13 +5957,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="B108">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5963,13 +5995,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="B109">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -6001,13 +6033,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="B110">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -6039,13 +6071,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="B111">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -6077,13 +6109,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="B112">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -6115,13 +6147,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="B113">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -6153,13 +6185,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="B114">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -6191,13 +6223,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="B115">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -6229,13 +6261,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="B116">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -6267,13 +6299,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="B117">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -6305,13 +6337,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="B118">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -6343,13 +6375,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="B119">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C119" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -6381,13 +6413,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="B120">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -6419,13 +6451,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="B121">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -6457,13 +6489,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="B122">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -6495,13 +6527,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="B123">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -6533,13 +6565,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="B124">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -6571,13 +6603,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="B125">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6609,13 +6641,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="B126">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -6647,13 +6679,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="B127">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C127" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -6685,13 +6717,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="B128">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -6723,13 +6755,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="B129">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -6761,13 +6793,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="B130">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D130">
         <v>8</v>
@@ -6799,13 +6831,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="B131">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -6837,13 +6869,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="B132">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -6875,13 +6907,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="B133">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -6913,13 +6945,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="B134">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6951,13 +6983,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="B135">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D135">
         <v>8</v>
@@ -6989,13 +7021,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="B136">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C136" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -7027,13 +7059,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="B137">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C137" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -7065,13 +7097,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="B138">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -7103,13 +7135,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B139">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -7141,13 +7173,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="B140">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C140" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D140">
         <v>8</v>
@@ -7179,13 +7211,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="B141">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C141" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -7217,13 +7249,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="B142">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C142" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -7255,13 +7287,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="B143">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C143" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7293,13 +7325,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="B144">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -7331,13 +7363,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="B145">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C145" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -7369,13 +7401,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="B146">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7407,13 +7439,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="B147">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -7445,13 +7477,13 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="B148">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -7483,13 +7515,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="B149">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7521,13 +7553,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="B150">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -7559,13 +7591,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="B151">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -7597,13 +7629,13 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="B152">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -7635,13 +7667,13 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="B153">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C153" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -7673,13 +7705,13 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="B154">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -7711,13 +7743,13 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="B155">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C155" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -7749,16 +7781,16 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1500</v>
+        <v>1279</v>
       </c>
       <c r="B156">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7770,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -7779,24 +7811,24 @@
         <v>1</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1501</v>
+        <v>1280</v>
       </c>
       <c r="B157">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="C157" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7808,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -7817,24 +7849,24 @@
         <v>1</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1502</v>
+        <v>1281</v>
       </c>
       <c r="B158">
-        <v>502</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7846,7 +7878,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -7855,24 +7887,24 @@
         <v>1</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1503</v>
+        <v>1282</v>
       </c>
       <c r="B159">
-        <v>503</v>
+        <v>382</v>
       </c>
       <c r="C159" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7884,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -7893,24 +7925,24 @@
         <v>1</v>
       </c>
       <c r="L159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1504</v>
+        <v>1283</v>
       </c>
       <c r="B160">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="C160" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7922,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -7931,24 +7963,24 @@
         <v>1</v>
       </c>
       <c r="L160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1505</v>
+        <v>1284</v>
       </c>
       <c r="B161">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="C161" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7960,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -7969,24 +8001,24 @@
         <v>1</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1506</v>
+        <v>1285</v>
       </c>
       <c r="B162">
-        <v>506</v>
+        <v>385</v>
       </c>
       <c r="C162" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7998,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -8007,24 +8039,24 @@
         <v>1</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1507</v>
+        <v>1286</v>
       </c>
       <c r="B163">
-        <v>507</v>
+        <v>386</v>
       </c>
       <c r="C163" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8036,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -8045,24 +8077,24 @@
         <v>1</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1508</v>
+        <v>1287</v>
       </c>
       <c r="B164">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="C164" t="s">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8074,7 +8106,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -8083,24 +8115,24 @@
         <v>1</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1509</v>
+        <v>1288</v>
       </c>
       <c r="B165">
-        <v>509</v>
+        <v>388</v>
       </c>
       <c r="C165" t="s">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8112,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -8121,36 +8153,36 @@
         <v>1</v>
       </c>
       <c r="L165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="B166">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -8167,28 +8199,28 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1551</v>
+        <v>1501</v>
       </c>
       <c r="B167">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C167" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J167">
         <v>1</v>
@@ -8205,28 +8237,28 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1552</v>
+        <v>1502</v>
       </c>
       <c r="B168">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="C168" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -8243,28 +8275,28 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1553</v>
+        <v>1503</v>
       </c>
       <c r="B169">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="C169" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -8281,28 +8313,28 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1554</v>
+        <v>1504</v>
       </c>
       <c r="B170">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="C170" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -8319,28 +8351,28 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1555</v>
+        <v>1505</v>
       </c>
       <c r="B171">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C171" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -8357,28 +8389,28 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1556</v>
+        <v>1506</v>
       </c>
       <c r="B172">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="C172" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -8395,28 +8427,28 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1557</v>
+        <v>1507</v>
       </c>
       <c r="B173">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="C173" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J173">
         <v>1</v>
@@ -8433,28 +8465,28 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1558</v>
+        <v>1508</v>
       </c>
       <c r="B174">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="C174" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -8471,28 +8503,28 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1559</v>
+        <v>1509</v>
       </c>
       <c r="B175">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="C175" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -8509,34 +8541,34 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="B176">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C176" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H176">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J176">
         <v>1</v>
       </c>
       <c r="K176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -8547,25 +8579,28 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>1800</v>
+        <v>1551</v>
+      </c>
+      <c r="B177">
+        <v>551</v>
       </c>
       <c r="C177" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -8582,25 +8617,28 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1801</v>
+        <v>1552</v>
+      </c>
+      <c r="B178">
+        <v>552</v>
       </c>
       <c r="C178" t="s">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -8617,25 +8655,28 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>1802</v>
+        <v>1553</v>
+      </c>
+      <c r="B179">
+        <v>553</v>
       </c>
       <c r="C179" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -8652,25 +8693,28 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>1803</v>
+        <v>1554</v>
+      </c>
+      <c r="B180">
+        <v>554</v>
       </c>
       <c r="C180" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -8687,25 +8731,28 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>1804</v>
+        <v>1555</v>
+      </c>
+      <c r="B181">
+        <v>555</v>
       </c>
       <c r="C181" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -8722,66 +8769,72 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>1999</v>
+        <v>1556</v>
+      </c>
+      <c r="B182">
+        <v>556</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D182">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>0.8</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>2000</v>
+        <v>1557</v>
+      </c>
+      <c r="B183">
+        <v>557</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D183">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -8792,34 +8845,34 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>2001</v>
+        <v>1558</v>
+      </c>
+      <c r="B184">
+        <v>558</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D184">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>1.5</v>
-      </c>
-      <c r="I184">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="J184">
         <v>1</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184">
         <v>0</v>
@@ -8830,34 +8883,34 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>2002</v>
+        <v>1559</v>
+      </c>
+      <c r="B185">
+        <v>559</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D185">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185">
         <v>0.8</v>
       </c>
-      <c r="I185">
-        <v>3</v>
-      </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -8868,28 +8921,28 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>2003</v>
+        <v>1600</v>
+      </c>
+      <c r="B186">
+        <v>600</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D186">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
-      </c>
-      <c r="I186">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -8906,34 +8959,31 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>2004</v>
+        <v>1800</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="D187">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>2</v>
-      </c>
-      <c r="I187">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -8944,34 +8994,31 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>2005</v>
+        <v>1801</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="D188">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>1</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
         <v>0</v>
@@ -8982,34 +9029,31 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>2006</v>
+        <v>1802</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="D189">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
-      </c>
-      <c r="I189">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>1</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -9020,34 +9064,31 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>2007</v>
+        <v>1803</v>
       </c>
       <c r="C190" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="D190">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>4</v>
-      </c>
-      <c r="I190">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>1</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190">
         <v>0</v>
@@ -9058,34 +9099,31 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>2008</v>
+        <v>1804</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="D191">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>2</v>
-      </c>
-      <c r="I191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>1</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -9096,13 +9134,13 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C192" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D192">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9113,43 +9151,37 @@
       <c r="G192">
         <v>1</v>
       </c>
-      <c r="H192">
-        <v>2</v>
-      </c>
-      <c r="I192">
-        <v>11</v>
-      </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C193" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D193">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -9161,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -9172,25 +9204,25 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="C194" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="D194">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -9199,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194">
         <v>0</v>
@@ -9210,25 +9242,25 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>2102</v>
+        <v>2002</v>
       </c>
       <c r="C195" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="D195">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I195">
         <v>3</v>
@@ -9237,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195">
         <v>0</v>
@@ -9248,28 +9280,28 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>3000</v>
-      </c>
-      <c r="B196">
-        <v>700</v>
+        <v>2003</v>
       </c>
       <c r="C196" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>0.7</v>
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>5</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -9278,42 +9310,42 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>5000</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
+        <v>2004</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D197">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>6</v>
       </c>
       <c r="J197">
         <v>1</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -9324,16 +9356,13 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>5001</v>
-      </c>
-      <c r="B198">
-        <v>2</v>
+        <v>2005</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D198">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -9342,16 +9371,19 @@
         <v>2</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>7</v>
       </c>
       <c r="J198">
         <v>1</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -9362,37 +9394,37 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>5002</v>
-      </c>
-      <c r="B199">
-        <v>3</v>
+        <v>2006</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D199">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>8</v>
       </c>
       <c r="J199">
         <v>1</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -9400,37 +9432,37 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>5003</v>
-      </c>
-      <c r="B200">
+        <v>2007</v>
+      </c>
+      <c r="C200" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200">
+        <v>100</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
         <v>4</v>
       </c>
-      <c r="C200" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200">
-        <v>2000</v>
-      </c>
-      <c r="E200">
-        <v>2</v>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200">
-        <v>1</v>
+      <c r="I200">
+        <v>9</v>
       </c>
       <c r="J200">
         <v>1</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -9438,16 +9470,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>5009</v>
-      </c>
-      <c r="B201">
-        <v>9</v>
+        <v>2008</v>
       </c>
       <c r="C201" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="D201">
-        <v>1008</v>
+        <v>100</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -9456,16 +9485,19 @@
         <v>2</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>10</v>
       </c>
       <c r="J201">
         <v>1</v>
       </c>
       <c r="K201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -9476,34 +9508,34 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>5010</v>
-      </c>
-      <c r="B202">
-        <v>10</v>
+        <v>2009</v>
       </c>
       <c r="C202" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="D202">
-        <v>1009</v>
+        <v>100</v>
       </c>
       <c r="E202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>11</v>
       </c>
       <c r="J202">
         <v>1</v>
       </c>
       <c r="K202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202">
         <v>0</v>
@@ -9514,29 +9546,29 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>5100</v>
-      </c>
-      <c r="B203">
-        <v>5</v>
+        <v>2100</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="D203">
-        <v>2100</v>
+        <v>110</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203">
         <v>1</v>
       </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
       <c r="J203">
         <v>1</v>
       </c>
@@ -9547,21 +9579,18 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>5101</v>
-      </c>
-      <c r="B204">
-        <v>6</v>
+        <v>2101</v>
       </c>
       <c r="C204" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D204">
-        <v>3001</v>
+        <v>110</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -9575,11 +9604,14 @@
       <c r="H204">
         <v>1</v>
       </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
       <c r="J204">
         <v>1</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -9590,37 +9622,37 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>5102</v>
-      </c>
-      <c r="B205">
-        <v>7</v>
+        <v>2102</v>
       </c>
       <c r="C205" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D205">
-        <v>3001</v>
+        <v>110</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
       <c r="J205">
         <v>1</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -9628,752 +9660,782 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206">
+        <v>3000</v>
+      </c>
+      <c r="B206">
+        <v>700</v>
+      </c>
+      <c r="C206" t="s">
+        <v>201</v>
+      </c>
+      <c r="D206">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>0.7</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>5000</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207">
+        <v>1000</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>5001</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208">
+        <v>1001</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>5002</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>2000</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>2</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>5003</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210">
+        <v>2000</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>5009</v>
+      </c>
+      <c r="B211">
+        <v>9</v>
+      </c>
+      <c r="C211" t="s">
+        <v>319</v>
+      </c>
+      <c r="D211">
+        <v>1008</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>2</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>5010</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>320</v>
+      </c>
+      <c r="D212">
+        <v>1009</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>5100</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213">
+        <v>2100</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>5101</v>
+      </c>
+      <c r="B214">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>123</v>
+      </c>
+      <c r="D214">
+        <v>3001</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>5102</v>
+      </c>
+      <c r="B215">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>124</v>
+      </c>
+      <c r="D215">
+        <v>3001</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216">
         <v>5103</v>
       </c>
-      <c r="B206">
+      <c r="B216">
         <v>8</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C216" t="s">
         <v>125</v>
       </c>
-      <c r="D206">
+      <c r="D216">
         <v>3001</v>
       </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>1</v>
-      </c>
-      <c r="J206">
-        <v>1</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206">
-        <v>1</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A207" s="4">
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217" s="4">
         <v>5200</v>
       </c>
-      <c r="B207">
+      <c r="B217">
         <v>200</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C217" t="s">
         <v>167</v>
       </c>
-      <c r="D207">
+      <c r="D217">
         <v>2001</v>
       </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207">
-        <v>2</v>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>1</v>
-      </c>
-      <c r="J207">
-        <v>1</v>
-      </c>
-      <c r="K207">
-        <v>1</v>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-      <c r="M207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A208" s="4">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218" s="4">
         <v>5201</v>
       </c>
-      <c r="B208">
+      <c r="B218">
         <v>201</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C218" t="s">
         <v>168</v>
       </c>
-      <c r="D208">
+      <c r="D218">
         <v>2001</v>
       </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-      <c r="F208">
-        <v>2</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-      <c r="J208">
-        <v>1</v>
-      </c>
-      <c r="K208">
-        <v>1</v>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-      <c r="M208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209" s="4">
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" s="4">
         <v>5202</v>
       </c>
-      <c r="B209">
+      <c r="B219">
         <v>202</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C219" t="s">
         <v>169</v>
       </c>
-      <c r="D209">
+      <c r="D219">
         <v>2001</v>
       </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209">
-        <v>2</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209">
-        <v>1</v>
-      </c>
-      <c r="J209">
-        <v>1</v>
-      </c>
-      <c r="K209">
-        <v>1</v>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-      <c r="M209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210" s="4">
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
         <v>5203</v>
       </c>
-      <c r="B210">
+      <c r="B220">
         <v>203</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C220" t="s">
         <v>170</v>
       </c>
-      <c r="D210">
+      <c r="D220">
         <v>2001</v>
       </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210">
-        <v>2</v>
-      </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-      <c r="J210">
-        <v>1</v>
-      </c>
-      <c r="K210">
-        <v>1</v>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-      <c r="M210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211" s="4">
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
         <v>5204</v>
       </c>
-      <c r="B211">
+      <c r="B221">
         <v>204</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C221" t="s">
         <v>171</v>
       </c>
-      <c r="D211">
+      <c r="D221">
         <v>2001</v>
       </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211">
-        <v>2</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211">
-        <v>1</v>
-      </c>
-      <c r="J211">
-        <v>1</v>
-      </c>
-      <c r="K211">
-        <v>1</v>
-      </c>
-      <c r="L211">
-        <v>0</v>
-      </c>
-      <c r="M211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212" s="4">
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" s="4">
         <v>5205</v>
       </c>
-      <c r="B212">
+      <c r="B222">
         <v>205</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C222" t="s">
         <v>172</v>
       </c>
-      <c r="D212">
+      <c r="D222">
         <v>2001</v>
       </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212">
-        <v>2</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>1</v>
-      </c>
-      <c r="J212">
-        <v>1</v>
-      </c>
-      <c r="K212">
-        <v>1</v>
-      </c>
-      <c r="L212">
-        <v>0</v>
-      </c>
-      <c r="M212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213" s="4">
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223" s="4">
         <v>5206</v>
       </c>
-      <c r="B213">
+      <c r="B223">
         <v>206</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C223" t="s">
         <v>173</v>
       </c>
-      <c r="D213">
+      <c r="D223">
         <v>2001</v>
       </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213">
-        <v>2</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-      <c r="J213">
-        <v>1</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-      <c r="M213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A214" s="4">
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224" s="4">
         <v>5207</v>
       </c>
-      <c r="B214">
+      <c r="B224">
         <v>207</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C224" t="s">
         <v>174</v>
       </c>
-      <c r="D214">
+      <c r="D224">
         <v>2001</v>
       </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214">
-        <v>2</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-      <c r="J214">
-        <v>1</v>
-      </c>
-      <c r="K214">
-        <v>1</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215" s="4">
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225" s="4">
         <v>5208</v>
       </c>
-      <c r="B215">
+      <c r="B225">
         <v>208</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C225" t="s">
         <v>175</v>
       </c>
-      <c r="D215">
+      <c r="D225">
         <v>2001</v>
       </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215">
-        <v>2</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-      <c r="J215">
-        <v>1</v>
-      </c>
-      <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-      <c r="M215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" s="4">
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A226" s="4">
         <v>5209</v>
       </c>
-      <c r="B216">
+      <c r="B226">
         <v>209</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C226" t="s">
         <v>176</v>
       </c>
-      <c r="D216">
+      <c r="D226">
         <v>2001</v>
       </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216">
-        <v>2</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-      <c r="J216">
-        <v>1</v>
-      </c>
-      <c r="K216">
-        <v>1</v>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-      <c r="M216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217">
-        <v>6000</v>
-      </c>
-      <c r="B217">
-        <v>3003</v>
-      </c>
-      <c r="C217" t="s">
-        <v>97</v>
-      </c>
-      <c r="D217">
-        <v>1002</v>
-      </c>
-      <c r="E217">
-        <v>3</v>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>3</v>
-      </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
-      </c>
-      <c r="K217">
-        <v>1</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-      <c r="M217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218">
-        <v>6001</v>
-      </c>
-      <c r="C218" t="s">
-        <v>144</v>
-      </c>
-      <c r="D218">
-        <v>1003</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
-        <v>1</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-      <c r="M218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A219">
-        <v>6002</v>
-      </c>
-      <c r="C219" t="s">
-        <v>145</v>
-      </c>
-      <c r="D219">
-        <v>1004</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>1</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-      <c r="M219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220">
-        <v>6003</v>
-      </c>
-      <c r="C220" t="s">
-        <v>146</v>
-      </c>
-      <c r="D220">
-        <v>1005</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221">
-        <v>6004</v>
-      </c>
-      <c r="C221" t="s">
-        <v>147</v>
-      </c>
-      <c r="D221">
-        <v>1006</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-      <c r="M221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222">
-        <v>6005</v>
-      </c>
-      <c r="C222" t="s">
-        <v>148</v>
-      </c>
-      <c r="D222">
-        <v>1007</v>
-      </c>
-      <c r="E222">
-        <v>1</v>
-      </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <v>1</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-      <c r="M222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A223">
-        <v>7016</v>
-      </c>
-      <c r="B223">
-        <v>7016</v>
-      </c>
-      <c r="C223" t="s">
-        <v>126</v>
-      </c>
-      <c r="D223">
-        <v>3003</v>
-      </c>
-      <c r="E223">
-        <v>2</v>
-      </c>
-      <c r="F223">
-        <v>2</v>
-      </c>
-      <c r="G223">
-        <v>2</v>
-      </c>
-      <c r="H223">
-        <v>1</v>
-      </c>
-      <c r="J223">
-        <v>1</v>
-      </c>
-      <c r="K223">
-        <v>1</v>
-      </c>
-      <c r="L223">
-        <v>0</v>
-      </c>
-      <c r="M223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A224">
-        <v>7017</v>
-      </c>
-      <c r="B224">
-        <v>7017</v>
-      </c>
-      <c r="C224" t="s">
-        <v>127</v>
-      </c>
-      <c r="D224">
-        <v>3003</v>
-      </c>
-      <c r="E224">
-        <v>2</v>
-      </c>
-      <c r="F224">
-        <v>2</v>
-      </c>
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-      <c r="J224">
-        <v>1</v>
-      </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224">
-        <v>0</v>
-      </c>
-      <c r="M224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A225">
-        <v>7018</v>
-      </c>
-      <c r="B225">
-        <v>7018</v>
-      </c>
-      <c r="C225" t="s">
-        <v>107</v>
-      </c>
-      <c r="D225">
-        <v>3003</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
-      </c>
-      <c r="F225">
-        <v>3</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>1</v>
-      </c>
-      <c r="J225">
-        <v>1</v>
-      </c>
-      <c r="K225">
-        <v>1</v>
-      </c>
-      <c r="L225">
-        <v>0</v>
-      </c>
-      <c r="M225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A226">
-        <v>7019</v>
-      </c>
-      <c r="B226">
-        <v>7019</v>
-      </c>
-      <c r="C226" t="s">
-        <v>108</v>
-      </c>
-      <c r="D226">
-        <v>3003</v>
-      </c>
       <c r="E226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -10396,25 +10458,25 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227">
-        <v>7020</v>
+        <v>6000</v>
       </c>
       <c r="B227">
-        <v>7020</v>
+        <v>3003</v>
       </c>
       <c r="C227" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D227">
-        <v>3003</v>
+        <v>1002</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -10434,16 +10496,13 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>7021</v>
-      </c>
-      <c r="B228">
-        <v>7021</v>
+        <v>6001</v>
       </c>
       <c r="C228" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D228">
-        <v>3003</v>
+        <v>1003</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10454,11 +10513,8 @@
       <c r="G228">
         <v>1</v>
       </c>
-      <c r="H228">
-        <v>1</v>
-      </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -10472,16 +10528,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>7022</v>
-      </c>
-      <c r="B229">
-        <v>7022</v>
+        <v>6002</v>
       </c>
       <c r="C229" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D229">
-        <v>3003</v>
+        <v>1004</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10492,11 +10545,8 @@
       <c r="G229">
         <v>1</v>
       </c>
-      <c r="H229">
-        <v>1</v>
-      </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229">
         <v>1</v>
@@ -10510,16 +10560,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>7023</v>
-      </c>
-      <c r="B230">
-        <v>7023</v>
+        <v>6003</v>
       </c>
       <c r="C230" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D230">
-        <v>3003</v>
+        <v>1005</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10530,11 +10577,8 @@
       <c r="G230">
         <v>1</v>
       </c>
-      <c r="H230">
-        <v>1</v>
-      </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -10548,16 +10592,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>7024</v>
-      </c>
-      <c r="B231">
-        <v>7024</v>
+        <v>6004</v>
       </c>
       <c r="C231" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D231">
-        <v>3003</v>
+        <v>1006</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10568,11 +10609,8 @@
       <c r="G231">
         <v>1</v>
       </c>
-      <c r="H231">
-        <v>1</v>
-      </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -10586,16 +10624,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>7025</v>
-      </c>
-      <c r="B232">
-        <v>7025</v>
+        <v>6005</v>
       </c>
       <c r="C232" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D232">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10606,11 +10641,8 @@
       <c r="G232">
         <v>1</v>
       </c>
-      <c r="H232">
-        <v>1</v>
-      </c>
       <c r="J232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -10624,13 +10656,13 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="B233">
-        <v>7026</v>
+        <v>7016</v>
       </c>
       <c r="C233" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D233">
         <v>3003</v>
@@ -10639,10 +10671,10 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -10662,13 +10694,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="B234">
-        <v>7027</v>
+        <v>7017</v>
       </c>
       <c r="C234" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10677,10 +10709,10 @@
         <v>2</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -10700,22 +10732,22 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="B235">
-        <v>7028</v>
+        <v>7018</v>
       </c>
       <c r="C235" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D235">
         <v>3003</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -10738,19 +10770,19 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="B236">
-        <v>7029</v>
+        <v>7019</v>
       </c>
       <c r="C236" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D236">
         <v>3003</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -10776,19 +10808,19 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="B237">
-        <v>7030</v>
+        <v>7020</v>
       </c>
       <c r="C237" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D237">
         <v>3003</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -10814,25 +10846,25 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>7031</v>
+        <v>7021</v>
       </c>
       <c r="B238">
-        <v>7031</v>
+        <v>7021</v>
       </c>
       <c r="C238" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="D238">
         <v>3003</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -10852,25 +10884,25 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>7032</v>
+        <v>7022</v>
       </c>
       <c r="B239">
-        <v>7032</v>
+        <v>7022</v>
       </c>
       <c r="C239" t="s">
-        <v>310</v>
+        <v>111</v>
       </c>
       <c r="D239">
         <v>3003</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -10890,25 +10922,25 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>7033</v>
+        <v>7023</v>
       </c>
       <c r="B240">
-        <v>7033</v>
+        <v>7023</v>
       </c>
       <c r="C240" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="D240">
         <v>3003</v>
       </c>
       <c r="E240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -10928,25 +10960,25 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>7034</v>
+        <v>7024</v>
       </c>
       <c r="B241">
-        <v>7034</v>
+        <v>7024</v>
       </c>
       <c r="C241" t="s">
-        <v>312</v>
+        <v>113</v>
       </c>
       <c r="D241">
         <v>3003</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -10966,30 +10998,51 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>8001</v>
+        <v>7025</v>
+      </c>
+      <c r="B242">
+        <v>7025</v>
       </c>
       <c r="C242" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D242">
         <v>3003</v>
       </c>
       <c r="E242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>8002</v>
+        <v>7026</v>
+      </c>
+      <c r="B243">
+        <v>7026</v>
       </c>
       <c r="C243" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D243">
         <v>3003</v>
@@ -10998,18 +11051,36 @@
         <v>2</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G243">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>8003</v>
+        <v>7027</v>
+      </c>
+      <c r="B244">
+        <v>7027</v>
       </c>
       <c r="C244" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D244">
         <v>3003</v>
@@ -11018,18 +11089,36 @@
         <v>2</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G244">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>8004</v>
+        <v>7028</v>
+      </c>
+      <c r="B245">
+        <v>7028</v>
       </c>
       <c r="C245" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D245">
         <v>3003</v>
@@ -11038,18 +11127,36 @@
         <v>2</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G245">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>8005</v>
+        <v>7029</v>
+      </c>
+      <c r="B246">
+        <v>7029</v>
       </c>
       <c r="C246" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D246">
         <v>3003</v>
@@ -11058,18 +11165,36 @@
         <v>2</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G246">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>8010</v>
+        <v>7030</v>
+      </c>
+      <c r="B247">
+        <v>7030</v>
       </c>
       <c r="C247" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D247">
         <v>3003</v>
@@ -11078,18 +11203,36 @@
         <v>2</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G247">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>8013</v>
+        <v>7031</v>
+      </c>
+      <c r="B248">
+        <v>7031</v>
       </c>
       <c r="C248" t="s">
-        <v>140</v>
+        <v>309</v>
       </c>
       <c r="D248">
         <v>3003</v>
@@ -11101,391 +11244,660 @@
         <v>2</v>
       </c>
       <c r="G248">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>8020</v>
+        <v>7032</v>
+      </c>
+      <c r="B249">
+        <v>7032</v>
       </c>
       <c r="C249" t="s">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="D249">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G249">
+        <v>5</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="J249">
         <v>1</v>
       </c>
       <c r="K249">
         <v>1</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>8030</v>
+        <v>7033</v>
+      </c>
+      <c r="B250">
+        <v>7033</v>
       </c>
       <c r="C250" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="D250">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G250">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
       </c>
       <c r="K250">
         <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>8031</v>
+        <v>7034</v>
+      </c>
+      <c r="B251">
+        <v>7034</v>
       </c>
       <c r="C251" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="D251">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
       </c>
       <c r="K251">
         <v>1</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8041</v>
+        <v>8001</v>
       </c>
       <c r="C252" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D252">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
         <v>5</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>3</v>
-      </c>
-      <c r="K252">
-        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>8042</v>
+        <v>8002</v>
       </c>
       <c r="C253" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D253">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
         <v>5</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>3</v>
-      </c>
-      <c r="K253">
-        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>8043</v>
+        <v>8003</v>
       </c>
       <c r="C254" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D254">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F254">
         <v>2</v>
       </c>
       <c r="G254">
-        <v>1.5</v>
-      </c>
-      <c r="K254">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>8044</v>
+        <v>8004</v>
       </c>
       <c r="C255" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D255">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G255">
-        <v>3</v>
-      </c>
-      <c r="K255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256">
+        <v>8005</v>
+      </c>
+      <c r="C256" t="s">
+        <v>138</v>
+      </c>
+      <c r="D256">
+        <v>3003</v>
+      </c>
+      <c r="E256">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>8010</v>
+      </c>
+      <c r="C257" t="s">
+        <v>139</v>
+      </c>
+      <c r="D257">
+        <v>3003</v>
+      </c>
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>2</v>
+      </c>
+      <c r="G257">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>8013</v>
+      </c>
+      <c r="C258" t="s">
+        <v>140</v>
+      </c>
+      <c r="D258">
+        <v>3003</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>8020</v>
+      </c>
+      <c r="C259" t="s">
+        <v>141</v>
+      </c>
+      <c r="D259">
+        <v>3001</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>8030</v>
+      </c>
+      <c r="C260" t="s">
+        <v>142</v>
+      </c>
+      <c r="D260">
+        <v>3001</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>5</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>8031</v>
+      </c>
+      <c r="C261" t="s">
+        <v>143</v>
+      </c>
+      <c r="D261">
+        <v>3001</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>8041</v>
+      </c>
+      <c r="C262" t="s">
+        <v>149</v>
+      </c>
+      <c r="D262">
+        <v>3001</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>8042</v>
+      </c>
+      <c r="C263" t="s">
+        <v>150</v>
+      </c>
+      <c r="D263">
+        <v>3001</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>8043</v>
+      </c>
+      <c r="C264" t="s">
+        <v>152</v>
+      </c>
+      <c r="D264">
+        <v>3001</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>1.5</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>8044</v>
+      </c>
+      <c r="C265" t="s">
+        <v>153</v>
+      </c>
+      <c r="D265">
+        <v>3001</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265">
+        <v>3</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A266">
         <v>8045</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C266" t="s">
         <v>151</v>
       </c>
-      <c r="D256">
+      <c r="D266">
         <v>3001</v>
       </c>
-      <c r="E256">
+      <c r="E266">
         <v>5</v>
       </c>
-      <c r="F256">
-        <v>2</v>
-      </c>
-      <c r="G256">
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
         <v>3</v>
       </c>
-      <c r="K256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A257">
+      <c r="K266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A267">
         <v>8046</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C267" t="s">
         <v>313</v>
       </c>
-      <c r="D257">
+      <c r="D267">
         <v>3001</v>
       </c>
-      <c r="E257">
-        <v>2</v>
-      </c>
-      <c r="F257">
-        <v>2</v>
-      </c>
-      <c r="G257">
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
         <v>3</v>
       </c>
-      <c r="K257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A258">
+      <c r="K267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A268">
         <v>9001</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C268" t="s">
         <v>202</v>
       </c>
-      <c r="D258">
+      <c r="D268">
         <v>4000</v>
       </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="G258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259">
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A269">
         <v>9002</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C269" t="s">
         <v>203</v>
       </c>
-      <c r="D259">
+      <c r="D269">
         <v>4000</v>
       </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A260">
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A270">
         <v>9003</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C270" t="s">
         <v>204</v>
       </c>
-      <c r="D260">
+      <c r="D270">
         <v>4000</v>
       </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261">
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A271">
         <v>9004</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C271" t="s">
         <v>205</v>
       </c>
-      <c r="D261">
+      <c r="D271">
         <v>4000</v>
       </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A262">
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A272">
         <v>9005</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C272" t="s">
         <v>206</v>
       </c>
-      <c r="D262">
+      <c r="D272">
         <v>4000</v>
       </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A263">
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A273">
         <v>9006</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C273" t="s">
         <v>207</v>
       </c>
-      <c r="D263">
+      <c r="D273">
         <v>4000</v>
       </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A264">
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274">
         <v>9999</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C274" t="s">
         <v>36</v>
       </c>
-      <c r="D264">
+      <c r="D274">
         <v>9999</v>
       </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264">
-        <v>1</v>
-      </c>
-      <c r="J264">
-        <v>0</v>
-      </c>
-      <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="L264">
-        <v>0</v>
-      </c>
-      <c r="M264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A265">
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A275">
         <v>10000</v>
       </c>
-      <c r="D265">
+      <c r="D275">
         <v>10000</v>
       </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>1</v>
-      </c>
-      <c r="G265">
-        <v>1</v>
-      </c>
-      <c r="J265">
-        <v>0</v>
-      </c>
-      <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="M265">
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="M275">
         <v>1</v>
       </c>
     </row>
@@ -11648,8 +12060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88054191-66F1-49D9-A7D7-BB2BFD21A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E15A3-0057-4499-81FF-21455614DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="343">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -643,23 +643,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/object_3d_042</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Scene/object_3d_043</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/object_3d_044</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Prefabs/Game/Scene/object_3d_047</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefabs/Game/Scene/object_3d_049</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1456,6 +1444,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_051</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_217</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1908,10 +1900,10 @@
   <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I54:I55"/>
+      <selection pane="bottomRight" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1968,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1988,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2695,7 +2687,7 @@
         <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3227,7 +3219,7 @@
         <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3265,7 +3257,7 @@
         <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3303,7 +3295,7 @@
         <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3341,7 +3333,7 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3379,7 +3371,7 @@
         <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3417,7 +3409,7 @@
         <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3455,7 +3447,7 @@
         <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3493,7 +3485,7 @@
         <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3531,7 +3523,7 @@
         <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3569,7 +3561,7 @@
         <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3607,7 +3599,7 @@
         <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3645,7 +3637,7 @@
         <v>391</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3683,7 +3675,7 @@
         <v>392</v>
       </c>
       <c r="C48" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3721,7 +3713,7 @@
         <v>393</v>
       </c>
       <c r="C49" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3759,7 +3751,7 @@
         <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3797,7 +3789,7 @@
         <v>395</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3835,7 +3827,7 @@
         <v>396</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3873,7 +3865,7 @@
         <v>397</v>
       </c>
       <c r="C53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3911,7 +3903,7 @@
         <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3949,7 +3941,7 @@
         <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3987,7 +3979,7 @@
         <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -4025,7 +4017,7 @@
         <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -4063,7 +4055,7 @@
         <v>280</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4101,7 +4093,7 @@
         <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -4139,7 +4131,7 @@
         <v>282</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -4177,7 +4169,7 @@
         <v>283</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61">
         <v>11</v>
@@ -4215,7 +4207,7 @@
         <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62">
         <v>8</v>
@@ -4253,7 +4245,7 @@
         <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -4291,7 +4283,7 @@
         <v>287</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -4329,7 +4321,7 @@
         <v>288</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -4367,7 +4359,7 @@
         <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -4405,7 +4397,7 @@
         <v>290</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -4443,7 +4435,7 @@
         <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4481,7 +4473,7 @@
         <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69">
         <v>8</v>
@@ -4519,7 +4511,7 @@
         <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4557,7 +4549,7 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -4595,7 +4587,7 @@
         <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -4633,7 +4625,7 @@
         <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4671,7 +4663,7 @@
         <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -4709,7 +4701,7 @@
         <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -4747,7 +4739,7 @@
         <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4785,7 +4777,7 @@
         <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4823,7 +4815,7 @@
         <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -4861,7 +4853,7 @@
         <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4899,7 +4891,7 @@
         <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -4937,7 +4929,7 @@
         <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -4975,7 +4967,7 @@
         <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -5013,7 +5005,7 @@
         <v>306</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -5051,7 +5043,7 @@
         <v>307</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -5089,7 +5081,7 @@
         <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -5127,7 +5119,7 @@
         <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -5165,7 +5157,7 @@
         <v>310</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -5203,7 +5195,7 @@
         <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -5241,7 +5233,7 @@
         <v>312</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5279,7 +5271,7 @@
         <v>313</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -5317,7 +5309,7 @@
         <v>314</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -5355,7 +5347,7 @@
         <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5393,7 +5385,7 @@
         <v>316</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -5431,7 +5423,7 @@
         <v>317</v>
       </c>
       <c r="C94" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -5469,7 +5461,7 @@
         <v>318</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5507,7 +5499,7 @@
         <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -5545,7 +5537,7 @@
         <v>320</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -5583,7 +5575,7 @@
         <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -5621,7 +5613,7 @@
         <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -5659,7 +5651,7 @@
         <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -5697,7 +5689,7 @@
         <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -5735,7 +5727,7 @@
         <v>325</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -5773,7 +5765,7 @@
         <v>326</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -5811,7 +5803,7 @@
         <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -5849,7 +5841,7 @@
         <v>328</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5887,7 +5879,7 @@
         <v>329</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -5925,7 +5917,7 @@
         <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -5963,7 +5955,7 @@
         <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -6001,7 +5993,7 @@
         <v>332</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -6039,7 +6031,7 @@
         <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -6077,7 +6069,7 @@
         <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -6115,7 +6107,7 @@
         <v>335</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -6153,7 +6145,7 @@
         <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -6191,7 +6183,7 @@
         <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -6229,7 +6221,7 @@
         <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -6267,7 +6259,7 @@
         <v>339</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -6305,7 +6297,7 @@
         <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -6343,7 +6335,7 @@
         <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -6381,7 +6373,7 @@
         <v>342</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -6419,7 +6411,7 @@
         <v>343</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -6457,7 +6449,7 @@
         <v>344</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -6495,7 +6487,7 @@
         <v>345</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -6533,7 +6525,7 @@
         <v>346</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -6571,7 +6563,7 @@
         <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -6609,7 +6601,7 @@
         <v>348</v>
       </c>
       <c r="C125" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6647,7 +6639,7 @@
         <v>349</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -6685,7 +6677,7 @@
         <v>350</v>
       </c>
       <c r="C127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -6723,7 +6715,7 @@
         <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -6761,7 +6753,7 @@
         <v>352</v>
       </c>
       <c r="C129" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -6799,7 +6791,7 @@
         <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D130">
         <v>8</v>
@@ -6837,7 +6829,7 @@
         <v>354</v>
       </c>
       <c r="C131" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -6875,7 +6867,7 @@
         <v>355</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -6913,7 +6905,7 @@
         <v>356</v>
       </c>
       <c r="C133" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -6951,7 +6943,7 @@
         <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6989,7 +6981,7 @@
         <v>358</v>
       </c>
       <c r="C135" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D135">
         <v>8</v>
@@ -7027,7 +7019,7 @@
         <v>359</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -7065,7 +7057,7 @@
         <v>360</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -7103,7 +7095,7 @@
         <v>361</v>
       </c>
       <c r="C138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -7141,7 +7133,7 @@
         <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -7179,7 +7171,7 @@
         <v>363</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D140">
         <v>8</v>
@@ -7217,7 +7209,7 @@
         <v>364</v>
       </c>
       <c r="C141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -7255,7 +7247,7 @@
         <v>365</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -7293,7 +7285,7 @@
         <v>366</v>
       </c>
       <c r="C143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7331,7 +7323,7 @@
         <v>367</v>
       </c>
       <c r="C144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -7369,7 +7361,7 @@
         <v>368</v>
       </c>
       <c r="C145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -7407,7 +7399,7 @@
         <v>369</v>
       </c>
       <c r="C146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7445,7 +7437,7 @@
         <v>370</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -7483,7 +7475,7 @@
         <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -7521,7 +7513,7 @@
         <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7559,7 +7551,7 @@
         <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -7597,7 +7589,7 @@
         <v>374</v>
       </c>
       <c r="C151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -7635,7 +7627,7 @@
         <v>375</v>
       </c>
       <c r="C152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -7673,7 +7665,7 @@
         <v>376</v>
       </c>
       <c r="C153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -7711,7 +7703,7 @@
         <v>377</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -7749,7 +7741,7 @@
         <v>378</v>
       </c>
       <c r="C155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -7787,7 +7779,7 @@
         <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D156">
         <v>8</v>
@@ -7825,7 +7817,7 @@
         <v>380</v>
       </c>
       <c r="C157" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D157">
         <v>8</v>
@@ -7863,7 +7855,7 @@
         <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D158">
         <v>8</v>
@@ -7901,7 +7893,7 @@
         <v>382</v>
       </c>
       <c r="C159" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -7939,7 +7931,7 @@
         <v>383</v>
       </c>
       <c r="C160" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D160">
         <v>8</v>
@@ -7977,7 +7969,7 @@
         <v>384</v>
       </c>
       <c r="C161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D161">
         <v>8</v>
@@ -8015,7 +8007,7 @@
         <v>385</v>
       </c>
       <c r="C162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D162">
         <v>8</v>
@@ -8053,7 +8045,7 @@
         <v>386</v>
       </c>
       <c r="C163" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D163">
         <v>8</v>
@@ -8091,7 +8083,7 @@
         <v>387</v>
       </c>
       <c r="C164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -8129,7 +8121,7 @@
         <v>388</v>
       </c>
       <c r="C165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -8962,7 +8954,7 @@
         <v>1800</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D187">
         <v>7</v>
@@ -8997,7 +8989,7 @@
         <v>1801</v>
       </c>
       <c r="C188" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D188">
         <v>7</v>
@@ -9032,7 +9024,7 @@
         <v>1802</v>
       </c>
       <c r="C189" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D189">
         <v>7</v>
@@ -9067,7 +9059,7 @@
         <v>1803</v>
       </c>
       <c r="C190" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D190">
         <v>7</v>
@@ -9102,7 +9094,7 @@
         <v>1804</v>
       </c>
       <c r="C191" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D191">
         <v>7</v>
@@ -9435,7 +9427,7 @@
         <v>2007</v>
       </c>
       <c r="C200" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D200">
         <v>100</v>
@@ -9473,7 +9465,7 @@
         <v>2008</v>
       </c>
       <c r="C201" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D201">
         <v>100</v>
@@ -9511,7 +9503,7 @@
         <v>2009</v>
       </c>
       <c r="C202" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D202">
         <v>100</v>
@@ -9549,7 +9541,7 @@
         <v>2100</v>
       </c>
       <c r="C203" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D203">
         <v>110</v>
@@ -9587,7 +9579,7 @@
         <v>2101</v>
       </c>
       <c r="C204" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D204">
         <v>110</v>
@@ -9625,7 +9617,7 @@
         <v>2102</v>
       </c>
       <c r="C205" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D205">
         <v>110</v>
@@ -9666,7 +9658,7 @@
         <v>700</v>
       </c>
       <c r="C206" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D206">
         <v>6</v>
@@ -9856,7 +9848,7 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D211">
         <v>1008</v>
@@ -9894,7 +9886,7 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D212">
         <v>1009</v>
@@ -10084,7 +10076,7 @@
         <v>200</v>
       </c>
       <c r="C217" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D217">
         <v>2001</v>
@@ -10122,7 +10114,7 @@
         <v>201</v>
       </c>
       <c r="C218" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D218">
         <v>2001</v>
@@ -10160,7 +10152,7 @@
         <v>202</v>
       </c>
       <c r="C219" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D219">
         <v>2001</v>
@@ -10198,7 +10190,7 @@
         <v>203</v>
       </c>
       <c r="C220" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D220">
         <v>2001</v>
@@ -10236,7 +10228,7 @@
         <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D221">
         <v>2001</v>
@@ -10274,7 +10266,7 @@
         <v>205</v>
       </c>
       <c r="C222" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D222">
         <v>2001</v>
@@ -10312,7 +10304,7 @@
         <v>206</v>
       </c>
       <c r="C223" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D223">
         <v>2001</v>
@@ -10350,7 +10342,7 @@
         <v>207</v>
       </c>
       <c r="C224" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D224">
         <v>2001</v>
@@ -10388,7 +10380,7 @@
         <v>208</v>
       </c>
       <c r="C225" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D225">
         <v>2001</v>
@@ -10426,7 +10418,7 @@
         <v>209</v>
       </c>
       <c r="C226" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D226">
         <v>2001</v>
@@ -10499,7 +10491,7 @@
         <v>6001</v>
       </c>
       <c r="C228" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D228">
         <v>1003</v>
@@ -10531,7 +10523,7 @@
         <v>6002</v>
       </c>
       <c r="C229" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D229">
         <v>1004</v>
@@ -10563,7 +10555,7 @@
         <v>6003</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D230">
         <v>1005</v>
@@ -10595,7 +10587,7 @@
         <v>6004</v>
       </c>
       <c r="C231" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D231">
         <v>1006</v>
@@ -10627,7 +10619,7 @@
         <v>6005</v>
       </c>
       <c r="C232" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D232">
         <v>1007</v>
@@ -11232,7 +11224,7 @@
         <v>7031</v>
       </c>
       <c r="C248" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D248">
         <v>3003</v>
@@ -11270,7 +11262,7 @@
         <v>7032</v>
       </c>
       <c r="C249" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D249">
         <v>3003</v>
@@ -11308,7 +11300,7 @@
         <v>7033</v>
       </c>
       <c r="C250" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D250">
         <v>3003</v>
@@ -11346,7 +11338,7 @@
         <v>7034</v>
       </c>
       <c r="C251" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D251">
         <v>3003</v>
@@ -11421,7 +11413,7 @@
         <v>8003</v>
       </c>
       <c r="C254" t="s">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="D254">
         <v>3003</v>
@@ -11441,7 +11433,7 @@
         <v>8004</v>
       </c>
       <c r="C255" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D255">
         <v>3003</v>
@@ -11461,7 +11453,7 @@
         <v>8005</v>
       </c>
       <c r="C256" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="D256">
         <v>3003</v>
@@ -11481,7 +11473,7 @@
         <v>8010</v>
       </c>
       <c r="C257" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D257">
         <v>3003</v>
@@ -11501,7 +11493,7 @@
         <v>8013</v>
       </c>
       <c r="C258" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="D258">
         <v>3003</v>
@@ -11521,7 +11513,7 @@
         <v>8020</v>
       </c>
       <c r="C259" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D259">
         <v>3001</v>
@@ -11544,7 +11536,7 @@
         <v>8030</v>
       </c>
       <c r="C260" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D260">
         <v>3001</v>
@@ -11567,7 +11559,7 @@
         <v>8031</v>
       </c>
       <c r="C261" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D261">
         <v>3001</v>
@@ -11590,7 +11582,7 @@
         <v>8041</v>
       </c>
       <c r="C262" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D262">
         <v>3001</v>
@@ -11613,7 +11605,7 @@
         <v>8042</v>
       </c>
       <c r="C263" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D263">
         <v>3001</v>
@@ -11636,7 +11628,7 @@
         <v>8043</v>
       </c>
       <c r="C264" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D264">
         <v>3001</v>
@@ -11659,7 +11651,7 @@
         <v>8044</v>
       </c>
       <c r="C265" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D265">
         <v>3001</v>
@@ -11682,7 +11674,7 @@
         <v>8045</v>
       </c>
       <c r="C266" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D266">
         <v>3001</v>
@@ -11705,7 +11697,7 @@
         <v>8046</v>
       </c>
       <c r="C267" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D267">
         <v>3001</v>
@@ -11728,7 +11720,7 @@
         <v>9001</v>
       </c>
       <c r="C268" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D268">
         <v>4000</v>
@@ -11748,7 +11740,7 @@
         <v>9002</v>
       </c>
       <c r="C269" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D269">
         <v>4000</v>
@@ -11768,7 +11760,7 @@
         <v>9003</v>
       </c>
       <c r="C270" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D270">
         <v>4000</v>
@@ -11788,7 +11780,7 @@
         <v>9004</v>
       </c>
       <c r="C271" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D271">
         <v>4000</v>
@@ -11808,7 +11800,7 @@
         <v>9005</v>
       </c>
       <c r="C272" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D272">
         <v>4000</v>
@@ -11828,7 +11820,7 @@
         <v>9006</v>
       </c>
       <c r="C273" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D273">
         <v>4000</v>
@@ -12036,7 +12028,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
@@ -12074,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -12082,13 +12074,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -12096,13 +12088,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -12113,7 +12105,7 @@
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -12124,7 +12116,7 @@
         <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -12135,7 +12127,7 @@
         <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -12143,10 +12135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -12154,7 +12146,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -12162,10 +12154,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -12173,10 +12165,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -12184,10 +12176,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -12195,10 +12187,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -12206,7 +12198,7 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
@@ -12244,7 +12236,7 @@
         <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -12255,7 +12247,7 @@
         <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -12266,7 +12258,7 @@
         <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -12277,7 +12269,7 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -12309,7 +12301,7 @@
         <v>1008</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -12317,7 +12309,7 @@
         <v>1009</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -12357,7 +12349,7 @@
         <v>3001</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -12373,7 +12365,7 @@
         <v>3003</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -12381,7 +12373,7 @@
         <v>4000</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E15A3-0057-4499-81FF-21455614DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53520CB2-EE9D-4951-B6AA-7976C5877497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="344">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1447,6 +1447,10 @@
   </si>
   <si>
     <t>Prefabs/Game/Scene/object_3d_217</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Block/block_3d_052</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1579,8 +1583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M275" totalsRowShown="0">
-  <autoFilter ref="A1:M275" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M276" totalsRowShown="0">
+  <autoFilter ref="A1:M276" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1897,13 +1901,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C258" sqref="C258"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3640,7 +3644,7 @@
         <v>333</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3658,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -3678,7 +3682,7 @@
         <v>334</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3696,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3906,7 +3910,7 @@
         <v>340</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3973,13 +3977,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1178</v>
+        <v>1150</v>
       </c>
       <c r="B56">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="D56">
         <v>8</v>
@@ -4011,13 +4015,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B57">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -4049,16 +4053,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B58">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4076,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -4087,16 +4091,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B59">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4114,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -4125,16 +4129,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B60">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4152,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -4163,16 +4167,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B61">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4190,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -4201,16 +4205,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B62">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4239,13 +4243,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B63">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -4277,13 +4281,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B64">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64">
         <v>8</v>
@@ -4315,13 +4319,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B65">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -4353,13 +4357,13 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B66">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -4391,13 +4395,13 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B67">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67">
         <v>8</v>
@@ -4429,16 +4433,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B68">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4467,16 +4471,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B69">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4505,13 +4509,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B70">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70">
         <v>8</v>
@@ -4543,13 +4547,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B71">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>8</v>
@@ -4581,13 +4585,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B72">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -4619,13 +4623,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B73">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73">
         <v>8</v>
@@ -4657,13 +4661,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B74">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74">
         <v>8</v>
@@ -4695,13 +4699,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B75">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75">
         <v>8</v>
@@ -4733,13 +4737,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B76">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76">
         <v>8</v>
@@ -4771,13 +4775,13 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B77">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -4809,13 +4813,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B78">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -4847,13 +4851,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B79">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -4885,13 +4889,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B80">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -4923,13 +4927,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B81">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81">
         <v>8</v>
@@ -4961,13 +4965,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B82">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -4999,13 +5003,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B83">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D83">
         <v>8</v>
@@ -5037,13 +5041,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B84">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D84">
         <v>8</v>
@@ -5075,13 +5079,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B85">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -5113,13 +5117,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B86">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86">
         <v>8</v>
@@ -5151,13 +5155,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B87">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -5189,13 +5193,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B88">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88">
         <v>8</v>
@@ -5227,13 +5231,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B89">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -5265,13 +5269,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B90">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -5303,13 +5307,13 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B91">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -5341,13 +5345,13 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B92">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -5379,13 +5383,13 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B93">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -5417,13 +5421,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B94">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94">
         <v>8</v>
@@ -5455,13 +5459,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B95">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5493,13 +5497,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B96">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D96">
         <v>8</v>
@@ -5531,13 +5535,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B97">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D97">
         <v>8</v>
@@ -5569,13 +5573,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B98">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -5607,13 +5611,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B99">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D99">
         <v>8</v>
@@ -5645,13 +5649,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B100">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D100">
         <v>8</v>
@@ -5683,13 +5687,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B101">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D101">
         <v>8</v>
@@ -5721,13 +5725,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B102">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -5759,13 +5763,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B103">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D103">
         <v>8</v>
@@ -5797,13 +5801,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B104">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D104">
         <v>8</v>
@@ -5835,13 +5839,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B105">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -5873,13 +5877,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B106">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D106">
         <v>8</v>
@@ -5911,13 +5915,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B107">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -5949,13 +5953,13 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B108">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5987,13 +5991,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B109">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -6025,13 +6029,13 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B110">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D110">
         <v>8</v>
@@ -6063,13 +6067,13 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B111">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -6101,13 +6105,13 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B112">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -6139,13 +6143,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B113">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -6177,13 +6181,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B114">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D114">
         <v>8</v>
@@ -6215,13 +6219,13 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B115">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D115">
         <v>8</v>
@@ -6253,13 +6257,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B116">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D116">
         <v>8</v>
@@ -6291,13 +6295,13 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B117">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D117">
         <v>8</v>
@@ -6329,13 +6333,13 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B118">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D118">
         <v>8</v>
@@ -6367,13 +6371,13 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B119">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D119">
         <v>8</v>
@@ -6405,13 +6409,13 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B120">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -6443,13 +6447,13 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B121">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -6481,13 +6485,13 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B122">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D122">
         <v>8</v>
@@ -6519,13 +6523,13 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B123">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D123">
         <v>8</v>
@@ -6557,13 +6561,13 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B124">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -6595,13 +6599,13 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B125">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D125">
         <v>8</v>
@@ -6633,13 +6637,13 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B126">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -6671,13 +6675,13 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B127">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -6709,13 +6713,13 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B128">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D128">
         <v>8</v>
@@ -6747,13 +6751,13 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B129">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -6785,13 +6789,13 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B130">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D130">
         <v>8</v>
@@ -6823,13 +6827,13 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B131">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D131">
         <v>8</v>
@@ -6861,13 +6865,13 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B132">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D132">
         <v>8</v>
@@ -6899,13 +6903,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B133">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D133">
         <v>8</v>
@@ -6937,13 +6941,13 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B134">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D134">
         <v>8</v>
@@ -6975,13 +6979,13 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B135">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D135">
         <v>8</v>
@@ -7013,13 +7017,13 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B136">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D136">
         <v>8</v>
@@ -7051,13 +7055,13 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B137">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -7089,13 +7093,13 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B138">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D138">
         <v>8</v>
@@ -7127,13 +7131,13 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B139">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -7165,13 +7169,13 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B140">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D140">
         <v>8</v>
@@ -7203,13 +7207,13 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B141">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -7241,13 +7245,13 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B142">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D142">
         <v>8</v>
@@ -7279,13 +7283,13 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B143">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -7317,13 +7321,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B144">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D144">
         <v>8</v>
@@ -7355,13 +7359,13 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B145">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D145">
         <v>8</v>
@@ -7393,13 +7397,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B146">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -7431,13 +7435,13 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B147">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D147">
         <v>8</v>
@@ -7469,13 +7473,13 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B148">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C148" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D148">
         <v>8</v>
@@ -7507,13 +7511,13 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B149">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C149" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -7545,13 +7549,13 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B150">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -7583,13 +7587,13 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B151">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C151" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -7621,13 +7625,13 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B152">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -7659,13 +7663,13 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B153">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C153" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -7697,13 +7701,13 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B154">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C154" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -7735,13 +7739,13 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B155">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C155" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -7773,13 +7777,13 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B156">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C156" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D156">
         <v>8</v>
@@ -7811,13 +7815,13 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B157">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D157">
         <v>8</v>
@@ -7849,13 +7853,13 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B158">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C158" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D158">
         <v>8</v>
@@ -7887,13 +7891,13 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B159">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -7925,13 +7929,13 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B160">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D160">
         <v>8</v>
@@ -7963,13 +7967,13 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B161">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C161" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D161">
         <v>8</v>
@@ -8001,13 +8005,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B162">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D162">
         <v>8</v>
@@ -8039,13 +8043,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B163">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D163">
         <v>8</v>
@@ -8077,13 +8081,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B164">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -8115,13 +8119,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B165">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -8153,16 +8157,16 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1500</v>
+        <v>1288</v>
       </c>
       <c r="B166">
-        <v>500</v>
+        <v>388</v>
       </c>
       <c r="C166" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8174,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -8183,21 +8187,21 @@
         <v>1</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B167">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C167" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -8229,13 +8233,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B168">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -8267,13 +8271,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B169">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -8305,13 +8309,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B170">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -8343,13 +8347,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B171">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -8381,13 +8385,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B172">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -8419,13 +8423,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B173">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -8457,13 +8461,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B174">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -8495,13 +8499,13 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B175">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -8533,28 +8537,28 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>1550</v>
+        <v>1509</v>
       </c>
       <c r="B176">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J176">
         <v>1</v>
@@ -8571,13 +8575,13 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B177">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D177">
         <v>4</v>
@@ -8609,13 +8613,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B178">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D178">
         <v>4</v>
@@ -8647,13 +8651,13 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B179">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C179" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D179">
         <v>4</v>
@@ -8685,13 +8689,13 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B180">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C180" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D180">
         <v>4</v>
@@ -8723,13 +8727,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B181">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D181">
         <v>4</v>
@@ -8761,13 +8765,13 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B182">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C182" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D182">
         <v>4</v>
@@ -8799,13 +8803,13 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B183">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D183">
         <v>4</v>
@@ -8837,13 +8841,13 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B184">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C184" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D184">
         <v>4</v>
@@ -8875,13 +8879,13 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B185">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C185" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D185">
         <v>4</v>
@@ -8913,34 +8917,34 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>1600</v>
+        <v>1559</v>
       </c>
       <c r="B186">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C186" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J186">
         <v>1</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -8951,13 +8955,16 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>1800</v>
+        <v>1600</v>
+      </c>
+      <c r="B187">
+        <v>600</v>
       </c>
       <c r="C187" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -8969,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J187">
         <v>1</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -8986,10 +8993,10 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C188" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D188">
         <v>7</v>
@@ -9021,10 +9028,10 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C189" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D189">
         <v>7</v>
@@ -9056,10 +9063,10 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C190" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D190">
         <v>7</v>
@@ -9091,10 +9098,10 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D191">
         <v>7</v>
@@ -9126,13 +9133,13 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>1999</v>
+        <v>1804</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D192">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9143,28 +9150,31 @@
       <c r="G192">
         <v>1</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D193">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -9173,33 +9183,27 @@
         <v>1</v>
       </c>
       <c r="G193">
-        <v>5</v>
-      </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-      <c r="I193">
         <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D194">
         <v>100</v>
@@ -9214,10 +9218,10 @@
         <v>5</v>
       </c>
       <c r="H194">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -9234,10 +9238,10 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>100</v>
@@ -9252,10 +9256,10 @@
         <v>5</v>
       </c>
       <c r="H195">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -9272,28 +9276,28 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>100</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I196">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -9310,10 +9314,10 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D197">
         <v>100</v>
@@ -9331,7 +9335,7 @@
         <v>2</v>
       </c>
       <c r="I197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -9348,10 +9352,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198">
         <v>100</v>
@@ -9369,7 +9373,7 @@
         <v>2</v>
       </c>
       <c r="I198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -9386,10 +9390,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199">
         <v>100</v>
@@ -9407,7 +9411,7 @@
         <v>2</v>
       </c>
       <c r="I199">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -9424,10 +9428,10 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D200">
         <v>100</v>
@@ -9442,10 +9446,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -9462,10 +9466,10 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D201">
         <v>100</v>
@@ -9480,10 +9484,10 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -9500,19 +9504,19 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C202" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D202">
         <v>100</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -9521,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="I202">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -9538,34 +9542,34 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>2100</v>
+        <v>2009</v>
       </c>
       <c r="C203" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D203">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J203">
         <v>1</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -9576,10 +9580,10 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D204">
         <v>110</v>
@@ -9597,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="I204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -9614,10 +9618,10 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C205" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D205">
         <v>110</v>
@@ -9635,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -9652,54 +9656,54 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>3000</v>
-      </c>
-      <c r="B206">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C206" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>3</v>
       </c>
       <c r="J206">
         <v>1</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D207">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -9711,42 +9715,42 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J207">
         <v>1</v>
       </c>
       <c r="K207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D208">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -9766,22 +9770,22 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -9796,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="L209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M209">
         <v>0</v>
@@ -9804,19 +9808,19 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210">
         <v>2000</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -9842,22 +9846,22 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="B211">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="D211">
-        <v>1008</v>
+        <v>2000</v>
       </c>
       <c r="E211">
         <v>2</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -9872,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211">
         <v>0</v>
@@ -9880,16 +9884,16 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D212">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -9918,25 +9922,25 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>5100</v>
+        <v>5010</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="D213">
-        <v>2100</v>
+        <v>1009</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -9951,30 +9955,30 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D214">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -9983,36 +9987,36 @@
         <v>1</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214">
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B215">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D215">
         <v>3001</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -10024,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -10032,13 +10036,13 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D216">
         <v>3001</v>
@@ -10069,23 +10073,23 @@
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" s="4">
-        <v>5200</v>
+      <c r="A217">
+        <v>5103</v>
       </c>
       <c r="B217">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D217">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -10097,10 +10101,10 @@
         <v>1</v>
       </c>
       <c r="K217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -10108,13 +10112,13 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B218">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D218">
         <v>2001</v>
@@ -10146,13 +10150,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B219">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D219">
         <v>2001</v>
@@ -10184,13 +10188,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B220">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D220">
         <v>2001</v>
@@ -10222,13 +10226,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B221">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D221">
         <v>2001</v>
@@ -10260,13 +10264,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B222">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D222">
         <v>2001</v>
@@ -10298,13 +10302,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B223">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D223">
         <v>2001</v>
@@ -10336,13 +10340,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B224">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D224">
         <v>2001</v>
@@ -10374,13 +10378,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B225">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C225" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D225">
         <v>2001</v>
@@ -10412,13 +10416,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B226">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D226">
         <v>2001</v>
@@ -10449,26 +10453,26 @@
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A227">
-        <v>6000</v>
+      <c r="A227" s="4">
+        <v>5209</v>
       </c>
       <c r="B227">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C227" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D227">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -10488,25 +10492,31 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B228">
+        <v>3003</v>
       </c>
       <c r="C228" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D228">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228">
+        <v>3</v>
+      </c>
+      <c r="H228">
         <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -10520,13 +10530,13 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="C229" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D229">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10552,13 +10562,13 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="C230" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D230">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10584,13 +10594,13 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="C231" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D231">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10616,13 +10626,13 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="C232" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D232">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -10648,31 +10658,25 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233">
-        <v>7016</v>
-      </c>
-      <c r="B233">
-        <v>7016</v>
+        <v>6005</v>
       </c>
       <c r="C233" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D233">
-        <v>3003</v>
+        <v>1007</v>
       </c>
       <c r="E233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>2</v>
-      </c>
-      <c r="H233">
         <v>1</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -10686,13 +10690,13 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="B234">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="C234" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D234">
         <v>3003</v>
@@ -10724,25 +10728,25 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="B235">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="C235" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D235">
         <v>3003</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -10762,22 +10766,22 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="B236">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="C236" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D236">
         <v>3003</v>
       </c>
       <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
         <v>3</v>
-      </c>
-      <c r="F236">
-        <v>1</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -10800,19 +10804,19 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="B237">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="C237" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D237">
         <v>3003</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -10838,13 +10842,13 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="B238">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="C238" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D238">
         <v>3003</v>
@@ -10876,13 +10880,13 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="B239">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="C239" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D239">
         <v>3003</v>
@@ -10914,13 +10918,13 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="B240">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="C240" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D240">
         <v>3003</v>
@@ -10952,13 +10956,13 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="B241">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="C241" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D241">
         <v>3003</v>
@@ -10990,13 +10994,13 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="B242">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="C242" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D242">
         <v>3003</v>
@@ -11028,19 +11032,19 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="B243">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="C243" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D243">
         <v>3003</v>
       </c>
       <c r="E243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -11066,13 +11070,13 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="B244">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="C244" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D244">
         <v>3003</v>
@@ -11104,13 +11108,13 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="B245">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="C245" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D245">
         <v>3003</v>
@@ -11142,13 +11146,13 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="B246">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="C246" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D246">
         <v>3003</v>
@@ -11180,13 +11184,13 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="B247">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="C247" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D247">
         <v>3003</v>
@@ -11218,13 +11222,13 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="B248">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="C248" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="D248">
         <v>3003</v>
@@ -11233,10 +11237,10 @@
         <v>2</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248">
         <v>1</v>
@@ -11256,13 +11260,13 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="B249">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="C249" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D249">
         <v>3003</v>
@@ -11274,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="G249">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -11294,13 +11298,13 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="B250">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="C250" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D250">
         <v>3003</v>
@@ -11312,7 +11316,7 @@
         <v>2</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -11332,13 +11336,13 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="B251">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="C251" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D251">
         <v>3003</v>
@@ -11370,10 +11374,13 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252">
-        <v>8001</v>
+        <v>7034</v>
+      </c>
+      <c r="B252">
+        <v>7034</v>
       </c>
       <c r="C252" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="D252">
         <v>3003</v>
@@ -11385,15 +11392,30 @@
         <v>2</v>
       </c>
       <c r="G252">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C253" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D253">
         <v>3003</v>
@@ -11410,10 +11432,10 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C254" t="s">
-        <v>342</v>
+        <v>135</v>
       </c>
       <c r="D254">
         <v>3003</v>
@@ -11430,10 +11452,10 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C255" t="s">
-        <v>136</v>
+        <v>342</v>
       </c>
       <c r="D255">
         <v>3003</v>
@@ -11450,10 +11472,10 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C256" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="D256">
         <v>3003</v>
@@ -11470,10 +11492,10 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257">
-        <v>8010</v>
+        <v>8005</v>
       </c>
       <c r="C257" t="s">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="D257">
         <v>3003</v>
@@ -11485,15 +11507,15 @@
         <v>2</v>
       </c>
       <c r="G257">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258">
-        <v>8013</v>
+        <v>8010</v>
       </c>
       <c r="C258" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="D258">
         <v>3003</v>
@@ -11510,33 +11532,30 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259">
-        <v>8020</v>
+        <v>8013</v>
       </c>
       <c r="C259" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="D259">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G259">
-        <v>1</v>
-      </c>
-      <c r="K259">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260">
-        <v>8030</v>
+        <v>8020</v>
       </c>
       <c r="C260" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D260">
         <v>3001</v>
@@ -11548,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="G260">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -11556,10 +11575,10 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="C261" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D261">
         <v>3001</v>
@@ -11579,22 +11598,22 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262">
-        <v>8041</v>
+        <v>8031</v>
       </c>
       <c r="C262" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D262">
         <v>3001</v>
       </c>
       <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
         <v>5</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>3</v>
       </c>
       <c r="K262">
         <v>1</v>
@@ -11602,10 +11621,10 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263">
-        <v>8042</v>
+        <v>8041</v>
       </c>
       <c r="C263" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D263">
         <v>3001</v>
@@ -11625,22 +11644,22 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264">
-        <v>8043</v>
+        <v>8042</v>
       </c>
       <c r="C264" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D264">
         <v>3001</v>
       </c>
       <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
         <v>3</v>
-      </c>
-      <c r="F264">
-        <v>2</v>
-      </c>
-      <c r="G264">
-        <v>1.5</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -11648,10 +11667,10 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265">
-        <v>8044</v>
+        <v>8043</v>
       </c>
       <c r="C265" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D265">
         <v>3001</v>
@@ -11660,10 +11679,10 @@
         <v>3</v>
       </c>
       <c r="F265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G265">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -11671,19 +11690,19 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266">
-        <v>8045</v>
+        <v>8044</v>
       </c>
       <c r="C266" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D266">
         <v>3001</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -11694,16 +11713,16 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267">
-        <v>8046</v>
+        <v>8045</v>
       </c>
       <c r="C267" t="s">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="D267">
         <v>3001</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -11717,30 +11736,33 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268">
-        <v>9001</v>
+        <v>8046</v>
       </c>
       <c r="C268" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="D268">
-        <v>4000</v>
+        <v>3001</v>
       </c>
       <c r="E268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="K268">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C269" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D269">
         <v>4000</v>
@@ -11757,10 +11779,10 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C270" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D270">
         <v>4000</v>
@@ -11777,10 +11799,10 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C271" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D271">
         <v>4000</v>
@@ -11797,10 +11819,10 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C272" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D272">
         <v>4000</v>
@@ -11817,10 +11839,10 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C273" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D273">
         <v>4000</v>
@@ -11837,13 +11859,13 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274">
-        <v>9999</v>
+        <v>9006</v>
       </c>
       <c r="C274" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="D274">
-        <v>9999</v>
+        <v>4000</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -11853,43 +11875,63 @@
       </c>
       <c r="G274">
         <v>1</v>
-      </c>
-      <c r="J274">
-        <v>0</v>
-      </c>
-      <c r="K274">
-        <v>0</v>
-      </c>
-      <c r="L274">
-        <v>0</v>
-      </c>
-      <c r="M274">
-        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275">
+        <v>9999</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275">
+        <v>9999</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A276">
         <v>10000</v>
       </c>
-      <c r="D275">
+      <c r="D276">
         <v>10000</v>
       </c>
-      <c r="E275">
-        <v>1</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-      <c r="J275">
-        <v>0</v>
-      </c>
-      <c r="K275">
-        <v>0</v>
-      </c>
-      <c r="M275">
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="M276">
         <v>1</v>
       </c>
     </row>
@@ -12052,8 +12094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C51309-F33A-4371-B011-688137A20734}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53520CB2-EE9D-4951-B6AA-7976C5877497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB98C6A-A0A1-4A92-AB53-950086268E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -1907,7 +1907,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3796,7 +3796,7 @@
         <v>337</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>341</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>1</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88054191-66F1-49D9-A7D7-BB2BFD21A339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE42A3D2-4852-4E18-8192-FBDED6398A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1908,10 +1908,10 @@
   <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I54:I55"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1972,6 +1972,9 @@
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB98C6A-A0A1-4A92-AB53-950086268E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D186F2-5220-4402-BEDA-6ADCE2B1DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1904,10 +1904,10 @@
   <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1968,6 +1968,9 @@
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/Config/Excel/Entity.xlsx
+++ b/Config/Excel/Entity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D186F2-5220-4402-BEDA-6ADCE2B1DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0611F36-F97A-4F5A-BD06-E122B73A3B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2C148A-D37E-4257-B9DC-15B8BB1E4C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="346">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1451,6 +1451,20 @@
   </si>
   <si>
     <t>Prefabs/Game/Block/block_3d_052</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の種</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/object_3d_305</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1583,8 +1597,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M276" totalsRowShown="0">
-  <autoFilter ref="A1:M276" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}" name="テーブル1" displayName="テーブル1" ref="A1:M277" totalsRowShown="0">
+  <autoFilter ref="A1:M277" xr:uid="{CD14A2B0-CD84-4C4B-AA09-92D132DC6927}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DDE64C2E-1458-4EB9-A609-E01B243572B5}" name="ID"/>
     <tableColumn id="11" xr3:uid="{08B005D1-B83D-419C-A23D-8B44B4E8E461}" name="ItemID"/>
@@ -1901,13 +1915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DCECCC-4214-48FE-8356-84AAB79E65E1}">
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9171,45 +9185,48 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>1999</v>
+        <v>1805</v>
       </c>
       <c r="C193" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="D193">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D194">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -9218,33 +9235,27 @@
         <v>1</v>
       </c>
       <c r="G194">
-        <v>5</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194">
         <v>1</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D195">
         <v>100</v>
@@ -9259,10 +9270,10 @@
         <v>5</v>
       </c>
       <c r="H195">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -9279,10 +9290,10 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D196">
         <v>100</v>
@@ -9297,10 +9308,10 @@
         <v>5</v>
       </c>
       <c r="H196">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -9317,28 +9328,28 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D197">
         <v>100</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -9355,10 +9366,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198">
         <v>100</v>
@@ -9376,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="I198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -9393,10 +9404,10 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199">
         <v>100</v>
@@ -9414,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="I199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -9431,10 +9442,10 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200">
         <v>100</v>
@@ -9452,7 +9463,7 @@
         <v>2</v>
       </c>
       <c r="I200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -9469,10 +9480,10 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C201" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="D201">
         <v>100</v>
@@ -9487,10 +9498,10 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -9507,10 +9518,10 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D202">
         <v>100</v>
@@ -9525,10 +9536,10 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -9545,19 +9556,19 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C203" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D203">
         <v>100</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -9566,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="I203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J203">
         <v>1</v>
@@ -9583,34 +9594,34 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204">
-        <v>2100</v>
+        <v>2009</v>
       </c>
       <c r="C204" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="D204">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
         <v>2</v>
       </c>
-      <c r="F204">
-        <v>2</v>
-      </c>
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204">
-        <v>1</v>
-      </c>
       <c r="I204">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J204">
         <v>1</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -9621,10 +9632,10 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D205">
         <v>110</v>
@@ -9642,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -9659,10 +9670,10 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D206">
         <v>110</v>
@@ -9680,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J206">
         <v>1</v>
@@ -9697,54 +9708,54 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207">
-        <v>3000</v>
-      </c>
-      <c r="B207">
-        <v>700</v>
+        <v>2102</v>
       </c>
       <c r="C207" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
       </c>
       <c r="J207">
         <v>1</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D208">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -9756,42 +9767,42 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J208">
         <v>1</v>
       </c>
       <c r="K208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D209">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -9811,22 +9822,22 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D210">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -9841,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="L210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M210">
         <v>0</v>
@@ -9849,19 +9860,19 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211">
         <v>2000</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -9887,22 +9898,22 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="D212">
-        <v>1008</v>
+        <v>2000</v>
       </c>
       <c r="E212">
         <v>2</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -9917,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212">
         <v>0</v>
@@ -9925,16 +9936,16 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D213">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -9963,25 +9974,25 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214">
-        <v>5100</v>
+        <v>5010</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="D214">
-        <v>2100</v>
+        <v>1009</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -9996,30 +10007,30 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D215">
-        <v>3001</v>
+        <v>2100</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -10028,36 +10039,36 @@
         <v>1</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215">
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D216">
         <v>3001</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -10069,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -10077,13 +10088,13 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D217">
         <v>3001</v>
@@ -10114,23 +10125,23 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" s="4">
-        <v>5200</v>
+      <c r="A218">
+        <v>5103</v>
       </c>
       <c r="B218">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D218">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -10142,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="K218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -10153,13 +10164,13 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="4">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B219">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D219">
         <v>2001</v>
@@ -10191,13 +10202,13 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="4">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B220">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D220">
         <v>2001</v>
@@ -10229,13 +10240,13 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="4">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B221">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D221">
         <v>2001</v>
@@ -10267,13 +10278,13 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="4">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B222">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D222">
         <v>2001</v>
@@ -10305,13 +10316,13 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="4">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B223">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D223">
         <v>2001</v>
@@ -10343,13 +10354,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="4">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B224">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D224">
         <v>2001</v>
@@ -10381,13 +10392,13 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="4">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B225">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D225">
         <v>2001</v>
@@ -10419,13 +10430,13 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="4">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B226">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C226" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D226">
         <v>2001</v>
@@ -10457,13 +10468,13 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="4">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B227">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D227">
         <v>2001</v>
@@ -10494,26 +10505,26 @@
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A228">
-        <v>6000</v>
+      <c r="A228" s="4">
+        <v>5209</v>
       </c>
       <c r="B228">
-        <v>3003</v>
+        <v>209</v>
       </c>
       <c r="C228" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D228">
-        <v>1002</v>
+        <v>2001</v>
       </c>
       <c r="E228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -10533,25 +10544,31 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229">
-        <v>6001</v>
+        <v>6000</v>
+      </c>
+      <c r="B229">
+        <v>3003</v>
       </c>
       <c r="C229" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="D229">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r